--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1927372.376126391</v>
+        <v>1916102.406364323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11804570.73301767</v>
+        <v>11736072.99232653</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7754658.942500948</v>
+        <v>8342140.091547172</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6126746.981255122</v>
+        <v>5990421.509823291</v>
       </c>
     </row>
     <row r="11">
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>151.9189928502497</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>38.63485716992052</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154125</v>
       </c>
       <c r="N11" t="n">
-        <v>133.7877643830748</v>
+        <v>116.3075970105509</v>
       </c>
       <c r="O11" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179169</v>
       </c>
       <c r="P11" t="n">
-        <v>154.1672282604038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.36329557505862</v>
+        <v>84.66254463864961</v>
       </c>
       <c r="R11" t="n">
-        <v>36.8519273894421</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>64.91401616362899</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>56.1992029734175</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>43.13244186659311</v>
       </c>
       <c r="O12" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587285</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8851,13 +8853,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>92.61130508757253</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>94.3544411878901</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>84.17400861449477</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>127.2458115242516</v>
       </c>
       <c r="K14" t="n">
-        <v>90.42265410313786</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>135.7348012321507</v>
       </c>
       <c r="M14" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154125</v>
       </c>
       <c r="N14" t="n">
-        <v>133.7877643830748</v>
+        <v>97.78335260470003</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>154.1672282604038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8.784161032026148</v>
       </c>
       <c r="R14" t="n">
-        <v>14.17055506776842</v>
+        <v>30.69812377342873</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>83.07490494225519</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>61.90199527586647</v>
       </c>
       <c r="P15" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587285</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9088,13 +9090,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757253</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>94.3544411878901</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>84.17400861449477</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>127.2458115242516</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>54.53536324501103</v>
       </c>
       <c r="M17" t="n">
-        <v>136.2436127936336</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>100.7108869429078</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>123.2959266179169</v>
       </c>
       <c r="P17" t="n">
-        <v>154.1672282604038</v>
+        <v>140.0797166334403</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.4325079684425</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.17055506776842</v>
+        <v>10.38387094954782</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9325,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757253</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9334,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>127.2458115242516</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>139.4574578697238</v>
       </c>
       <c r="L20" t="n">
-        <v>49.71418124344233</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>154.1672282604038</v>
+        <v>140.0797166334403</v>
       </c>
       <c r="Q20" t="n">
-        <v>164.4325079684425</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.17055506776842</v>
+        <v>10.38387094954782</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.53893599389278</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>79.21931126951839</v>
+        <v>16.41883975279028</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9562,16 +9564,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757253</v>
       </c>
       <c r="M22" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>98.26659254753098</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>36.74905268015777</v>
       </c>
       <c r="L23" t="n">
-        <v>1.8458184477674</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>136.2436127936336</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P23" t="n">
-        <v>154.1672282604038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.4325079684425</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.17055506776842</v>
+        <v>10.38387094954769</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N24" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P24" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9799,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M25" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>90.89860780730123</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>135.560481528504</v>
+        <v>17.19489523042144</v>
       </c>
       <c r="K26" t="n">
-        <v>35.7142729404062</v>
+        <v>139.4574578697236</v>
       </c>
       <c r="L26" t="n">
-        <v>34.98971738994938</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M26" t="n">
-        <v>20.03889288379006</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N26" t="n">
-        <v>17.58304447323124</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O26" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P26" t="n">
-        <v>70.61918295987437</v>
+        <v>36.91784642087399</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.4325079684425</v>
+        <v>43.80245713157979</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.53893599389278</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L27" t="n">
-        <v>76.29495043886378</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M27" t="n">
-        <v>69.48021646862634</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N27" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>79.21931126951839</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.3794423712297</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>14.57105838316146</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,19 +10035,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L28" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M28" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>90.89860780730123</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O28" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>17.19489523042145</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>29.40654157589357</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M29" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.25668071672051</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>123.2959266179167</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>43.8024571315798</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>9.907750167243989</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>56.19920297341729</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>74.37308994567076</v>
+        <v>61.90199527586627</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>69.2101583258727</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.02405569257687</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.57105838316146</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.17400861449468</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17.64461841224191</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>25.75718500273233</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7850881582189</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8.060695247347475</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O34" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>151.9189928502497</v>
+        <v>100.5325757538428</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>45.25978294667217</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>39.70898357556815</v>
       </c>
       <c r="O38" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.060695247347475</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10984,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>89.05696475605096</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M40" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>32.27600509011071</v>
+        <v>115.9351429494177</v>
       </c>
       <c r="K41" t="n">
-        <v>151.9189928502497</v>
+        <v>61.48748042020775</v>
       </c>
       <c r="L41" t="n">
-        <v>151.1944372997929</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M41" t="n">
-        <v>136.2436127936336</v>
+        <v>41.07181146589632</v>
       </c>
       <c r="N41" t="n">
-        <v>112.1353712427468</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O41" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P41" t="n">
-        <v>154.1672282604038</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.14803153004924</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.87526176899687</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>5.104927492739165</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.3794423712297</v>
+        <v>18.71861124740948</v>
       </c>
       <c r="R42" t="n">
-        <v>24.59188679733429</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.71504371253754</v>
+        <v>28.92271635302446</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>18.0083238997495</v>
       </c>
       <c r="L43" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M43" t="n">
-        <v>101.2428308915414</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N43" t="n">
-        <v>90.89860780730123</v>
+        <v>6.204031164978787</v>
       </c>
       <c r="O43" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P43" t="n">
-        <v>5.368888194302965</v>
+        <v>25.36858485079167</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.09075191497517</v>
+        <v>49.72555725655609</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242515</v>
       </c>
       <c r="K44" t="n">
-        <v>151.9189928502497</v>
+        <v>61.48748042020775</v>
       </c>
       <c r="L44" t="n">
-        <v>151.1944372997929</v>
+        <v>57.76482378263456</v>
       </c>
       <c r="M44" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N44" t="n">
-        <v>133.7877643830748</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O44" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P44" t="n">
-        <v>154.1672282604038</v>
+        <v>62.10973918392421</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.4325079684425</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>9.87526176899687</v>
       </c>
       <c r="J45" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K45" t="n">
-        <v>91.53893599389278</v>
+        <v>5.104927492739165</v>
       </c>
       <c r="L45" t="n">
-        <v>76.29495043886378</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>74.37308994567076</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P45" t="n">
-        <v>79.21931126951839</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.3794423712297</v>
+        <v>73.70616540129265</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,25 +11457,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L46" t="n">
-        <v>99.14454902502614</v>
+        <v>92.61130508757242</v>
       </c>
       <c r="M46" t="n">
-        <v>101.2428308915414</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N46" t="n">
-        <v>90.89860780730123</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O46" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P46" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>49.72555725655609</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>261.8068333483276</v>
       </c>
       <c r="G11" t="n">
-        <v>269.697606501469</v>
+        <v>269.5996413472928</v>
       </c>
       <c r="H11" t="n">
-        <v>188.9171131524175</v>
+        <v>187.9138275172117</v>
       </c>
       <c r="I11" t="n">
-        <v>44.74567456858981</v>
+        <v>40.96887296221638</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>51.73861163317923</v>
+        <v>49.50623068239173</v>
       </c>
       <c r="T11" t="n">
-        <v>75.68065341046184</v>
+        <v>75.25181094805603</v>
       </c>
       <c r="U11" t="n">
-        <v>106.23356702483</v>
+        <v>106.225729812496</v>
       </c>
       <c r="V11" t="n">
         <v>182.683046076751</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>21.28785663472061</v>
+        <v>20.31425282388091</v>
       </c>
       <c r="T12" t="n">
-        <v>53.93974586280751</v>
+        <v>53.72847268638208</v>
       </c>
       <c r="U12" t="n">
-        <v>80.8533050993652</v>
+        <v>80.84985667972822</v>
       </c>
       <c r="V12" t="n">
         <v>87.73137475604139</v>
@@ -23428,13 +23430,13 @@
         <v>0.3518356295473666</v>
       </c>
       <c r="G13" t="n">
-        <v>22.68137232167368</v>
+        <v>22.63742852608115</v>
       </c>
       <c r="H13" t="n">
-        <v>15.02063319363407</v>
+        <v>14.62993290191156</v>
       </c>
       <c r="I13" t="n">
-        <v>3.151939985045374</v>
+        <v>1.830430204863376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.4151616541277</v>
+        <v>19.43928880866815</v>
       </c>
       <c r="S13" t="n">
-        <v>74.75796263086008</v>
+        <v>73.99214212039789</v>
       </c>
       <c r="T13" t="n">
-        <v>81.84923628581973</v>
+        <v>81.66147643192446</v>
       </c>
       <c r="U13" t="n">
-        <v>141.2367045280124</v>
+        <v>141.2343075937074</v>
       </c>
       <c r="V13" t="n">
         <v>107.0684309304441</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.983256948423</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C14" t="n">
-        <v>197.52230705595</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D14" t="n">
-        <v>186.9324569056254</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1797853572042</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F14" t="n">
-        <v>239.1254610266539</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G14" t="n">
-        <v>247.0162341797952</v>
+        <v>269.5996413472928</v>
       </c>
       <c r="H14" t="n">
-        <v>166.2357408307438</v>
+        <v>187.9138275172117</v>
       </c>
       <c r="I14" t="n">
-        <v>22.06430224691613</v>
+        <v>40.96887296221638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.05723931150555</v>
+        <v>49.50623068239173</v>
       </c>
       <c r="T14" t="n">
-        <v>52.99928108878817</v>
+        <v>75.25181094805603</v>
       </c>
       <c r="U14" t="n">
-        <v>83.55219470315635</v>
+        <v>106.225729812496</v>
       </c>
       <c r="V14" t="n">
-        <v>160.0016737550773</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W14" t="n">
-        <v>181.4903840023555</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X14" t="n">
-        <v>201.9805159634115</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.487353940996</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C15" t="n">
-        <v>4.957914273258183</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>20.31425282388091</v>
       </c>
       <c r="T15" t="n">
-        <v>31.25837354113384</v>
+        <v>53.72847268638208</v>
       </c>
       <c r="U15" t="n">
-        <v>58.17193277769152</v>
+        <v>80.84985667972822</v>
       </c>
       <c r="V15" t="n">
-        <v>65.05000243436771</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W15" t="n">
-        <v>83.94439844586205</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X15" t="n">
-        <v>38.02240048841992</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.9321110622468</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="16">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.08139546687974</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.63742852608115</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>14.62993290191156</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.830430204863376</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.43928880866815</v>
       </c>
       <c r="S16" t="n">
-        <v>52.0765903091864</v>
+        <v>73.99214212039789</v>
       </c>
       <c r="T16" t="n">
-        <v>59.16786396414605</v>
+        <v>81.66147643192446</v>
       </c>
       <c r="U16" t="n">
-        <v>118.5553322063387</v>
+        <v>141.2343075937074</v>
       </c>
       <c r="V16" t="n">
-        <v>84.38705860877045</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W16" t="n">
-        <v>118.7724136215334</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X16" t="n">
-        <v>57.9590706739796</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.83406863703723</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.983256948423</v>
+        <v>217.3503764462158</v>
       </c>
       <c r="C17" t="n">
-        <v>197.52230705595</v>
+        <v>199.8894265537428</v>
       </c>
       <c r="D17" t="n">
-        <v>186.9324569056254</v>
+        <v>189.2995764034182</v>
       </c>
       <c r="E17" t="n">
-        <v>214.1797853572042</v>
+        <v>216.546904854997</v>
       </c>
       <c r="F17" t="n">
-        <v>239.1254610266539</v>
+        <v>241.4925805244467</v>
       </c>
       <c r="G17" t="n">
-        <v>247.0162341797952</v>
+        <v>249.2853885234119</v>
       </c>
       <c r="H17" t="n">
-        <v>166.2357408307438</v>
+        <v>167.5995746933308</v>
       </c>
       <c r="I17" t="n">
-        <v>22.06430224691613</v>
+        <v>20.65462013833547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.05723931150555</v>
+        <v>29.19197785851082</v>
       </c>
       <c r="T17" t="n">
-        <v>52.99928108878817</v>
+        <v>54.93755812417513</v>
       </c>
       <c r="U17" t="n">
-        <v>83.55219470315635</v>
+        <v>85.91147698861505</v>
       </c>
       <c r="V17" t="n">
-        <v>160.0016737550773</v>
+        <v>162.3687932528701</v>
       </c>
       <c r="W17" t="n">
-        <v>181.4903840023555</v>
+        <v>183.8575035001482</v>
       </c>
       <c r="X17" t="n">
-        <v>201.9805159634115</v>
+        <v>204.3476354612042</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.487353940996</v>
+        <v>220.8544734387888</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.149718432602555</v>
       </c>
       <c r="C18" t="n">
-        <v>4.957914273258183</v>
+        <v>7.325033771050954</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>31.25837354113384</v>
+        <v>33.41421986250117</v>
       </c>
       <c r="U18" t="n">
-        <v>58.17193277769152</v>
+        <v>60.53560385584731</v>
       </c>
       <c r="V18" t="n">
-        <v>65.05000243436771</v>
+        <v>67.41712193216048</v>
       </c>
       <c r="W18" t="n">
-        <v>83.94439844586205</v>
+        <v>86.31151794365482</v>
       </c>
       <c r="X18" t="n">
-        <v>38.02240048841992</v>
+        <v>40.38951998621269</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.9321110622468</v>
+        <v>40.29923056003958</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.08139546687974</v>
+        <v>14.44851496467251</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.863355881363049</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.323175702200245</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.0765903091864</v>
+        <v>53.67788929651698</v>
       </c>
       <c r="T19" t="n">
-        <v>59.16786396414605</v>
+        <v>61.34722360804355</v>
       </c>
       <c r="U19" t="n">
-        <v>118.5553322063387</v>
+        <v>120.9200547698265</v>
       </c>
       <c r="V19" t="n">
-        <v>84.38705860877045</v>
+        <v>86.75417810656322</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7724136215334</v>
+        <v>121.1395331193262</v>
       </c>
       <c r="X19" t="n">
-        <v>57.9590706739796</v>
+        <v>60.32619017177237</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.83406863703723</v>
+        <v>53.20118813483001</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214.983256948423</v>
+        <v>217.3503764462158</v>
       </c>
       <c r="C20" t="n">
-        <v>197.52230705595</v>
+        <v>199.8894265537428</v>
       </c>
       <c r="D20" t="n">
-        <v>186.9324569056254</v>
+        <v>189.2995764034182</v>
       </c>
       <c r="E20" t="n">
-        <v>214.1797853572042</v>
+        <v>216.546904854997</v>
       </c>
       <c r="F20" t="n">
-        <v>239.1254610266539</v>
+        <v>241.4925805244467</v>
       </c>
       <c r="G20" t="n">
-        <v>247.0162341797952</v>
+        <v>249.2853885234119</v>
       </c>
       <c r="H20" t="n">
-        <v>166.2357408307438</v>
+        <v>167.5995746933308</v>
       </c>
       <c r="I20" t="n">
-        <v>22.06430224691613</v>
+        <v>20.65462013833547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.05723931150555</v>
+        <v>29.19197785851082</v>
       </c>
       <c r="T20" t="n">
-        <v>52.99928108878817</v>
+        <v>54.93755812417513</v>
       </c>
       <c r="U20" t="n">
-        <v>83.55219470315635</v>
+        <v>85.91147698861505</v>
       </c>
       <c r="V20" t="n">
-        <v>160.0016737550773</v>
+        <v>162.3687932528701</v>
       </c>
       <c r="W20" t="n">
-        <v>181.4903840023555</v>
+        <v>183.8575035001482</v>
       </c>
       <c r="X20" t="n">
-        <v>201.9805159634115</v>
+        <v>204.3476354612042</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.487353940996</v>
+        <v>220.8544734387888</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.149718432602555</v>
       </c>
       <c r="C21" t="n">
-        <v>4.957914273258183</v>
+        <v>7.325033771050954</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>31.25837354113384</v>
+        <v>33.41421986250117</v>
       </c>
       <c r="U21" t="n">
-        <v>58.17193277769152</v>
+        <v>60.53560385584731</v>
       </c>
       <c r="V21" t="n">
-        <v>65.05000243436771</v>
+        <v>67.41712193216048</v>
       </c>
       <c r="W21" t="n">
-        <v>83.94439844586205</v>
+        <v>86.31151794365482</v>
       </c>
       <c r="X21" t="n">
-        <v>38.02240048841992</v>
+        <v>40.38951998621269</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.9321110622468</v>
+        <v>40.29923056003958</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.08139546687974</v>
+        <v>14.44851496467251</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.863355881363049</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.323175702200245</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.0765903091864</v>
+        <v>53.67788929651698</v>
       </c>
       <c r="T22" t="n">
-        <v>59.16786396414605</v>
+        <v>61.34722360804355</v>
       </c>
       <c r="U22" t="n">
-        <v>118.5553322063387</v>
+        <v>120.9200547698265</v>
       </c>
       <c r="V22" t="n">
-        <v>84.38705860877045</v>
+        <v>86.75417810656322</v>
       </c>
       <c r="W22" t="n">
-        <v>118.7724136215334</v>
+        <v>121.1395331193262</v>
       </c>
       <c r="X22" t="n">
-        <v>57.9590706739796</v>
+        <v>60.32619017177237</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.83406863703723</v>
+        <v>53.20118813483001</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214.983256948423</v>
+        <v>217.3503764462158</v>
       </c>
       <c r="C23" t="n">
-        <v>197.52230705595</v>
+        <v>199.8894265537427</v>
       </c>
       <c r="D23" t="n">
-        <v>186.9324569056254</v>
+        <v>189.2995764034181</v>
       </c>
       <c r="E23" t="n">
-        <v>214.1797853572042</v>
+        <v>216.546904854997</v>
       </c>
       <c r="F23" t="n">
-        <v>239.1254610266539</v>
+        <v>241.4925805244466</v>
       </c>
       <c r="G23" t="n">
-        <v>247.0162341797952</v>
+        <v>249.2853885234119</v>
       </c>
       <c r="H23" t="n">
-        <v>166.2357408307438</v>
+        <v>167.5995746933307</v>
       </c>
       <c r="I23" t="n">
-        <v>22.06430224691613</v>
+        <v>20.65462013833539</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.05723931150555</v>
+        <v>29.19197785851077</v>
       </c>
       <c r="T23" t="n">
-        <v>52.99928108878817</v>
+        <v>54.9375581241751</v>
       </c>
       <c r="U23" t="n">
-        <v>83.55219470315635</v>
+        <v>85.91147698861502</v>
       </c>
       <c r="V23" t="n">
-        <v>160.0016737550773</v>
+        <v>162.3687932528701</v>
       </c>
       <c r="W23" t="n">
-        <v>181.4903840023555</v>
+        <v>183.8575035001482</v>
       </c>
       <c r="X23" t="n">
-        <v>201.9805159634115</v>
+        <v>204.3476354612042</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.487353940996</v>
+        <v>220.8544734387888</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.149718432602526</v>
       </c>
       <c r="C24" t="n">
-        <v>4.957914273258183</v>
+        <v>7.325033771050926</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>31.25837354113384</v>
+        <v>33.41421986250114</v>
       </c>
       <c r="U24" t="n">
-        <v>58.17193277769152</v>
+        <v>60.53560385584728</v>
       </c>
       <c r="V24" t="n">
-        <v>65.05000243436771</v>
+        <v>67.41712193216046</v>
       </c>
       <c r="W24" t="n">
-        <v>83.94439844586205</v>
+        <v>86.31151794365479</v>
       </c>
       <c r="X24" t="n">
-        <v>38.02240048841992</v>
+        <v>40.38951998621266</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.9321110622468</v>
+        <v>40.29923056003955</v>
       </c>
     </row>
     <row r="25">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.08139546687974</v>
+        <v>14.44851496467248</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.86335588136302</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.323175702200217</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.0765903091864</v>
+        <v>53.67788929651695</v>
       </c>
       <c r="T25" t="n">
-        <v>59.16786396414605</v>
+        <v>61.34722360804352</v>
       </c>
       <c r="U25" t="n">
-        <v>118.5553322063387</v>
+        <v>120.9200547698264</v>
       </c>
       <c r="V25" t="n">
-        <v>84.38705860877045</v>
+        <v>86.75417810656319</v>
       </c>
       <c r="W25" t="n">
-        <v>118.7724136215334</v>
+        <v>121.1395331193262</v>
       </c>
       <c r="X25" t="n">
-        <v>57.9590706739796</v>
+        <v>60.32619017177234</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.83406863703723</v>
+        <v>53.20118813482998</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.529121753637</v>
+        <v>272.6829253696505</v>
       </c>
       <c r="C26" t="n">
-        <v>249.068171861164</v>
+        <v>255.2219754771775</v>
       </c>
       <c r="D26" t="n">
-        <v>238.4783217108394</v>
+        <v>244.6321253268529</v>
       </c>
       <c r="E26" t="n">
-        <v>265.7256501624182</v>
+        <v>271.8794537784317</v>
       </c>
       <c r="F26" t="n">
-        <v>290.6713258318679</v>
+        <v>296.8251294478814</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5620989850092</v>
+        <v>304.6179374468466</v>
       </c>
       <c r="H26" t="n">
-        <v>217.7816056359578</v>
+        <v>222.9321236167655</v>
       </c>
       <c r="I26" t="n">
-        <v>73.61016705213015</v>
+        <v>75.98716906177013</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.60310411671958</v>
+        <v>84.52452678194551</v>
       </c>
       <c r="T26" t="n">
-        <v>104.5451458940022</v>
+        <v>110.2701070476098</v>
       </c>
       <c r="U26" t="n">
-        <v>135.0980595083704</v>
+        <v>141.2440259120498</v>
       </c>
       <c r="V26" t="n">
-        <v>211.5475385602914</v>
+        <v>217.7013421763048</v>
       </c>
       <c r="W26" t="n">
-        <v>233.0362488075695</v>
+        <v>239.1900524235829</v>
       </c>
       <c r="X26" t="n">
-        <v>253.5263807686255</v>
+        <v>259.6801843846389</v>
       </c>
       <c r="Y26" t="n">
-        <v>270.0332187462101</v>
+        <v>276.1870223622235</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.32846374002381</v>
+        <v>56.48226735603727</v>
       </c>
       <c r="C27" t="n">
-        <v>56.50377907847221</v>
+        <v>62.65758269448567</v>
       </c>
       <c r="D27" t="n">
-        <v>31.24034565479522</v>
+        <v>37.39414927080868</v>
       </c>
       <c r="E27" t="n">
-        <v>41.44036054555741</v>
+        <v>47.59416416157087</v>
       </c>
       <c r="F27" t="n">
-        <v>28.86449248354035</v>
+        <v>35.01829609955381</v>
       </c>
       <c r="G27" t="n">
-        <v>20.85205551233588</v>
+        <v>26.95344314986731</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>50.15234911826096</v>
+        <v>55.33254892343469</v>
       </c>
       <c r="T27" t="n">
-        <v>82.80423834634786</v>
+        <v>88.74676878593588</v>
       </c>
       <c r="U27" t="n">
-        <v>109.7177975829055</v>
+        <v>115.868152779282</v>
       </c>
       <c r="V27" t="n">
-        <v>116.5958672395817</v>
+        <v>122.7496708555952</v>
       </c>
       <c r="W27" t="n">
-        <v>135.4902632510761</v>
+        <v>141.6440668670895</v>
       </c>
       <c r="X27" t="n">
-        <v>89.56826529363394</v>
+        <v>95.7220689096474</v>
       </c>
       <c r="Y27" t="n">
-        <v>89.47797586746083</v>
+        <v>95.63177948347429</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.62726027209376</v>
+        <v>69.78106388810723</v>
       </c>
       <c r="C28" t="n">
-        <v>51.0421011887843</v>
+        <v>57.19590480479776</v>
       </c>
       <c r="D28" t="n">
-        <v>32.41075310836882</v>
+        <v>38.56455672438229</v>
       </c>
       <c r="E28" t="n">
-        <v>30.22924273672564</v>
+        <v>36.3830463527391</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21632811308771</v>
+        <v>35.37013172910117</v>
       </c>
       <c r="G28" t="n">
-        <v>51.54586480521402</v>
+        <v>57.65572462563496</v>
       </c>
       <c r="H28" t="n">
-        <v>43.88512567717441</v>
+        <v>49.64822900146537</v>
       </c>
       <c r="I28" t="n">
-        <v>32.01643246858572</v>
+        <v>36.84872630441716</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.27965413766805</v>
+        <v>54.45758490822193</v>
       </c>
       <c r="S28" t="n">
-        <v>103.6224551144004</v>
+        <v>109.0104382199517</v>
       </c>
       <c r="T28" t="n">
-        <v>110.7137287693601</v>
+        <v>116.6797725314783</v>
       </c>
       <c r="U28" t="n">
-        <v>170.1011970115527</v>
+        <v>176.2526036932612</v>
       </c>
       <c r="V28" t="n">
-        <v>135.9329234139845</v>
+        <v>142.0867270299979</v>
       </c>
       <c r="W28" t="n">
-        <v>170.3182784267475</v>
+        <v>176.4720820427609</v>
       </c>
       <c r="X28" t="n">
-        <v>109.5049354791936</v>
+        <v>115.6587390952071</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.3799334422513</v>
+        <v>108.5337370582647</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.9260176369175</v>
+        <v>272.6829253696505</v>
       </c>
       <c r="C29" t="n">
-        <v>168.4650677444444</v>
+        <v>255.2219754771775</v>
       </c>
       <c r="D29" t="n">
-        <v>157.8752175941198</v>
+        <v>244.6321253268529</v>
       </c>
       <c r="E29" t="n">
-        <v>185.1225460456987</v>
+        <v>271.8794537784317</v>
       </c>
       <c r="F29" t="n">
-        <v>210.0682217151483</v>
+        <v>296.8251294478814</v>
       </c>
       <c r="G29" t="n">
-        <v>217.9589948682897</v>
+        <v>304.6179374468466</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1785015192383</v>
+        <v>222.9321236167655</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>75.98716906177013</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.52452678194551</v>
       </c>
       <c r="T29" t="n">
-        <v>23.94204177728261</v>
+        <v>110.2701070476098</v>
       </c>
       <c r="U29" t="n">
-        <v>54.49495539165079</v>
+        <v>141.2440259120498</v>
       </c>
       <c r="V29" t="n">
-        <v>130.9444344435718</v>
+        <v>217.7013421763048</v>
       </c>
       <c r="W29" t="n">
-        <v>152.4331446908499</v>
+        <v>239.1900524235829</v>
       </c>
       <c r="X29" t="n">
-        <v>172.9232766519059</v>
+        <v>259.6801843846389</v>
       </c>
       <c r="Y29" t="n">
-        <v>189.4301146294905</v>
+        <v>276.1870223622235</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>56.48226735603727</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>62.65758269448567</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>37.39414927080868</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>47.59416416157087</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>35.01829609955381</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>26.95344314986731</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>55.33254892343469</v>
       </c>
       <c r="T30" t="n">
-        <v>2.201134229628281</v>
+        <v>88.74676878593588</v>
       </c>
       <c r="U30" t="n">
-        <v>29.11469346618597</v>
+        <v>115.868152779282</v>
       </c>
       <c r="V30" t="n">
-        <v>35.99276312286216</v>
+        <v>122.7496708555952</v>
       </c>
       <c r="W30" t="n">
-        <v>54.88715913435649</v>
+        <v>141.6440668670895</v>
       </c>
       <c r="X30" t="n">
-        <v>8.965161176914364</v>
+        <v>95.7220689096474</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.874871750741249</v>
+        <v>95.63177948347429</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.78106388810723</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.19590480479776</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.56455672438229</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.3830463527391</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.37013172910117</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.65572462563496</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>49.64822900146537</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>36.84872630441716</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.45758490822193</v>
       </c>
       <c r="S31" t="n">
-        <v>23.01935099768085</v>
+        <v>109.0104382199517</v>
       </c>
       <c r="T31" t="n">
-        <v>30.1106246526405</v>
+        <v>116.6797725314783</v>
       </c>
       <c r="U31" t="n">
-        <v>89.49809289483315</v>
+        <v>176.2526036932612</v>
       </c>
       <c r="V31" t="n">
-        <v>55.32981929726489</v>
+        <v>142.0867270299979</v>
       </c>
       <c r="W31" t="n">
-        <v>89.71517431002789</v>
+        <v>176.4720820427609</v>
       </c>
       <c r="X31" t="n">
-        <v>28.90183136247404</v>
+        <v>115.6587390952071</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.77682932553168</v>
+        <v>108.5337370582647</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>185.9260176369175</v>
+        <v>215.0272007440155</v>
       </c>
       <c r="C32" t="n">
-        <v>168.4650677444444</v>
+        <v>197.5662508515425</v>
       </c>
       <c r="D32" t="n">
-        <v>157.8752175941198</v>
+        <v>186.9764007012179</v>
       </c>
       <c r="E32" t="n">
-        <v>185.1225460456987</v>
+        <v>214.2237291527967</v>
       </c>
       <c r="F32" t="n">
-        <v>210.0682217151483</v>
+        <v>239.1694048222464</v>
       </c>
       <c r="G32" t="n">
-        <v>217.9589948682897</v>
+        <v>246.9622128212117</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1785015192383</v>
+        <v>165.2763989911305</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>18.33144443613517</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>26.86880215631055</v>
       </c>
       <c r="T32" t="n">
-        <v>23.94204177728261</v>
+        <v>52.61438242197488</v>
       </c>
       <c r="U32" t="n">
-        <v>54.49495539165079</v>
+        <v>83.5883012864148</v>
       </c>
       <c r="V32" t="n">
-        <v>130.9444344435718</v>
+        <v>160.0456175506699</v>
       </c>
       <c r="W32" t="n">
-        <v>152.4331446908499</v>
+        <v>181.534327797948</v>
       </c>
       <c r="X32" t="n">
-        <v>172.9232766519059</v>
+        <v>202.024459759004</v>
       </c>
       <c r="Y32" t="n">
-        <v>189.4301146294905</v>
+        <v>218.5312977365886</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5.001858068850709</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.201134229628281</v>
+        <v>31.09104416030092</v>
       </c>
       <c r="U33" t="n">
-        <v>29.11469346618597</v>
+        <v>58.21242815364707</v>
       </c>
       <c r="V33" t="n">
-        <v>35.99276312286216</v>
+        <v>65.09394622996024</v>
       </c>
       <c r="W33" t="n">
-        <v>54.88715913435649</v>
+        <v>83.98834224145457</v>
       </c>
       <c r="X33" t="n">
-        <v>8.965161176914364</v>
+        <v>38.06634428401244</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.874871750741249</v>
+        <v>37.97605485783933</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>12.12533926247227</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>23.01935099768085</v>
+        <v>51.35471359431673</v>
       </c>
       <c r="T34" t="n">
-        <v>30.1106246526405</v>
+        <v>59.0240479058433</v>
       </c>
       <c r="U34" t="n">
-        <v>89.49809289483315</v>
+        <v>118.5968790676262</v>
       </c>
       <c r="V34" t="n">
-        <v>55.32981929726489</v>
+        <v>84.43100240436297</v>
       </c>
       <c r="W34" t="n">
-        <v>89.71517431002789</v>
+        <v>118.816357417126</v>
       </c>
       <c r="X34" t="n">
-        <v>28.90183136247404</v>
+        <v>58.00301446957212</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.77682932553168</v>
+        <v>50.87801243262976</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.9260176369175</v>
+        <v>215.0272007440155</v>
       </c>
       <c r="C35" t="n">
-        <v>168.4650677444444</v>
+        <v>197.5662508515425</v>
       </c>
       <c r="D35" t="n">
-        <v>157.8752175941198</v>
+        <v>186.9764007012179</v>
       </c>
       <c r="E35" t="n">
-        <v>185.1225460456987</v>
+        <v>214.2237291527967</v>
       </c>
       <c r="F35" t="n">
-        <v>210.0682217151483</v>
+        <v>239.1694048222464</v>
       </c>
       <c r="G35" t="n">
-        <v>217.9589948682897</v>
+        <v>246.9622128212117</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1785015192383</v>
+        <v>165.2763989911305</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.33144443613517</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.86880215631055</v>
       </c>
       <c r="T35" t="n">
-        <v>23.94204177728261</v>
+        <v>52.61438242197488</v>
       </c>
       <c r="U35" t="n">
-        <v>54.49495539165079</v>
+        <v>83.5883012864148</v>
       </c>
       <c r="V35" t="n">
-        <v>130.9444344435718</v>
+        <v>160.0456175506699</v>
       </c>
       <c r="W35" t="n">
-        <v>152.4331446908499</v>
+        <v>181.534327797948</v>
       </c>
       <c r="X35" t="n">
-        <v>172.9232766519059</v>
+        <v>202.024459759004</v>
       </c>
       <c r="Y35" t="n">
-        <v>189.4301146294905</v>
+        <v>218.5312977365886</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>5.001858068850709</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25284,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2.201134229628281</v>
+        <v>31.09104416030092</v>
       </c>
       <c r="U36" t="n">
-        <v>29.11469346618597</v>
+        <v>58.21242815364707</v>
       </c>
       <c r="V36" t="n">
-        <v>35.99276312286216</v>
+        <v>65.09394622996024</v>
       </c>
       <c r="W36" t="n">
-        <v>54.88715913435649</v>
+        <v>83.98834224145457</v>
       </c>
       <c r="X36" t="n">
-        <v>8.965161176914364</v>
+        <v>38.06634428401244</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.874871750741249</v>
+        <v>37.97605485783933</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12.12533926247227</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>23.01935099768085</v>
+        <v>51.35471359431673</v>
       </c>
       <c r="T37" t="n">
-        <v>30.1106246526405</v>
+        <v>59.0240479058433</v>
       </c>
       <c r="U37" t="n">
-        <v>89.49809289483315</v>
+        <v>118.5968790676262</v>
       </c>
       <c r="V37" t="n">
-        <v>55.32981929726489</v>
+        <v>84.43100240436297</v>
       </c>
       <c r="W37" t="n">
-        <v>89.71517431002789</v>
+        <v>118.816357417126</v>
       </c>
       <c r="X37" t="n">
-        <v>28.90183136247404</v>
+        <v>58.00301446957212</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.77682932553168</v>
+        <v>50.87801243262976</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.9260176369175</v>
+        <v>215.0272007440155</v>
       </c>
       <c r="C38" t="n">
-        <v>168.4650677444444</v>
+        <v>197.5662508515425</v>
       </c>
       <c r="D38" t="n">
-        <v>157.8752175941198</v>
+        <v>186.9764007012179</v>
       </c>
       <c r="E38" t="n">
-        <v>185.1225460456987</v>
+        <v>214.2237291527967</v>
       </c>
       <c r="F38" t="n">
-        <v>210.0682217151483</v>
+        <v>239.1694048222464</v>
       </c>
       <c r="G38" t="n">
-        <v>217.9589948682897</v>
+        <v>246.9622128212117</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1785015192383</v>
+        <v>165.2763989911305</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>18.33144443613517</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.86880215631055</v>
       </c>
       <c r="T38" t="n">
-        <v>23.94204177728261</v>
+        <v>52.61438242197488</v>
       </c>
       <c r="U38" t="n">
-        <v>54.49495539165079</v>
+        <v>83.5883012864148</v>
       </c>
       <c r="V38" t="n">
-        <v>130.9444344435718</v>
+        <v>160.0456175506699</v>
       </c>
       <c r="W38" t="n">
-        <v>152.4331446908499</v>
+        <v>181.534327797948</v>
       </c>
       <c r="X38" t="n">
-        <v>172.9232766519059</v>
+        <v>202.024459759004</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.4301146294905</v>
+        <v>218.5312977365886</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>5.001858068850709</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2.201134229628281</v>
+        <v>31.09104416030092</v>
       </c>
       <c r="U39" t="n">
-        <v>29.11469346618597</v>
+        <v>58.21242815364707</v>
       </c>
       <c r="V39" t="n">
-        <v>35.99276312286216</v>
+        <v>65.09394622996024</v>
       </c>
       <c r="W39" t="n">
-        <v>54.88715913435649</v>
+        <v>83.98834224145457</v>
       </c>
       <c r="X39" t="n">
-        <v>8.965161176914364</v>
+        <v>38.06634428401244</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.874871750741249</v>
+        <v>37.97605485783933</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.12533926247227</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.01935099768085</v>
+        <v>51.35471359431673</v>
       </c>
       <c r="T40" t="n">
-        <v>30.1106246526405</v>
+        <v>59.0240479058433</v>
       </c>
       <c r="U40" t="n">
-        <v>89.49809289483315</v>
+        <v>118.5968790676262</v>
       </c>
       <c r="V40" t="n">
-        <v>55.32981929726489</v>
+        <v>84.43100240436297</v>
       </c>
       <c r="W40" t="n">
-        <v>89.71517431002789</v>
+        <v>118.816357417126</v>
       </c>
       <c r="X40" t="n">
-        <v>28.90183136247404</v>
+        <v>58.00301446957212</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.77682932553168</v>
+        <v>50.87801243262976</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>279.4493652250873</v>
+        <v>304.7638642139647</v>
       </c>
       <c r="C41" t="n">
-        <v>261.9884153326143</v>
+        <v>287.3029143214917</v>
       </c>
       <c r="D41" t="n">
-        <v>251.3985651822897</v>
+        <v>276.713064171167</v>
       </c>
       <c r="E41" t="n">
-        <v>278.6458936338685</v>
+        <v>303.9603926227459</v>
       </c>
       <c r="F41" t="n">
-        <v>303.5915693033182</v>
+        <v>328.9060682921955</v>
       </c>
       <c r="G41" t="n">
-        <v>311.4823424564595</v>
+        <v>336.6988762911608</v>
       </c>
       <c r="H41" t="n">
-        <v>230.7018491074081</v>
+        <v>255.0130624610797</v>
       </c>
       <c r="I41" t="n">
-        <v>86.53041052358043</v>
+        <v>108.0681079060843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.92024347145028</v>
+        <v>32.08093884431418</v>
       </c>
       <c r="S41" t="n">
-        <v>93.52334758816986</v>
+        <v>116.6054656262597</v>
       </c>
       <c r="T41" t="n">
-        <v>117.4653893654525</v>
+        <v>142.351045891924</v>
       </c>
       <c r="U41" t="n">
-        <v>148.0183029798206</v>
+        <v>173.324964756364</v>
       </c>
       <c r="V41" t="n">
-        <v>224.4677820317416</v>
+        <v>249.782281020619</v>
       </c>
       <c r="W41" t="n">
-        <v>245.9564922790198</v>
+        <v>271.2709912678971</v>
       </c>
       <c r="X41" t="n">
-        <v>266.4466242400758</v>
+        <v>291.7611232289531</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.9534622176603</v>
+        <v>308.2679612065377</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.24870721147408</v>
+        <v>88.56320620035146</v>
       </c>
       <c r="C42" t="n">
-        <v>69.42402254992248</v>
+        <v>94.73852153879986</v>
       </c>
       <c r="D42" t="n">
-        <v>44.1605891262455</v>
+        <v>69.47508811512287</v>
       </c>
       <c r="E42" t="n">
-        <v>54.36060401700769</v>
+        <v>79.67510300588506</v>
       </c>
       <c r="F42" t="n">
-        <v>41.78473595499062</v>
+        <v>67.099234943868</v>
       </c>
       <c r="G42" t="n">
-        <v>33.77229898378616</v>
+        <v>59.0343819941815</v>
       </c>
       <c r="H42" t="n">
-        <v>6.181646246564881</v>
+        <v>30.9899172327341</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.130327416154827</v>
       </c>
       <c r="S42" t="n">
-        <v>63.07259258971123</v>
+        <v>87.41348776774888</v>
       </c>
       <c r="T42" t="n">
-        <v>95.72448181779814</v>
+        <v>120.8277076302501</v>
       </c>
       <c r="U42" t="n">
-        <v>122.6380410543558</v>
+        <v>147.9490916235962</v>
       </c>
       <c r="V42" t="n">
-        <v>129.516110711032</v>
+        <v>154.8306096999094</v>
       </c>
       <c r="W42" t="n">
-        <v>148.4105067225263</v>
+        <v>173.7250057114037</v>
       </c>
       <c r="X42" t="n">
-        <v>102.4885087650842</v>
+        <v>127.8030077539616</v>
       </c>
       <c r="Y42" t="n">
-        <v>102.3982193389111</v>
+        <v>127.7127183277885</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.54750374354404</v>
+        <v>101.8620027324214</v>
       </c>
       <c r="C43" t="n">
-        <v>63.96234466023458</v>
+        <v>89.27684364911195</v>
       </c>
       <c r="D43" t="n">
-        <v>45.3309965798191</v>
+        <v>70.64549556869648</v>
       </c>
       <c r="E43" t="n">
-        <v>43.14948620817592</v>
+        <v>68.46398519705329</v>
       </c>
       <c r="F43" t="n">
-        <v>42.13657158453799</v>
+        <v>67.45107057341536</v>
       </c>
       <c r="G43" t="n">
-        <v>64.4661082766643</v>
+        <v>89.73666346994915</v>
       </c>
       <c r="H43" t="n">
-        <v>56.80536914862469</v>
+        <v>81.72916784577956</v>
       </c>
       <c r="I43" t="n">
-        <v>44.936675940036</v>
+        <v>68.92966514873135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.19989760911832</v>
+        <v>86.53852375253612</v>
       </c>
       <c r="S43" t="n">
-        <v>116.5426985858507</v>
+        <v>141.0913770642659</v>
       </c>
       <c r="T43" t="n">
-        <v>123.6339722408104</v>
+        <v>148.7607113757925</v>
       </c>
       <c r="U43" t="n">
-        <v>183.021440483003</v>
+        <v>208.3335425375754</v>
       </c>
       <c r="V43" t="n">
-        <v>148.8531668854347</v>
+        <v>174.1676658743121</v>
       </c>
       <c r="W43" t="n">
-        <v>183.2385218981977</v>
+        <v>208.5530208870751</v>
       </c>
       <c r="X43" t="n">
-        <v>122.4251789506439</v>
+        <v>147.7396779395213</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.3001769137015</v>
+        <v>140.6146759025789</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>304.7638642139647</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>287.3029143214917</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>276.713064171167</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>303.9603926227459</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>328.9060682921955</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7668188948528</v>
+        <v>336.6988762911608</v>
       </c>
       <c r="H44" t="n">
-        <v>333.9863255458014</v>
+        <v>255.0130624610797</v>
       </c>
       <c r="I44" t="n">
-        <v>189.8148869619737</v>
+        <v>108.0681079060843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>116.2047199098435</v>
+        <v>32.08093884431418</v>
       </c>
       <c r="S44" t="n">
-        <v>196.8078240265631</v>
+        <v>116.6054656262597</v>
       </c>
       <c r="T44" t="n">
-        <v>220.7498658038457</v>
+        <v>142.351045891924</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3027794182139</v>
+        <v>173.324964756364</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>249.782281020619</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>271.2709912678971</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>291.7611232289531</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>308.2679612065377</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>88.56320620035146</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>94.73852153879986</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>69.47508811512287</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>79.67510300588506</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>67.099234943868</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0567754221794</v>
+        <v>59.0343819941815</v>
       </c>
       <c r="H45" t="n">
-        <v>109.4661226849581</v>
+        <v>30.9899172327341</v>
       </c>
       <c r="I45" t="n">
-        <v>79.52416501327889</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.35469342440672</v>
+        <v>1.130327416154827</v>
       </c>
       <c r="S45" t="n">
-        <v>166.3570690281045</v>
+        <v>87.41348776774888</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0089582561914</v>
+        <v>120.8277076302501</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9225174927491</v>
+        <v>147.9490916235962</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>154.8306096999094</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>173.7250057114037</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>127.8030077539616</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>127.7127183277885</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>101.8620027324214</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>89.27684364911195</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>70.64549556869648</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>68.46398519705329</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>67.45107057341536</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7505847150576</v>
+        <v>89.73666346994915</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0898455870179</v>
+        <v>81.72916784577956</v>
       </c>
       <c r="I46" t="n">
-        <v>148.2211523784293</v>
+        <v>68.92966514873135</v>
       </c>
       <c r="J46" t="n">
-        <v>76.36327882820746</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.03226997561697</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>166.4843740475116</v>
+        <v>86.53852375253612</v>
       </c>
       <c r="S46" t="n">
-        <v>219.827175024244</v>
+        <v>141.0913770642659</v>
       </c>
       <c r="T46" t="n">
-        <v>226.9184486792036</v>
+        <v>148.7607113757925</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3059169213963</v>
+        <v>208.3335425375754</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>174.1676658743121</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>208.5530208870751</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>147.7396779395213</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>140.6146759025789</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>489956.1381609893</v>
+        <v>482091.8356962649</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511682.9070773671</v>
+        <v>482091.8356962649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>511682.9070773671</v>
+        <v>501831.0621039966</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>511682.9070773671</v>
+        <v>501831.0621039966</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>511682.9070773671</v>
+        <v>501831.0621039964</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452937.9352631803</v>
+        <v>437083.1994658816</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528487.269179394</v>
+        <v>437083.1994658817</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528487.2691793941</v>
+        <v>503605.7972746462</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528487.269179394</v>
+        <v>503605.7972746462</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528487.269179394</v>
+        <v>503605.7972746462</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434348.2813498509</v>
+        <v>389929.5855975025</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>268151.2697830882</v>
+        <v>389929.5855975025</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>531200.0879800238</v>
+        <v>531925.5529055481</v>
       </c>
       <c r="F2" t="n">
-        <v>571829.5676364986</v>
+        <v>531925.552905548</v>
       </c>
       <c r="G2" t="n">
-        <v>571829.5676364986</v>
+        <v>568504.7427565549</v>
       </c>
       <c r="H2" t="n">
-        <v>571829.5676364985</v>
+        <v>568504.7427565551</v>
       </c>
       <c r="I2" t="n">
-        <v>571829.5676364985</v>
+        <v>568504.7427565549</v>
       </c>
       <c r="J2" t="n">
-        <v>473137.4654150677</v>
+        <v>461417.4969299494</v>
       </c>
       <c r="K2" t="n">
-        <v>616395.6378812079</v>
+        <v>461417.4969299494</v>
       </c>
       <c r="L2" t="n">
-        <v>616395.6378812077</v>
+        <v>572360.4744032051</v>
       </c>
       <c r="M2" t="n">
-        <v>616395.637881208</v>
+        <v>572360.4744032047</v>
       </c>
       <c r="N2" t="n">
-        <v>616395.6378812077</v>
+        <v>572360.4744032051</v>
       </c>
       <c r="O2" t="n">
-        <v>445777.1466135032</v>
+        <v>392806.3346421375</v>
       </c>
       <c r="P2" t="n">
-        <v>215121.7349927009</v>
+        <v>392806.3346421376</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223156.828453253</v>
+        <v>242734.8212699342</v>
       </c>
       <c r="F3" t="n">
-        <v>18145.09785733894</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>16251.40225910473</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>74818.67807053588</v>
+        <v>71789.33077595932</v>
       </c>
       <c r="K3" t="n">
-        <v>82627.5811507146</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>62375.98195961269</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>274736.7549351383</v>
+        <v>266261.5346383934</v>
       </c>
       <c r="F4" t="n">
-        <v>298538.8372309532</v>
+        <v>266261.5346383934</v>
       </c>
       <c r="G4" t="n">
-        <v>298538.8372309532</v>
+        <v>287699.5145064952</v>
       </c>
       <c r="H4" t="n">
-        <v>298538.8372309532</v>
+        <v>287699.5145064952</v>
       </c>
       <c r="I4" t="n">
-        <v>298538.8372309531</v>
+        <v>287699.5145064951</v>
       </c>
       <c r="J4" t="n">
-        <v>240430.9469104969</v>
+        <v>224599.7308334889</v>
       </c>
       <c r="K4" t="n">
-        <v>324304.7121678211</v>
+        <v>224599.7308334889</v>
       </c>
       <c r="L4" t="n">
-        <v>324304.7121678211</v>
+        <v>289944.3391036342</v>
       </c>
       <c r="M4" t="n">
-        <v>324304.7121678211</v>
+        <v>289944.3391036342</v>
       </c>
       <c r="N4" t="n">
-        <v>324304.7121678211</v>
+        <v>289944.3391036342</v>
       </c>
       <c r="O4" t="n">
-        <v>224209.5043938606</v>
+        <v>183895.2612515687</v>
       </c>
       <c r="P4" t="n">
-        <v>86996.12452607686</v>
+        <v>183895.2612515687</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15101.97631483507</v>
+        <v>15633.21685464342</v>
       </c>
       <c r="F5" t="n">
-        <v>17008.77660454585</v>
+        <v>15633.21685464342</v>
       </c>
       <c r="G5" t="n">
-        <v>17008.77660454585</v>
+        <v>17341.01577529427</v>
       </c>
       <c r="H5" t="n">
-        <v>17008.77660454585</v>
+        <v>17341.01577529427</v>
       </c>
       <c r="I5" t="n">
-        <v>17008.77660454585</v>
+        <v>17341.01577529428</v>
       </c>
       <c r="J5" t="n">
-        <v>12675.36729623632</v>
+        <v>12689.26371985004</v>
       </c>
       <c r="K5" t="n">
-        <v>19451.58965622482</v>
+        <v>12689.26371985004</v>
       </c>
       <c r="L5" t="n">
-        <v>19451.58965622482</v>
+        <v>17536.32283340255</v>
       </c>
       <c r="M5" t="n">
-        <v>19451.58965622482</v>
+        <v>17536.32283340255</v>
       </c>
       <c r="N5" t="n">
-        <v>19451.58965622482</v>
+        <v>17536.32283340255</v>
       </c>
       <c r="O5" t="n">
-        <v>11589.17534783496</v>
+        <v>9992.251272147394</v>
       </c>
       <c r="P5" t="n">
-        <v>2906.15269813568</v>
+        <v>9992.251272147394</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.961849455</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.9618494554</v>
       </c>
       <c r="D6" t="n">
         <v>277068.9618494551</v>
       </c>
       <c r="E6" t="n">
-        <v>18204.52827679745</v>
+        <v>7295.980142577146</v>
       </c>
       <c r="F6" t="n">
-        <v>238136.8559436607</v>
+        <v>250030.8014125112</v>
       </c>
       <c r="G6" t="n">
-        <v>256281.9538009996</v>
+        <v>247212.8102156607</v>
       </c>
       <c r="H6" t="n">
-        <v>256281.9538009995</v>
+        <v>263464.2124747656</v>
       </c>
       <c r="I6" t="n">
-        <v>256281.9538009996</v>
+        <v>263464.2124747655</v>
       </c>
       <c r="J6" t="n">
-        <v>145212.4731377985</v>
+        <v>152339.1716006512</v>
       </c>
       <c r="K6" t="n">
-        <v>190011.7549064473</v>
+        <v>224128.5023766105</v>
       </c>
       <c r="L6" t="n">
-        <v>272639.3360571618</v>
+        <v>202503.8305065556</v>
       </c>
       <c r="M6" t="n">
-        <v>272639.3360571621</v>
+        <v>264879.812466168</v>
       </c>
       <c r="N6" t="n">
-        <v>272639.3360571618</v>
+        <v>264879.8124661683</v>
       </c>
       <c r="O6" t="n">
-        <v>209978.4668718076</v>
+        <v>198918.8221184214</v>
       </c>
       <c r="P6" t="n">
-        <v>125219.4577684883</v>
+        <v>198918.8221184215</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G2" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H2" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="I2" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="J2" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="K2" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="L2" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="M2" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="N2" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="O2" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965153</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965153</v>
       </c>
       <c r="G3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965153</v>
       </c>
       <c r="H3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965153</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="J3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="K3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="L3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="M3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="N3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="O3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
       <c r="P3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965157</v>
       </c>
     </row>
     <row r="4">
@@ -26917,10 +26919,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>22.68137232167367</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.31425282388091</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.52334758816986</v>
+        <v>89.73666346994915</v>
       </c>
       <c r="K2" t="n">
-        <v>103.2844764383933</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>77.96997744951587</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.3097567952147</v>
+        <v>157.6785888965153</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,10 +27156,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
-        <v>22.68137232167367</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.31425282388091</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.52334758816986</v>
+        <v>89.73666346994915</v>
       </c>
       <c r="P2" t="n">
-        <v>103.2844764383933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,13 +28113,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="J11" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242516</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>139.4574578697238</v>
       </c>
       <c r="L11" t="n">
-        <v>112.5595801298724</v>
+        <v>135.7348012321507</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,13 +28131,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>140.0797166334403</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.0692123933839</v>
+        <v>69.19082878676041</v>
       </c>
       <c r="R11" t="n">
-        <v>145.0692123933839</v>
+        <v>110.0509162938302</v>
       </c>
       <c r="S11" t="n">
         <v>145.0692123933839</v>
@@ -28181,40 +28183,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H12" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I12" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851277</v>
       </c>
       <c r="J12" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195124</v>
       </c>
       <c r="K12" t="n">
-        <v>91.53893599389278</v>
+        <v>83.07490494225519</v>
       </c>
       <c r="L12" t="n">
-        <v>76.29495043886378</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>61.90199527586647</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692546</v>
       </c>
       <c r="R12" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769916</v>
       </c>
       <c r="S12" t="n">
         <v>145.0692123933839</v>
@@ -28269,28 +28271,28 @@
         <v>145.0692123933839</v>
       </c>
       <c r="J13" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025404</v>
       </c>
       <c r="K13" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926546</v>
       </c>
       <c r="L13" t="n">
-        <v>99.14454902502614</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753098</v>
       </c>
       <c r="P13" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R13" t="n">
         <v>145.0692123933839</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J14" t="n">
-        <v>135.560481528504</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>61.49633874711188</v>
+        <v>139.4574578697238</v>
       </c>
       <c r="L14" t="n">
-        <v>151.1944372997929</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>18.52424440585081</v>
       </c>
       <c r="O14" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179169</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>140.0797166334403</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.4325079684425</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I15" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851277</v>
       </c>
       <c r="J15" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195124</v>
       </c>
       <c r="K15" t="n">
-        <v>91.53893599389278</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>76.29495043886378</v>
+        <v>64.91401616362899</v>
       </c>
       <c r="M15" t="n">
-        <v>69.48021646862634</v>
+        <v>56.1992029734175</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>43.13244186659311</v>
       </c>
       <c r="O15" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692546</v>
       </c>
       <c r="R15" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769916</v>
       </c>
       <c r="S15" t="n">
-        <v>166.3570690281045</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y15" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0898455870179</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I16" t="n">
-        <v>148.2211523784293</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025404</v>
       </c>
       <c r="K16" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926546</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753098</v>
       </c>
       <c r="P16" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R16" t="n">
-        <v>166.4843740475116</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.7505847150576</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="E17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="F17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="G17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="I17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="J17" t="n">
-        <v>135.560481528504</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>151.9189928502497</v>
+        <v>139.4574578697238</v>
       </c>
       <c r="L17" t="n">
-        <v>151.1944372997929</v>
+        <v>81.19943798713969</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>119.0417889154125</v>
       </c>
       <c r="N17" t="n">
-        <v>33.07687744016692</v>
+        <v>116.3075970105509</v>
       </c>
       <c r="O17" t="n">
-        <v>139.8019529886024</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.85337342541</v>
       </c>
       <c r="R17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="S17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28642,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28655,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I18" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851277</v>
       </c>
       <c r="J18" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195124</v>
       </c>
       <c r="K18" t="n">
-        <v>91.53893599389278</v>
+        <v>83.07490494225519</v>
       </c>
       <c r="L18" t="n">
-        <v>76.29495043886378</v>
+        <v>64.91401616362899</v>
       </c>
       <c r="M18" t="n">
-        <v>69.48021646862634</v>
+        <v>56.1992029734175</v>
       </c>
       <c r="N18" t="n">
-        <v>56.76496427013109</v>
+        <v>43.13244186659311</v>
       </c>
       <c r="O18" t="n">
-        <v>74.37308994567076</v>
+        <v>61.90199527586647</v>
       </c>
       <c r="P18" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587285</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692546</v>
       </c>
       <c r="R18" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769916</v>
       </c>
       <c r="S18" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y18" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="19">
@@ -28719,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I19" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982473</v>
       </c>
       <c r="J19" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025404</v>
       </c>
       <c r="K19" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926546</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>101.2428308915414</v>
+        <v>94.3544411878901</v>
       </c>
       <c r="N19" t="n">
-        <v>90.89860780730123</v>
+        <v>84.17400861449477</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>98.26659254753098</v>
       </c>
       <c r="P19" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R19" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="E20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="G20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="J20" t="n">
-        <v>135.560481528504</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>151.9189928502497</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>101.4802560563506</v>
+        <v>135.7348012321507</v>
       </c>
       <c r="M20" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154125</v>
       </c>
       <c r="N20" t="n">
-        <v>133.7877643830748</v>
+        <v>116.3075970105509</v>
       </c>
       <c r="O20" t="n">
-        <v>139.8019529886024</v>
+        <v>123.2959266179169</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>153.85337342541</v>
       </c>
       <c r="R20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="S20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28879,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28892,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I21" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851277</v>
       </c>
       <c r="J21" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195124</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>83.07490494225519</v>
       </c>
       <c r="L21" t="n">
-        <v>76.29495043886378</v>
+        <v>64.91401616362899</v>
       </c>
       <c r="M21" t="n">
-        <v>69.48021646862634</v>
+        <v>56.1992029734175</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.13244186659311</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>61.90199527586647</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>52.79131857308257</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692546</v>
       </c>
       <c r="R21" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769916</v>
       </c>
       <c r="S21" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H22" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I22" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982473</v>
       </c>
       <c r="J22" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025404</v>
       </c>
       <c r="K22" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926546</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>94.3544411878901</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>84.17400861449477</v>
       </c>
       <c r="O22" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R22" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="E23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="F23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="G23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="J23" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242515</v>
       </c>
       <c r="K23" t="n">
-        <v>151.9189928502497</v>
+        <v>102.7084051895659</v>
       </c>
       <c r="L23" t="n">
-        <v>149.3486188520255</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N23" t="n">
-        <v>133.7877643830748</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O23" t="n">
-        <v>139.8019529886024</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="S23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29116,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29129,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I24" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J24" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K24" t="n">
-        <v>91.53893599389278</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>76.29495043886378</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O24" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.3794423712297</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769915</v>
       </c>
       <c r="S24" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I25" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982472</v>
       </c>
       <c r="J25" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025403</v>
       </c>
       <c r="K25" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R25" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="V25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="W25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="X25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.7505847150576</v>
+        <v>165.3834652172648</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="I26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="K26" t="n">
-        <v>116.2047199098435</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>116.2047199098435</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>116.2047199098435</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>116.2047199098435</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>83.5480453005294</v>
+        <v>103.1618702125661</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="R26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H27" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I27" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J27" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29387,40 +29389,40 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R27" t="n">
-        <v>82.35469342440672</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="I28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="J28" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025403</v>
       </c>
       <c r="K28" t="n">
-        <v>101.0837714190134</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P28" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.03226997561697</v>
+        <v>62.35257632832052</v>
       </c>
       <c r="R28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.2047199098435</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="I29" t="n">
-        <v>189.8148869619737</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="J29" t="n">
-        <v>135.560481528504</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="K29" t="n">
-        <v>151.9189928502497</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="L29" t="n">
-        <v>151.1944372997929</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>133.7877643830748</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="O29" t="n">
-        <v>139.8019529886024</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>154.1672282604038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.4325079684425</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="R29" t="n">
-        <v>181.921139782826</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y29" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0567754221794</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H30" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I30" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J30" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195119</v>
       </c>
       <c r="K30" t="n">
-        <v>91.53893599389278</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>76.29495043886378</v>
+        <v>55.00626599638482</v>
       </c>
       <c r="M30" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>56.76496427013109</v>
+        <v>43.1324418665929</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>79.21931126951839</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.35538667865288</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>127.8763632357275</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S30" t="n">
-        <v>166.3570690281045</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7505847150576</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="H31" t="n">
-        <v>160.0898455870179</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="I31" t="n">
-        <v>148.2211523784293</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="J31" t="n">
-        <v>109.9995201509308</v>
+        <v>73.256452479817</v>
       </c>
       <c r="K31" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926539</v>
       </c>
       <c r="L31" t="n">
-        <v>99.14454902502614</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q31" t="n">
-        <v>131.3752283533684</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="R31" t="n">
-        <v>166.4843740475116</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="T31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="U31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="V31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="W31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="X31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.8078240265631</v>
+        <v>110.0509162938301</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="E32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="F32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="G32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="I32" t="n">
-        <v>189.8148869619737</v>
+        <v>167.706640919465</v>
       </c>
       <c r="J32" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242515</v>
       </c>
       <c r="K32" t="n">
-        <v>151.9189928502497</v>
+        <v>139.4574578697236</v>
       </c>
       <c r="L32" t="n">
-        <v>151.1944372997929</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M32" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N32" t="n">
-        <v>133.7877643830748</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>139.8019529886024</v>
+        <v>97.53874161518429</v>
       </c>
       <c r="P32" t="n">
-        <v>18.38214010218491</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.4325079684425</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R32" t="n">
-        <v>181.921139782826</v>
+        <v>167.706640919465</v>
       </c>
       <c r="S32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y32" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29830,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29840,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H33" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I33" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J33" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K33" t="n">
-        <v>91.53893599389278</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>76.29495043886378</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M33" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>56.76496427013109</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R33" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769915</v>
       </c>
       <c r="S33" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29919,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7505847150576</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H34" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I34" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982472</v>
       </c>
       <c r="J34" t="n">
-        <v>109.9995201509308</v>
+        <v>73.256452479817</v>
       </c>
       <c r="K34" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>108.6533646326962</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>131.3752283533684</v>
+        <v>62.35257632832052</v>
       </c>
       <c r="R34" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="E35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="F35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="G35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="I35" t="n">
-        <v>189.8148869619737</v>
+        <v>167.706640919465</v>
       </c>
       <c r="J35" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242515</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>38.92488211588081</v>
       </c>
       <c r="L35" t="n">
-        <v>151.1944372997929</v>
+        <v>135.7348012321505</v>
       </c>
       <c r="M35" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N35" t="n">
-        <v>133.7877643830748</v>
+        <v>116.3075970105506</v>
       </c>
       <c r="O35" t="n">
-        <v>94.54217004193025</v>
+        <v>123.2959266179166</v>
       </c>
       <c r="P35" t="n">
-        <v>154.1672282604038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.4325079684425</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R35" t="n">
-        <v>181.921139782826</v>
+        <v>110.0509162938301</v>
       </c>
       <c r="S35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y35" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30067,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30077,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H36" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I36" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J36" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K36" t="n">
-        <v>91.53893599389278</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L36" t="n">
-        <v>76.29495043886378</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M36" t="n">
-        <v>69.48021646862634</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N36" t="n">
-        <v>56.76496427013109</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O36" t="n">
-        <v>74.37308994567076</v>
+        <v>61.90199527586626</v>
       </c>
       <c r="P36" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R36" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769915</v>
       </c>
       <c r="S36" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y36" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30156,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7505847150576</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I37" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982472</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9995201509308</v>
+        <v>73.256452479817</v>
       </c>
       <c r="K37" t="n">
-        <v>101.0837714190134</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>99.14454902502614</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>101.2428308915414</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>90.89860780730123</v>
+        <v>84.17400861449467</v>
       </c>
       <c r="O37" t="n">
-        <v>104.4778483100067</v>
+        <v>98.26659254753088</v>
       </c>
       <c r="P37" t="n">
-        <v>108.6533646326962</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.3752283533684</v>
+        <v>62.35257632832052</v>
       </c>
       <c r="R37" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="E38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="F38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="G38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="I38" t="n">
-        <v>189.8148869619737</v>
+        <v>167.706640919465</v>
       </c>
       <c r="J38" t="n">
-        <v>135.560481528504</v>
+        <v>127.2458115242515</v>
       </c>
       <c r="K38" t="n">
-        <v>151.9189928502497</v>
+        <v>139.4574578697236</v>
       </c>
       <c r="L38" t="n">
-        <v>151.1944372997929</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>136.2436127936336</v>
+        <v>119.0417889154122</v>
       </c>
       <c r="N38" t="n">
-        <v>133.7877643830748</v>
+        <v>76.59861343498241</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>154.1672282604038</v>
+        <v>140.0797166334401</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.4325079684425</v>
+        <v>153.8533734254099</v>
       </c>
       <c r="R38" t="n">
-        <v>181.921139782826</v>
+        <v>167.706640919465</v>
       </c>
       <c r="S38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y38" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30304,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>167.706640919465</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30314,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0567754221794</v>
+        <v>137.0043594436974</v>
       </c>
       <c r="H39" t="n">
-        <v>109.4661226849581</v>
+        <v>108.95989468225</v>
       </c>
       <c r="I39" t="n">
-        <v>89.64991216186382</v>
+        <v>87.84523921851275</v>
       </c>
       <c r="J39" t="n">
-        <v>99.74682033529197</v>
+        <v>94.79465984195117</v>
       </c>
       <c r="K39" t="n">
-        <v>91.53893599389278</v>
+        <v>83.07490494225505</v>
       </c>
       <c r="L39" t="n">
-        <v>76.29495043886378</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M39" t="n">
-        <v>69.48021646862634</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>56.76496427013109</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O39" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.3794423712297</v>
+        <v>96.68858869692536</v>
       </c>
       <c r="R39" t="n">
-        <v>127.8763632357275</v>
+        <v>124.6219746769915</v>
       </c>
       <c r="S39" t="n">
-        <v>166.3570690281045</v>
+        <v>165.3834652172648</v>
       </c>
       <c r="T39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y39" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>167.706640919465</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30393,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7505847150576</v>
+        <v>167.706640919465</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0898455870179</v>
+        <v>159.6991452952954</v>
       </c>
       <c r="I40" t="n">
-        <v>148.2211523784293</v>
+        <v>146.8996425982472</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9995201509308</v>
+        <v>106.8926938025403</v>
       </c>
       <c r="K40" t="n">
-        <v>101.0837714190134</v>
+        <v>95.97830134926538</v>
       </c>
       <c r="L40" t="n">
-        <v>10.08758426897518</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>94.35444118788999</v>
       </c>
       <c r="N40" t="n">
-        <v>90.89860780730123</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>104.4778483100067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>108.6533646326962</v>
+        <v>103.3385623003076</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.3752283533684</v>
+        <v>127.695534706072</v>
       </c>
       <c r="R40" t="n">
-        <v>166.4843740475116</v>
+        <v>164.508501202052</v>
       </c>
       <c r="S40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="T40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="U40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="V40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="W40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="X40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.8078240265631</v>
+        <v>167.706640919465</v>
       </c>
     </row>
     <row r="41">
@@ -30457,43 +30459,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J41" t="n">
-        <v>103.2844764383933</v>
+        <v>11.31066857483382</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="N41" t="n">
-        <v>21.65239314032796</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>103.2844764383933</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I42" t="n">
-        <v>89.64991216186382</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J42" t="n">
-        <v>99.74682033529197</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>91.53893599389278</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="L42" t="n">
-        <v>76.29495043886378</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>69.48021646862634</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O42" t="n">
-        <v>74.37308994567076</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>79.21931126951839</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="R42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y42" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="K43" t="n">
-        <v>101.0837714190134</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="R43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.2844764383933</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="44">
@@ -30694,37 +30696,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30738,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>64.9140161636288</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>56.19920297341727</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.13244186659288</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.21015832587268</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.9824232956327</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
     <row r="46">
@@ -30852,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>73.256452479817</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>77.96997744951588</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583524</v>
       </c>
       <c r="H11" t="n">
-        <v>5.488476569965795</v>
+        <v>6.491762205171604</v>
       </c>
       <c r="I11" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480566</v>
       </c>
       <c r="J11" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243464</v>
       </c>
       <c r="K11" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525671</v>
       </c>
       <c r="L11" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378365</v>
       </c>
       <c r="M11" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118603</v>
       </c>
       <c r="N11" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860401</v>
       </c>
       <c r="O11" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037698</v>
       </c>
       <c r="P11" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182923</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903946</v>
       </c>
       <c r="R11" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731952</v>
       </c>
       <c r="S11" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046972</v>
       </c>
       <c r="T11" t="n">
-        <v>2.345983760285637</v>
+        <v>2.77482622269144</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666819</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132593</v>
       </c>
       <c r="H12" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246479</v>
       </c>
       <c r="I12" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148722</v>
       </c>
       <c r="J12" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471544</v>
       </c>
       <c r="K12" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210381</v>
       </c>
       <c r="L12" t="n">
-        <v>62.2594293410104</v>
+        <v>73.6403636162452</v>
       </c>
       <c r="M12" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860082</v>
       </c>
       <c r="N12" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674019</v>
       </c>
       <c r="O12" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857797</v>
       </c>
       <c r="P12" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845739</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909605</v>
       </c>
       <c r="R12" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697237</v>
       </c>
       <c r="S12" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573037</v>
       </c>
       <c r="T12" t="n">
-        <v>1.15577043863021</v>
+        <v>1.367043615055637</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271444</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937161</v>
       </c>
       <c r="H13" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144132</v>
       </c>
       <c r="I13" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011028</v>
       </c>
       <c r="J13" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685573</v>
       </c>
       <c r="K13" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682126992</v>
       </c>
       <c r="L13" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366576</v>
       </c>
       <c r="M13" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971496</v>
       </c>
       <c r="N13" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073842</v>
       </c>
       <c r="O13" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431181</v>
       </c>
       <c r="P13" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174883997</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337381</v>
       </c>
       <c r="R13" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511745</v>
       </c>
       <c r="S13" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190487</v>
       </c>
       <c r="T13" t="n">
-        <v>1.027140749077883</v>
+        <v>1.21490060297315</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.01550936939965726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583524</v>
       </c>
       <c r="H14" t="n">
-        <v>5.488476569965795</v>
+        <v>6.491762205171604</v>
       </c>
       <c r="I14" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480566</v>
       </c>
       <c r="J14" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243464</v>
       </c>
       <c r="K14" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525671</v>
       </c>
       <c r="L14" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378365</v>
       </c>
       <c r="M14" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118603</v>
       </c>
       <c r="N14" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860401</v>
       </c>
       <c r="O14" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037698</v>
       </c>
       <c r="P14" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182923</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903946</v>
       </c>
       <c r="R14" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731952</v>
       </c>
       <c r="S14" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046972</v>
       </c>
       <c r="T14" t="n">
-        <v>2.345983760285637</v>
+        <v>2.77482622269144</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666819</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132593</v>
       </c>
       <c r="H15" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246479</v>
       </c>
       <c r="I15" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148722</v>
       </c>
       <c r="J15" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471544</v>
       </c>
       <c r="K15" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210381</v>
       </c>
       <c r="L15" t="n">
-        <v>62.2594293410104</v>
+        <v>73.6403636162452</v>
       </c>
       <c r="M15" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860082</v>
       </c>
       <c r="N15" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674019</v>
       </c>
       <c r="O15" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857797</v>
       </c>
       <c r="P15" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845739</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909605</v>
       </c>
       <c r="R15" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697237</v>
       </c>
       <c r="S15" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573037</v>
       </c>
       <c r="T15" t="n">
-        <v>1.15577043863021</v>
+        <v>1.367043615055637</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271444</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937161</v>
       </c>
       <c r="H16" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144132</v>
       </c>
       <c r="I16" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011028</v>
       </c>
       <c r="J16" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685573</v>
       </c>
       <c r="K16" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682126992</v>
       </c>
       <c r="L16" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366576</v>
       </c>
       <c r="M16" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971496</v>
       </c>
       <c r="N16" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073842</v>
       </c>
       <c r="O16" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431181</v>
       </c>
       <c r="P16" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174883997</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337381</v>
       </c>
       <c r="R16" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511745</v>
       </c>
       <c r="S16" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190487</v>
       </c>
       <c r="T16" t="n">
-        <v>1.027140749077883</v>
+        <v>1.21490060297315</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.01550936939965726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583524</v>
       </c>
       <c r="H17" t="n">
-        <v>5.488476569965795</v>
+        <v>6.491762205171604</v>
       </c>
       <c r="I17" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480566</v>
       </c>
       <c r="J17" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243464</v>
       </c>
       <c r="K17" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525671</v>
       </c>
       <c r="L17" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378365</v>
       </c>
       <c r="M17" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118603</v>
       </c>
       <c r="N17" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860401</v>
       </c>
       <c r="O17" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037698</v>
       </c>
       <c r="P17" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182923</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903946</v>
       </c>
       <c r="R17" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731952</v>
       </c>
       <c r="S17" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046972</v>
       </c>
       <c r="T17" t="n">
-        <v>2.345983760285637</v>
+        <v>2.77482622269144</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666819</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132593</v>
       </c>
       <c r="H18" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246479</v>
       </c>
       <c r="I18" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148722</v>
       </c>
       <c r="J18" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471544</v>
       </c>
       <c r="K18" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210381</v>
       </c>
       <c r="L18" t="n">
-        <v>62.2594293410104</v>
+        <v>73.6403636162452</v>
       </c>
       <c r="M18" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860082</v>
       </c>
       <c r="N18" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674019</v>
       </c>
       <c r="O18" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857797</v>
       </c>
       <c r="P18" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845739</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909605</v>
       </c>
       <c r="R18" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697237</v>
       </c>
       <c r="S18" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573037</v>
       </c>
       <c r="T18" t="n">
-        <v>1.15577043863021</v>
+        <v>1.367043615055637</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271444</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937161</v>
       </c>
       <c r="H19" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144132</v>
       </c>
       <c r="I19" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011028</v>
       </c>
       <c r="J19" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685573</v>
       </c>
       <c r="K19" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682126992</v>
       </c>
       <c r="L19" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366576</v>
       </c>
       <c r="M19" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971496</v>
       </c>
       <c r="N19" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073842</v>
       </c>
       <c r="O19" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431181</v>
       </c>
       <c r="P19" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174883997</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337381</v>
       </c>
       <c r="R19" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511745</v>
       </c>
       <c r="S19" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190487</v>
       </c>
       <c r="T19" t="n">
-        <v>1.027140749077883</v>
+        <v>1.21490060297315</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.01550936939965726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583524</v>
       </c>
       <c r="H20" t="n">
-        <v>5.488476569965795</v>
+        <v>6.491762205171604</v>
       </c>
       <c r="I20" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480566</v>
       </c>
       <c r="J20" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243464</v>
       </c>
       <c r="K20" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525671</v>
       </c>
       <c r="L20" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378365</v>
       </c>
       <c r="M20" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118603</v>
       </c>
       <c r="N20" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860401</v>
       </c>
       <c r="O20" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037698</v>
       </c>
       <c r="P20" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182923</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903946</v>
       </c>
       <c r="R20" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731952</v>
       </c>
       <c r="S20" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046972</v>
       </c>
       <c r="T20" t="n">
-        <v>2.345983760285637</v>
+        <v>2.77482622269144</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666819</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132593</v>
       </c>
       <c r="H21" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246479</v>
       </c>
       <c r="I21" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148722</v>
       </c>
       <c r="J21" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471544</v>
       </c>
       <c r="K21" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210381</v>
       </c>
       <c r="L21" t="n">
-        <v>62.2594293410104</v>
+        <v>73.6403636162452</v>
       </c>
       <c r="M21" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860082</v>
       </c>
       <c r="N21" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674019</v>
       </c>
       <c r="O21" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857797</v>
       </c>
       <c r="P21" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845739</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909605</v>
       </c>
       <c r="R21" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697237</v>
       </c>
       <c r="S21" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573037</v>
       </c>
       <c r="T21" t="n">
-        <v>1.15577043863021</v>
+        <v>1.367043615055637</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271444</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937161</v>
       </c>
       <c r="H22" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144132</v>
       </c>
       <c r="I22" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011028</v>
       </c>
       <c r="J22" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685573</v>
       </c>
       <c r="K22" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682126992</v>
       </c>
       <c r="L22" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366576</v>
       </c>
       <c r="M22" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971496</v>
       </c>
       <c r="N22" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073842</v>
       </c>
       <c r="O22" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431181</v>
       </c>
       <c r="P22" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174883997</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337381</v>
       </c>
       <c r="R22" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511745</v>
       </c>
       <c r="S22" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190487</v>
       </c>
       <c r="T22" t="n">
-        <v>1.027140749077883</v>
+        <v>1.21490060297315</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.01550936939965726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H23" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I23" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J23" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K23" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L23" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M23" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N23" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O23" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P23" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R23" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S23" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T23" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H24" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I24" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J24" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K24" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L24" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M24" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N24" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O24" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P24" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R24" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S24" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T24" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H25" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I25" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J25" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K25" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L25" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M25" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N25" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O25" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P25" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R25" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S25" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T25" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H26" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I26" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J26" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K26" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L26" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M26" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N26" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O26" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P26" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R26" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S26" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T26" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H27" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I27" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J27" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K27" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L27" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M27" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N27" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O27" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P27" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R27" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S27" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T27" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H28" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I28" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J28" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K28" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L28" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M28" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N28" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O28" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P28" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R28" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S28" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T28" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.633883774458354</v>
       </c>
       <c r="H29" t="n">
-        <v>5.488476569965795</v>
+        <v>6.491762205171619</v>
       </c>
       <c r="I29" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480571</v>
       </c>
       <c r="J29" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243476</v>
       </c>
       <c r="K29" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525691</v>
       </c>
       <c r="L29" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M29" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N29" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860403</v>
       </c>
       <c r="O29" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P29" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182944</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903961</v>
       </c>
       <c r="R29" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731961</v>
       </c>
       <c r="S29" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046975</v>
       </c>
       <c r="T29" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.0507107019566683</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132601</v>
       </c>
       <c r="H30" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246486</v>
       </c>
       <c r="I30" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J30" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471551</v>
       </c>
       <c r="K30" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210394</v>
       </c>
       <c r="L30" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624537</v>
       </c>
       <c r="M30" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860103</v>
       </c>
       <c r="N30" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674041</v>
       </c>
       <c r="O30" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857817</v>
       </c>
       <c r="P30" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845755</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909615</v>
       </c>
       <c r="R30" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697242</v>
       </c>
       <c r="S30" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573051</v>
       </c>
       <c r="T30" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937167</v>
       </c>
       <c r="H31" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144138</v>
       </c>
       <c r="I31" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011048</v>
       </c>
       <c r="J31" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685577</v>
       </c>
       <c r="K31" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682126999</v>
       </c>
       <c r="L31" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366586</v>
       </c>
       <c r="M31" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N31" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073852</v>
       </c>
       <c r="O31" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P31" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337386</v>
       </c>
       <c r="R31" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S31" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190498</v>
       </c>
       <c r="T31" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H32" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I32" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J32" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K32" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L32" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M32" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N32" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O32" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P32" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R32" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S32" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T32" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H33" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I33" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J33" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K33" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L33" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M33" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N33" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O33" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P33" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R33" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S33" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T33" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H34" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I34" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J34" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K34" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L34" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M34" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N34" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O34" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P34" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R34" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S34" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T34" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H35" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I35" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J35" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K35" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L35" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M35" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N35" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O35" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P35" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R35" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S35" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T35" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H36" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I36" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J36" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K36" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L36" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M36" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N36" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O36" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P36" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R36" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S36" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T36" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H37" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I37" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J37" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K37" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L37" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M37" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N37" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O37" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P37" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R37" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S37" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T37" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H38" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I38" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J38" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K38" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L38" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M38" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N38" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O38" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P38" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R38" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S38" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T38" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H39" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I39" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J39" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K39" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L39" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M39" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N39" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O39" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P39" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R39" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S39" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T39" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H40" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I40" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J40" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K40" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L40" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M40" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N40" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O40" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P40" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R40" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S40" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T40" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H41" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I41" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J41" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K41" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L41" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M41" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N41" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O41" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P41" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R41" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S41" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T41" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H42" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I42" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J42" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K42" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L42" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M42" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N42" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O42" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P42" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R42" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S42" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T42" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H43" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I43" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J43" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K43" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L43" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M43" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N43" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O43" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P43" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R43" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S43" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T43" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5359186202822697</v>
+        <v>0.6338837744583541</v>
       </c>
       <c r="H44" t="n">
-        <v>5.488476569965795</v>
+        <v>6.49176220517162</v>
       </c>
       <c r="I44" t="n">
-        <v>20.66100260843222</v>
+        <v>24.43780421480572</v>
       </c>
       <c r="J44" t="n">
-        <v>45.48542299818232</v>
+        <v>53.80009300243478</v>
       </c>
       <c r="K44" t="n">
-        <v>68.17085819473081</v>
+        <v>80.63239317525692</v>
       </c>
       <c r="L44" t="n">
-        <v>84.57197767019433</v>
+        <v>100.0316137378368</v>
       </c>
       <c r="M44" t="n">
-        <v>94.10262043363915</v>
+        <v>111.3044443118605</v>
       </c>
       <c r="N44" t="n">
-        <v>95.62529921351614</v>
+        <v>113.1054665860404</v>
       </c>
       <c r="O44" t="n">
-        <v>90.29625843308432</v>
+        <v>106.8022848037701</v>
       </c>
       <c r="P44" t="n">
-        <v>77.06576749486578</v>
+        <v>91.15327912182946</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.87318190600698</v>
+        <v>68.45231644903963</v>
       </c>
       <c r="R44" t="n">
-        <v>33.66439803130615</v>
+        <v>39.81820164731962</v>
       </c>
       <c r="S44" t="n">
-        <v>12.21224555968223</v>
+        <v>14.44462651046976</v>
       </c>
       <c r="T44" t="n">
-        <v>2.345983760285637</v>
+        <v>2.774826222691446</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04287348962258156</v>
+        <v>0.05071070195666832</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2867417410312165</v>
+        <v>0.3391577195132602</v>
       </c>
       <c r="H45" t="n">
-        <v>2.769321551538328</v>
+        <v>3.275549554246487</v>
       </c>
       <c r="I45" t="n">
-        <v>9.872467838136181</v>
+        <v>11.67714078148725</v>
       </c>
       <c r="J45" t="n">
-        <v>27.09080633137471</v>
+        <v>32.04296682471552</v>
       </c>
       <c r="K45" t="n">
-        <v>46.30250298046622</v>
+        <v>54.76653403210395</v>
       </c>
       <c r="L45" t="n">
-        <v>62.2594293410104</v>
+        <v>73.64036361624538</v>
       </c>
       <c r="M45" t="n">
-        <v>72.65381745339198</v>
+        <v>85.93483094860105</v>
       </c>
       <c r="N45" t="n">
-        <v>74.57674781320222</v>
+        <v>88.20927021674042</v>
       </c>
       <c r="O45" t="n">
-        <v>68.22315449877368</v>
+        <v>80.69424916857818</v>
       </c>
       <c r="P45" t="n">
-        <v>54.75509614481186</v>
+        <v>64.76424908845756</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.60233171479177</v>
+        <v>43.29318538909616</v>
       </c>
       <c r="R45" t="n">
-        <v>17.80314072823641</v>
+        <v>21.05752928697243</v>
       </c>
       <c r="S45" t="n">
-        <v>5.326102075733337</v>
+        <v>6.299705886573052</v>
       </c>
       <c r="T45" t="n">
-        <v>1.15577043863021</v>
+        <v>1.36704361505564</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01886458822573793</v>
+        <v>0.02231300786271449</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2403946434012068</v>
+        <v>0.2843384389937168</v>
       </c>
       <c r="H46" t="n">
-        <v>2.13732692042164</v>
+        <v>2.528027212144139</v>
       </c>
       <c r="I46" t="n">
-        <v>7.22932254882902</v>
+        <v>8.550832329011049</v>
       </c>
       <c r="J46" t="n">
-        <v>16.99590128846532</v>
+        <v>20.10272763685578</v>
       </c>
       <c r="K46" t="n">
-        <v>27.92948675152201</v>
+        <v>33.03495682127</v>
       </c>
       <c r="L46" t="n">
-        <v>35.74012725621215</v>
+        <v>42.27337119366587</v>
       </c>
       <c r="M46" t="n">
-        <v>37.6829530560637</v>
+        <v>44.57134275971507</v>
       </c>
       <c r="N46" t="n">
-        <v>36.78693665793197</v>
+        <v>43.51153585073853</v>
       </c>
       <c r="O46" t="n">
-        <v>33.97869014183603</v>
+        <v>40.18994590431191</v>
       </c>
       <c r="P46" t="n">
-        <v>29.07463941645139</v>
+        <v>34.38944174884006</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.12977327607742</v>
+        <v>23.80946692337387</v>
       </c>
       <c r="R46" t="n">
-        <v>10.80901732965789</v>
+        <v>12.78489017511748</v>
       </c>
       <c r="S46" t="n">
-        <v>4.189423012728302</v>
+        <v>4.955243523190499</v>
       </c>
       <c r="T46" t="n">
-        <v>1.027140749077883</v>
+        <v>1.214900602973153</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01311243509461129</v>
+        <v>0.0155093693996573</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916102.406364323</v>
+        <v>1880244.607067541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11736072.99232653</v>
+        <v>11743148.41102517</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8342140.091547172</v>
+        <v>7062844.90522292</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5990421.509823291</v>
+        <v>6277413.681940481</v>
       </c>
     </row>
     <row r="11">
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M11" t="n">
-        <v>119.0417889154125</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>116.3075970105509</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O11" t="n">
-        <v>123.2959266179169</v>
+        <v>2.335740934338986</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>15.23888329793495</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.66254463864961</v>
+        <v>23.38314488850106</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L12" t="n">
-        <v>64.91401616362899</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>56.1992029734175</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>43.13244186659311</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.21015832587285</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>41.0465067371759</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L13" t="n">
-        <v>92.61130508757253</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M13" t="n">
-        <v>94.3544411878901</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N13" t="n">
-        <v>84.17400861449477</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>127.2458115242516</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12.00765038119102</v>
       </c>
       <c r="L14" t="n">
-        <v>135.7348012321507</v>
+        <v>13.09562141258698</v>
       </c>
       <c r="M14" t="n">
-        <v>119.0417889154125</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N14" t="n">
-        <v>97.78335260470003</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.784161032026148</v>
+        <v>23.38314488850109</v>
       </c>
       <c r="R14" t="n">
-        <v>30.69812377342873</v>
+        <v>38.19640662507563</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>83.07490494225519</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.90199527586647</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P15" t="n">
-        <v>69.21015832587285</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>68.51608896124162</v>
       </c>
       <c r="L16" t="n">
-        <v>92.61130508757253</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M16" t="n">
-        <v>94.3544411878901</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N16" t="n">
-        <v>84.17400861449477</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>127.2458115242516</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>54.53536324501103</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O17" t="n">
-        <v>123.2959266179169</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>140.0797166334403</v>
+        <v>67.48185612246924</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R17" t="n">
-        <v>10.38387094954782</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>92.61130508757253</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>127.2458115242516</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>139.4574578697238</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>140.0797166334403</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.38387094954782</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>16.41883975279028</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L22" t="n">
-        <v>92.61130508757253</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O22" t="n">
-        <v>98.26659254753098</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>14.17851983773647</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>36.74905268015777</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.6325524634052</v>
       </c>
       <c r="O23" t="n">
-        <v>123.2959266179166</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.38387094954769</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>83.07490494225505</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.9140161636288</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>56.19920297341727</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>61.90199527586626</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>69.21015832587268</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.68858869692536</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O25" t="n">
-        <v>98.26659254753088</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>17.19489523042144</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K26" t="n">
-        <v>139.4574578697236</v>
+        <v>14.38350355244587</v>
       </c>
       <c r="L26" t="n">
-        <v>135.7348012321505</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M26" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N26" t="n">
-        <v>116.3075970105506</v>
+        <v>67.41650094501956</v>
       </c>
       <c r="O26" t="n">
-        <v>123.2959266179166</v>
+        <v>4.711594105593861</v>
       </c>
       <c r="P26" t="n">
-        <v>36.91784642087399</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.80245713157979</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.57225979633048</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>83.07490494225505</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.9140161636288</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>56.19920297341727</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.57105838316146</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>95.97830134926538</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N28" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>17.19489523042145</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>29.40654157589357</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L29" t="n">
-        <v>135.7348012321505</v>
+        <v>15.47147458384183</v>
       </c>
       <c r="M29" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N29" t="n">
-        <v>6.25668071672051</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>123.2959266179167</v>
+        <v>4.711594105593861</v>
       </c>
       <c r="P29" t="n">
-        <v>140.0797166334401</v>
+        <v>17.61473646918982</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.8024571315798</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>55.43432482858591</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K30" t="n">
-        <v>83.07490494225505</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L30" t="n">
-        <v>9.907750167243989</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M30" t="n">
-        <v>56.19920297341729</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O30" t="n">
-        <v>61.90199527586627</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>69.2101583258727</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.68858869692536</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.57105838316146</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M31" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N31" t="n">
-        <v>84.17400861449468</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O31" t="n">
-        <v>98.26659254753088</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.64461841224191</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>116.3075970105506</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>25.75718500273233</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.060695247347475</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>83.07490494225505</v>
+        <v>38.39731721297391</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>56.19920297341727</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.13244186659288</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>61.90199527586626</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M34" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N34" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O34" t="n">
-        <v>98.26659254753088</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>100.5325757538428</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>140.0797166334401</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>53.82450463652177</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>95.97830134926538</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>92.61130508757242</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P37" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L38" t="n">
-        <v>135.7348012321505</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>39.70898357556815</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>123.2959266179166</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.060695247347475</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>56.19920297341727</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>61.90199527586626</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O40" t="n">
-        <v>98.26659254753088</v>
+        <v>45.3288824883637</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>115.9351429494177</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K41" t="n">
-        <v>61.48748042020775</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L41" t="n">
-        <v>135.7348012321505</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M41" t="n">
-        <v>41.07181146589632</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N41" t="n">
-        <v>116.3075970105506</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O41" t="n">
-        <v>123.2959266179166</v>
+        <v>52.03947290788355</v>
       </c>
       <c r="P41" t="n">
-        <v>140.0797166334401</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.8533734254099</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.87526176899687</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.79465984195117</v>
+        <v>4.999355953729584</v>
       </c>
       <c r="K42" t="n">
-        <v>5.104927492739165</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>64.9140161636288</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>61.90199527586626</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.71861124740948</v>
+        <v>9.683119200924438</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>36.34083878922237</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.92271635302446</v>
+        <v>14.13644388940336</v>
       </c>
       <c r="K43" t="n">
-        <v>18.0083238997495</v>
+        <v>6.428991598250043</v>
       </c>
       <c r="L43" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M43" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N43" t="n">
-        <v>6.204031164978787</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>98.26659254753088</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P43" t="n">
-        <v>25.36858485079167</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.72555725655609</v>
+        <v>35.85848371208</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>127.2458115242515</v>
+        <v>57.4320337255371</v>
       </c>
       <c r="K44" t="n">
-        <v>61.48748042020775</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L44" t="n">
-        <v>57.76482378263456</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M44" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N44" t="n">
-        <v>116.3075970105506</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O44" t="n">
-        <v>123.2959266179166</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P44" t="n">
-        <v>62.10973918392421</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.8533734254099</v>
+        <v>73.08687686204561</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.87526176899687</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.79465984195117</v>
+        <v>4.999355953729584</v>
       </c>
       <c r="K45" t="n">
-        <v>5.104927492739165</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>61.90199527586626</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.70616540129265</v>
+        <v>9.683119200924438</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,25 +11457,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>95.97830134926538</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L46" t="n">
-        <v>92.61130508757242</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M46" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N46" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O46" t="n">
-        <v>98.26659254753088</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P46" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.72555725655609</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.6646292700967</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C11" t="n">
-        <v>220.2036793776237</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D11" t="n">
-        <v>209.6138292272991</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E11" t="n">
-        <v>236.8611576788779</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F11" t="n">
-        <v>261.8068333483276</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5996413472928</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H11" t="n">
-        <v>187.9138275172117</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I11" t="n">
-        <v>40.96887296221638</v>
+        <v>44.65311775960687</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.50623068239173</v>
+        <v>50.71236266023242</v>
       </c>
       <c r="T11" t="n">
-        <v>75.25181094805603</v>
+        <v>73.56406046424672</v>
       </c>
       <c r="U11" t="n">
-        <v>106.225729812496</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V11" t="n">
-        <v>182.683046076751</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1717563240291</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X11" t="n">
-        <v>224.6618882850852</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.1687262626697</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.46397125648346</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C12" t="n">
-        <v>27.63928659493186</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D12" t="n">
-        <v>2.375853171254874</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12.57586806201707</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.31425282388091</v>
+        <v>19.50060362605647</v>
       </c>
       <c r="T12" t="n">
-        <v>53.72847268638208</v>
+        <v>51.69161962175829</v>
       </c>
       <c r="U12" t="n">
-        <v>80.84985667972822</v>
+        <v>78.47953669846189</v>
       </c>
       <c r="V12" t="n">
-        <v>87.73137475604139</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W12" t="n">
-        <v>106.6257707675357</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X12" t="n">
-        <v>60.7037728100936</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.61348338392048</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.76276778855342</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C13" t="n">
-        <v>22.17760870524396</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D13" t="n">
-        <v>3.546260624828477</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.63742852608115</v>
+        <v>20.33208573216656</v>
       </c>
       <c r="H13" t="n">
-        <v>14.62993290191156</v>
+        <v>12.88098108555474</v>
       </c>
       <c r="I13" t="n">
-        <v>1.830430204863376</v>
+        <v>1.575016381259565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.43928880866815</v>
+        <v>20.23383860400402</v>
       </c>
       <c r="S13" t="n">
-        <v>73.99214212039789</v>
+        <v>72.84509252515483</v>
       </c>
       <c r="T13" t="n">
-        <v>81.66147643192446</v>
+        <v>79.58689487294166</v>
       </c>
       <c r="U13" t="n">
-        <v>141.2343075937074</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V13" t="n">
-        <v>107.0684309304441</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W13" t="n">
-        <v>141.4537859432071</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X13" t="n">
-        <v>80.64044299565327</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.51544095871091</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.6646292700967</v>
+        <v>235.2887760988419</v>
       </c>
       <c r="C14" t="n">
-        <v>220.2036793776237</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D14" t="n">
-        <v>209.6138292272991</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E14" t="n">
-        <v>236.8611576788779</v>
+        <v>234.4853045076231</v>
       </c>
       <c r="F14" t="n">
-        <v>261.8068333483276</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5996413472928</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H14" t="n">
-        <v>187.9138275172117</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I14" t="n">
-        <v>40.96887296221638</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.50623068239173</v>
+        <v>50.71236266023246</v>
       </c>
       <c r="T14" t="n">
-        <v>75.25181094805603</v>
+        <v>73.56406046424675</v>
       </c>
       <c r="U14" t="n">
-        <v>106.225729812496</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V14" t="n">
-        <v>182.683046076751</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1717563240291</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X14" t="n">
-        <v>224.6618882850852</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.1687262626697</v>
+        <v>238.7928730914149</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.46397125648346</v>
+        <v>19.08811808522861</v>
       </c>
       <c r="C15" t="n">
-        <v>27.63928659493186</v>
+        <v>25.26343342367701</v>
       </c>
       <c r="D15" t="n">
-        <v>2.375853171254874</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.57586806201707</v>
+        <v>10.20001489076222</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>20.31425282388091</v>
+        <v>19.50060362605649</v>
       </c>
       <c r="T15" t="n">
-        <v>53.72847268638208</v>
+        <v>51.69161962175832</v>
       </c>
       <c r="U15" t="n">
-        <v>80.84985667972822</v>
+        <v>78.47953669846191</v>
       </c>
       <c r="V15" t="n">
-        <v>87.73137475604139</v>
+        <v>85.35552158478654</v>
       </c>
       <c r="W15" t="n">
-        <v>106.6257707675357</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X15" t="n">
-        <v>60.7037728100936</v>
+        <v>58.32791963883875</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.61348338392048</v>
+        <v>58.23763021266564</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.76276778855342</v>
+        <v>32.38691461729857</v>
       </c>
       <c r="C16" t="n">
-        <v>22.17760870524396</v>
+        <v>19.80175553398911</v>
       </c>
       <c r="D16" t="n">
-        <v>3.546260624828477</v>
+        <v>1.170407453573631</v>
       </c>
       <c r="E16" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.63742852608115</v>
+        <v>20.33208573216658</v>
       </c>
       <c r="H16" t="n">
-        <v>14.62993290191156</v>
+        <v>12.88098108555477</v>
       </c>
       <c r="I16" t="n">
-        <v>1.830430204863376</v>
+        <v>1.575016381259587</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.43928880866815</v>
+        <v>20.23383860400403</v>
       </c>
       <c r="S16" t="n">
-        <v>73.99214212039789</v>
+        <v>72.84509252515485</v>
       </c>
       <c r="T16" t="n">
-        <v>81.66147643192446</v>
+        <v>79.58689487294168</v>
       </c>
       <c r="U16" t="n">
-        <v>141.2343075937074</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0684309304441</v>
+        <v>104.6925777591893</v>
       </c>
       <c r="W16" t="n">
-        <v>141.4537859432071</v>
+        <v>139.0779327719523</v>
       </c>
       <c r="X16" t="n">
-        <v>80.64044299565327</v>
+        <v>78.26458982439843</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.51544095871091</v>
+        <v>71.13958778745607</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3503764462158</v>
+        <v>190.635658339235</v>
       </c>
       <c r="C17" t="n">
-        <v>199.8894265537428</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D17" t="n">
-        <v>189.2995764034182</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E17" t="n">
-        <v>216.546904854997</v>
+        <v>189.8321867480162</v>
       </c>
       <c r="F17" t="n">
-        <v>241.4925805244467</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G17" t="n">
-        <v>249.2853885234119</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H17" t="n">
-        <v>167.5995746933308</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I17" t="n">
-        <v>20.65462013833547</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.19197785851082</v>
+        <v>6.059244900625572</v>
       </c>
       <c r="T17" t="n">
-        <v>54.93755812417513</v>
+        <v>28.91094270463987</v>
       </c>
       <c r="U17" t="n">
-        <v>85.91147698861505</v>
+        <v>59.20933414491134</v>
       </c>
       <c r="V17" t="n">
-        <v>162.3687932528701</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W17" t="n">
-        <v>183.8575035001482</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X17" t="n">
-        <v>204.3476354612042</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y17" t="n">
-        <v>220.8544734387888</v>
+        <v>194.139755331808</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.149718432602555</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.325033771050954</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>33.41421986250117</v>
+        <v>7.038501862151435</v>
       </c>
       <c r="U18" t="n">
-        <v>60.53560385584731</v>
+        <v>33.82641893885503</v>
       </c>
       <c r="V18" t="n">
-        <v>67.41712193216048</v>
+        <v>40.70240382517966</v>
       </c>
       <c r="W18" t="n">
-        <v>86.31151794365482</v>
+        <v>59.59679983667399</v>
       </c>
       <c r="X18" t="n">
-        <v>40.38951998621269</v>
+        <v>13.67480187923186</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.29923056003958</v>
+        <v>13.58451245305875</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.44851496467251</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.863355881363049</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.323175702200245</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.67788929651698</v>
+        <v>28.19197476554797</v>
       </c>
       <c r="T19" t="n">
-        <v>61.34722360804355</v>
+        <v>34.9337771133348</v>
       </c>
       <c r="U19" t="n">
-        <v>120.9200547698265</v>
+        <v>94.2091826834278</v>
       </c>
       <c r="V19" t="n">
-        <v>86.75417810656322</v>
+        <v>60.03945999958239</v>
       </c>
       <c r="W19" t="n">
-        <v>121.1395331193262</v>
+        <v>94.42481501234539</v>
       </c>
       <c r="X19" t="n">
-        <v>60.32619017177237</v>
+        <v>33.61147206479154</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.20118813483001</v>
+        <v>26.48647002784918</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3503764462158</v>
+        <v>190.635658339235</v>
       </c>
       <c r="C20" t="n">
-        <v>199.8894265537428</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D20" t="n">
-        <v>189.2995764034182</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E20" t="n">
-        <v>216.546904854997</v>
+        <v>189.8321867480162</v>
       </c>
       <c r="F20" t="n">
-        <v>241.4925805244467</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G20" t="n">
-        <v>249.2853885234119</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H20" t="n">
-        <v>167.5995746933308</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I20" t="n">
-        <v>20.65462013833547</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.19197785851082</v>
+        <v>6.059244900625572</v>
       </c>
       <c r="T20" t="n">
-        <v>54.93755812417513</v>
+        <v>28.91094270463987</v>
       </c>
       <c r="U20" t="n">
-        <v>85.91147698861505</v>
+        <v>59.20933414491134</v>
       </c>
       <c r="V20" t="n">
-        <v>162.3687932528701</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W20" t="n">
-        <v>183.8575035001482</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X20" t="n">
-        <v>204.3476354612042</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y20" t="n">
-        <v>220.8544734387888</v>
+        <v>194.139755331808</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.149718432602555</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7.325033771050954</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>33.41421986250117</v>
+        <v>7.038501862151435</v>
       </c>
       <c r="U21" t="n">
-        <v>60.53560385584731</v>
+        <v>33.82641893885503</v>
       </c>
       <c r="V21" t="n">
-        <v>67.41712193216048</v>
+        <v>40.70240382517966</v>
       </c>
       <c r="W21" t="n">
-        <v>86.31151794365482</v>
+        <v>59.59679983667399</v>
       </c>
       <c r="X21" t="n">
-        <v>40.38951998621269</v>
+        <v>13.67480187923186</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.29923056003958</v>
+        <v>13.58451245305875</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.44851496467251</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.863355881363049</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.323175702200245</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.67788929651698</v>
+        <v>28.19197476554797</v>
       </c>
       <c r="T22" t="n">
-        <v>61.34722360804355</v>
+        <v>34.9337771133348</v>
       </c>
       <c r="U22" t="n">
-        <v>120.9200547698265</v>
+        <v>94.2091826834278</v>
       </c>
       <c r="V22" t="n">
-        <v>86.75417810656322</v>
+        <v>60.03945999958239</v>
       </c>
       <c r="W22" t="n">
-        <v>121.1395331193262</v>
+        <v>94.42481501234539</v>
       </c>
       <c r="X22" t="n">
-        <v>60.32619017177237</v>
+        <v>33.61147206479154</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.20118813483001</v>
+        <v>26.48647002784918</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217.3503764462158</v>
+        <v>190.635658339235</v>
       </c>
       <c r="C23" t="n">
-        <v>199.8894265537427</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D23" t="n">
-        <v>189.2995764034181</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E23" t="n">
-        <v>216.546904854997</v>
+        <v>189.8321867480162</v>
       </c>
       <c r="F23" t="n">
-        <v>241.4925805244466</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G23" t="n">
-        <v>249.2853885234119</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H23" t="n">
-        <v>167.5995746933307</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I23" t="n">
-        <v>20.65462013833539</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.19197785851077</v>
+        <v>6.059244900625572</v>
       </c>
       <c r="T23" t="n">
-        <v>54.9375581241751</v>
+        <v>28.91094270463987</v>
       </c>
       <c r="U23" t="n">
-        <v>85.91147698861502</v>
+        <v>59.20933414491134</v>
       </c>
       <c r="V23" t="n">
-        <v>162.3687932528701</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W23" t="n">
-        <v>183.8575035001482</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X23" t="n">
-        <v>204.3476354612042</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y23" t="n">
-        <v>220.8544734387888</v>
+        <v>194.139755331808</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.149718432602526</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>7.325033771050926</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>33.41421986250114</v>
+        <v>7.038501862151435</v>
       </c>
       <c r="U24" t="n">
-        <v>60.53560385584728</v>
+        <v>33.82641893885503</v>
       </c>
       <c r="V24" t="n">
-        <v>67.41712193216046</v>
+        <v>40.70240382517966</v>
       </c>
       <c r="W24" t="n">
-        <v>86.31151794365479</v>
+        <v>59.59679983667399</v>
       </c>
       <c r="X24" t="n">
-        <v>40.38951998621266</v>
+        <v>13.67480187923186</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.29923056003955</v>
+        <v>13.58451245305875</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.44851496467248</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.86335588136302</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.323175702200217</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.67788929651695</v>
+        <v>28.19197476554797</v>
       </c>
       <c r="T25" t="n">
-        <v>61.34722360804352</v>
+        <v>34.9337771133348</v>
       </c>
       <c r="U25" t="n">
-        <v>120.9200547698264</v>
+        <v>94.2091826834278</v>
       </c>
       <c r="V25" t="n">
-        <v>86.75417810656319</v>
+        <v>60.03945999958239</v>
       </c>
       <c r="W25" t="n">
-        <v>121.1395331193262</v>
+        <v>94.42481501234539</v>
       </c>
       <c r="X25" t="n">
-        <v>60.32619017177234</v>
+        <v>33.61147206479154</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.20118813482998</v>
+        <v>26.48647002784918</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.6829253696505</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C26" t="n">
-        <v>255.2219754771775</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D26" t="n">
-        <v>244.6321253268529</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E26" t="n">
-        <v>271.8794537784317</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F26" t="n">
-        <v>296.8251294478814</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G26" t="n">
-        <v>304.6179374468466</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H26" t="n">
-        <v>222.9321236167655</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I26" t="n">
-        <v>75.98716906177013</v>
+        <v>47.02897093086173</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.52452678194551</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T26" t="n">
-        <v>110.2701070476098</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U26" t="n">
-        <v>141.2440259120498</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V26" t="n">
-        <v>217.7013421763048</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W26" t="n">
-        <v>239.1900524235829</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X26" t="n">
-        <v>259.6801843846389</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1870223622235</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.48226735603727</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C27" t="n">
-        <v>62.65758269448567</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D27" t="n">
-        <v>37.39414927080868</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E27" t="n">
-        <v>47.59416416157087</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F27" t="n">
-        <v>35.01829609955381</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.95344314986731</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.33254892343469</v>
+        <v>21.87645679731133</v>
       </c>
       <c r="T27" t="n">
-        <v>88.74676878593588</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U27" t="n">
-        <v>115.868152779282</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V27" t="n">
-        <v>122.7496708555952</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W27" t="n">
-        <v>141.6440668670895</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X27" t="n">
-        <v>95.7220689096474</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y27" t="n">
-        <v>95.63177948347429</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.78106388810723</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C28" t="n">
-        <v>57.19590480479776</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D28" t="n">
-        <v>38.56455672438229</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E28" t="n">
-        <v>36.3830463527391</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F28" t="n">
-        <v>35.37013172910117</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G28" t="n">
-        <v>57.65572462563496</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H28" t="n">
-        <v>49.64822900146537</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I28" t="n">
-        <v>36.84872630441716</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.45758490822193</v>
+        <v>22.60969177525888</v>
       </c>
       <c r="S28" t="n">
-        <v>109.0104382199517</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T28" t="n">
-        <v>116.6797725314783</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U28" t="n">
-        <v>176.2526036932612</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0867270299979</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W28" t="n">
-        <v>176.4720820427609</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X28" t="n">
-        <v>115.6587390952071</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5337370582647</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.6829253696505</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C29" t="n">
-        <v>255.2219754771775</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D29" t="n">
-        <v>244.6321253268529</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E29" t="n">
-        <v>271.8794537784317</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F29" t="n">
-        <v>296.8251294478814</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G29" t="n">
-        <v>304.6179374468466</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H29" t="n">
-        <v>222.9321236167655</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I29" t="n">
-        <v>75.98716906177013</v>
+        <v>47.02897093086173</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.52452678194551</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T29" t="n">
-        <v>110.2701070476098</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U29" t="n">
-        <v>141.2440259120498</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V29" t="n">
-        <v>217.7013421763048</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W29" t="n">
-        <v>239.1900524235829</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X29" t="n">
-        <v>259.6801843846389</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1870223622235</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.48226735603727</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C30" t="n">
-        <v>62.65758269448567</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D30" t="n">
-        <v>37.39414927080868</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E30" t="n">
-        <v>47.59416416157087</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F30" t="n">
-        <v>35.01829609955381</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>26.95344314986731</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.33254892343469</v>
+        <v>21.87645679731133</v>
       </c>
       <c r="T30" t="n">
-        <v>88.74676878593588</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U30" t="n">
-        <v>115.868152779282</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7496708555952</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6440668670895</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X30" t="n">
-        <v>95.7220689096474</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.63177948347429</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.78106388810723</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C31" t="n">
-        <v>57.19590480479776</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D31" t="n">
-        <v>38.56455672438229</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E31" t="n">
-        <v>36.3830463527391</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F31" t="n">
-        <v>35.37013172910117</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G31" t="n">
-        <v>57.65572462563496</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H31" t="n">
-        <v>49.64822900146537</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I31" t="n">
-        <v>36.84872630441716</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.45758490822193</v>
+        <v>22.60969177525888</v>
       </c>
       <c r="S31" t="n">
-        <v>109.0104382199517</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T31" t="n">
-        <v>116.6797725314783</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2526036932612</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0867270299979</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W31" t="n">
-        <v>176.4720820427609</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6587390952071</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5337370582647</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.0272007440155</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C32" t="n">
-        <v>197.5662508515425</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D32" t="n">
-        <v>186.9764007012179</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E32" t="n">
-        <v>214.2237291527967</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F32" t="n">
-        <v>239.1694048222464</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9622128212117</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H32" t="n">
-        <v>165.2763989911305</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I32" t="n">
-        <v>18.33144443613517</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>26.86880215631055</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>52.61438242197488</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U32" t="n">
-        <v>83.5883012864148</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V32" t="n">
-        <v>160.0456175506699</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W32" t="n">
-        <v>181.534327797948</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X32" t="n">
-        <v>202.024459759004</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.5312977365886</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>5.001858068850709</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>31.09104416030092</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U33" t="n">
-        <v>58.21242815364707</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V33" t="n">
-        <v>65.09394622996024</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W33" t="n">
-        <v>83.98834224145457</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X33" t="n">
-        <v>38.06634428401244</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.97605485783933</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.12533926247227</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>51.35471359431673</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T34" t="n">
-        <v>59.0240479058433</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U34" t="n">
-        <v>118.5968790676262</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V34" t="n">
-        <v>84.43100240436297</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W34" t="n">
-        <v>118.816357417126</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X34" t="n">
-        <v>58.00301446957212</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.87801243262976</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.0272007440155</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C35" t="n">
-        <v>197.5662508515425</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9764007012179</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E35" t="n">
-        <v>214.2237291527967</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F35" t="n">
-        <v>239.1694048222464</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G35" t="n">
-        <v>246.9622128212117</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H35" t="n">
-        <v>165.2763989911305</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I35" t="n">
-        <v>18.33144443613517</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.86880215631055</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.61438242197488</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U35" t="n">
-        <v>83.5883012864148</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V35" t="n">
-        <v>160.0456175506699</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W35" t="n">
-        <v>181.534327797948</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X35" t="n">
-        <v>202.024459759004</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.5312977365886</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>5.001858068850709</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>31.09104416030092</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U36" t="n">
-        <v>58.21242815364707</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V36" t="n">
-        <v>65.09394622996024</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W36" t="n">
-        <v>83.98834224145457</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X36" t="n">
-        <v>38.06634428401244</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.97605485783933</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.12533926247227</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.35471359431673</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T37" t="n">
-        <v>59.0240479058433</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U37" t="n">
-        <v>118.5968790676262</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V37" t="n">
-        <v>84.43100240436297</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W37" t="n">
-        <v>118.816357417126</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X37" t="n">
-        <v>58.00301446957212</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.87801243262976</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.0272007440155</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C38" t="n">
-        <v>197.5662508515425</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D38" t="n">
-        <v>186.9764007012179</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E38" t="n">
-        <v>214.2237291527967</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F38" t="n">
-        <v>239.1694048222464</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G38" t="n">
-        <v>246.9622128212117</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H38" t="n">
-        <v>165.2763989911305</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I38" t="n">
-        <v>18.33144443613517</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.86880215631055</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>52.61438242197488</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U38" t="n">
-        <v>83.5883012864148</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V38" t="n">
-        <v>160.0456175506699</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W38" t="n">
-        <v>181.534327797948</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X38" t="n">
-        <v>202.024459759004</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.5312977365886</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>5.001858068850709</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>31.09104416030092</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U39" t="n">
-        <v>58.21242815364707</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V39" t="n">
-        <v>65.09394622996024</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W39" t="n">
-        <v>83.98834224145457</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X39" t="n">
-        <v>38.06634428401244</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.97605485783933</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.12533926247227</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.35471359431673</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T40" t="n">
-        <v>59.0240479058433</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U40" t="n">
-        <v>118.5968790676262</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V40" t="n">
-        <v>84.43100240436297</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W40" t="n">
-        <v>118.816357417126</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X40" t="n">
-        <v>58.00301446957212</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.87801243262976</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.7638642139647</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C41" t="n">
-        <v>287.3029143214917</v>
+        <v>267.5315581799134</v>
       </c>
       <c r="D41" t="n">
-        <v>276.713064171167</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E41" t="n">
-        <v>303.9603926227459</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F41" t="n">
-        <v>328.9060682921955</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G41" t="n">
-        <v>336.6988762911608</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H41" t="n">
-        <v>255.0130624610797</v>
+        <v>236.8515365074629</v>
       </c>
       <c r="I41" t="n">
-        <v>108.0681079060843</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>32.08093884431418</v>
+        <v>22.18371872563773</v>
       </c>
       <c r="S41" t="n">
-        <v>116.6054656262597</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T41" t="n">
-        <v>142.351045891924</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U41" t="n">
-        <v>173.324964756364</v>
+        <v>153.5661838780628</v>
       </c>
       <c r="V41" t="n">
-        <v>249.782281020619</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W41" t="n">
-        <v>271.2709912678971</v>
+        <v>251.4996351263188</v>
       </c>
       <c r="X41" t="n">
-        <v>291.7611232289531</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.2679612065377</v>
+        <v>288.4966050649594</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.56320620035146</v>
+        <v>68.79185005877315</v>
       </c>
       <c r="C42" t="n">
-        <v>94.73852153879986</v>
+        <v>74.96716539722155</v>
       </c>
       <c r="D42" t="n">
-        <v>69.47508811512287</v>
+        <v>49.70373197354456</v>
       </c>
       <c r="E42" t="n">
-        <v>79.67510300588506</v>
+        <v>59.90374686430675</v>
       </c>
       <c r="F42" t="n">
-        <v>67.099234943868</v>
+        <v>47.32787880228969</v>
       </c>
       <c r="G42" t="n">
-        <v>59.0343819941815</v>
+        <v>39.34713034042895</v>
       </c>
       <c r="H42" t="n">
-        <v>30.9899172327341</v>
+        <v>12.03083338147312</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.130327416154827</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.41348776774888</v>
+        <v>69.20433559960102</v>
       </c>
       <c r="T42" t="n">
-        <v>120.8277076302501</v>
+        <v>101.3953515953029</v>
       </c>
       <c r="U42" t="n">
-        <v>147.9490916235962</v>
+        <v>128.1832686720064</v>
       </c>
       <c r="V42" t="n">
-        <v>154.8306096999094</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W42" t="n">
-        <v>173.7250057114037</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X42" t="n">
-        <v>127.8030077539616</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.7127183277885</v>
+        <v>107.9413621862102</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.8620027324214</v>
+        <v>82.09064659084311</v>
       </c>
       <c r="C43" t="n">
-        <v>89.27684364911195</v>
+        <v>69.50548750753364</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64549556869648</v>
+        <v>50.87413942711817</v>
       </c>
       <c r="E43" t="n">
-        <v>68.46398519705329</v>
+        <v>48.69262905547498</v>
       </c>
       <c r="F43" t="n">
-        <v>67.45107057341536</v>
+        <v>47.67971443183706</v>
       </c>
       <c r="G43" t="n">
-        <v>89.73666346994915</v>
+        <v>70.03581770571111</v>
       </c>
       <c r="H43" t="n">
-        <v>81.72916784577956</v>
+        <v>62.5847130590993</v>
       </c>
       <c r="I43" t="n">
-        <v>68.92966514873135</v>
+        <v>51.27874835480412</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.53852375253612</v>
+        <v>69.93757057754857</v>
       </c>
       <c r="S43" t="n">
-        <v>141.0913770642659</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T43" t="n">
-        <v>148.7607113757925</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3335425375754</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V43" t="n">
-        <v>174.1676658743121</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W43" t="n">
-        <v>208.5530208870751</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X43" t="n">
-        <v>147.7396779395213</v>
+        <v>127.968321797943</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.6146759025789</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304.7638642139647</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C44" t="n">
-        <v>287.3029143214917</v>
+        <v>267.5315581799134</v>
       </c>
       <c r="D44" t="n">
-        <v>276.713064171167</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E44" t="n">
-        <v>303.9603926227459</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F44" t="n">
-        <v>328.9060682921955</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G44" t="n">
-        <v>336.6988762911608</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H44" t="n">
-        <v>255.0130624610797</v>
+        <v>236.8515365074629</v>
       </c>
       <c r="I44" t="n">
-        <v>108.0681079060843</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.08093884431418</v>
+        <v>22.18371872563773</v>
       </c>
       <c r="S44" t="n">
-        <v>116.6054656262597</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T44" t="n">
-        <v>142.351045891924</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U44" t="n">
-        <v>173.324964756364</v>
+        <v>153.5661838780628</v>
       </c>
       <c r="V44" t="n">
-        <v>249.782281020619</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W44" t="n">
-        <v>271.2709912678971</v>
+        <v>251.4996351263188</v>
       </c>
       <c r="X44" t="n">
-        <v>291.7611232289531</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y44" t="n">
-        <v>308.2679612065377</v>
+        <v>288.4966050649594</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88.56320620035146</v>
+        <v>68.79185005877315</v>
       </c>
       <c r="C45" t="n">
-        <v>94.73852153879986</v>
+        <v>74.96716539722155</v>
       </c>
       <c r="D45" t="n">
-        <v>69.47508811512287</v>
+        <v>49.70373197354456</v>
       </c>
       <c r="E45" t="n">
-        <v>79.67510300588506</v>
+        <v>59.90374686430675</v>
       </c>
       <c r="F45" t="n">
-        <v>67.099234943868</v>
+        <v>47.32787880228969</v>
       </c>
       <c r="G45" t="n">
-        <v>59.0343819941815</v>
+        <v>39.34713034042895</v>
       </c>
       <c r="H45" t="n">
-        <v>30.9899172327341</v>
+        <v>12.03083338147312</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.130327416154827</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.41348776774888</v>
+        <v>69.20433559960102</v>
       </c>
       <c r="T45" t="n">
-        <v>120.8277076302501</v>
+        <v>101.3953515953029</v>
       </c>
       <c r="U45" t="n">
-        <v>147.9490916235962</v>
+        <v>128.1832686720064</v>
       </c>
       <c r="V45" t="n">
-        <v>154.8306096999094</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W45" t="n">
-        <v>173.7250057114037</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X45" t="n">
-        <v>127.8030077539616</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y45" t="n">
-        <v>127.7127183277885</v>
+        <v>107.9413621862102</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.8620027324214</v>
+        <v>82.09064659084311</v>
       </c>
       <c r="C46" t="n">
-        <v>89.27684364911195</v>
+        <v>69.50548750753364</v>
       </c>
       <c r="D46" t="n">
-        <v>70.64549556869648</v>
+        <v>50.87413942711817</v>
       </c>
       <c r="E46" t="n">
-        <v>68.46398519705329</v>
+        <v>48.69262905547498</v>
       </c>
       <c r="F46" t="n">
-        <v>67.45107057341536</v>
+        <v>47.67971443183706</v>
       </c>
       <c r="G46" t="n">
-        <v>89.73666346994915</v>
+        <v>70.03581770571111</v>
       </c>
       <c r="H46" t="n">
-        <v>81.72916784577956</v>
+        <v>62.5847130590993</v>
       </c>
       <c r="I46" t="n">
-        <v>68.92966514873135</v>
+        <v>51.27874835480412</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.53852375253612</v>
+        <v>69.93757057754857</v>
       </c>
       <c r="S46" t="n">
-        <v>141.0913770642659</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T46" t="n">
-        <v>148.7607113757925</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3335425375754</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V46" t="n">
-        <v>174.1676658743121</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W46" t="n">
-        <v>208.5530208870751</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X46" t="n">
-        <v>147.7396779395213</v>
+        <v>127.968321797943</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.6146759025789</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482091.8356962649</v>
+        <v>497412.6635639104</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482091.8356962649</v>
+        <v>497412.6635639102</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>501831.0621039966</v>
+        <v>531395.249499783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501831.0621039966</v>
+        <v>531395.249499783</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501831.0621039964</v>
+        <v>531395.249499783</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437083.1994658816</v>
+        <v>494710.5666645171</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>437083.1994658817</v>
+        <v>494710.566664517</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>503605.7972746462</v>
+        <v>534240.6709051168</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>503605.7972746462</v>
+        <v>534240.6709051169</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>503605.7972746462</v>
+        <v>534240.6709051168</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389929.5855975025</v>
+        <v>430520.9785598816</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389929.5855975025</v>
+        <v>430520.9785598816</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>531925.5529055481</v>
+        <v>535306.6359797298</v>
       </c>
       <c r="F2" t="n">
-        <v>531925.552905548</v>
+        <v>535306.6359797296</v>
       </c>
       <c r="G2" t="n">
-        <v>568504.7427565549</v>
+        <v>609328.9787441619</v>
       </c>
       <c r="H2" t="n">
-        <v>568504.7427565551</v>
+        <v>609328.978744162</v>
       </c>
       <c r="I2" t="n">
-        <v>568504.7427565549</v>
+        <v>609328.9787441618</v>
       </c>
       <c r="J2" t="n">
-        <v>461417.4969299494</v>
+        <v>530761.5022140651</v>
       </c>
       <c r="K2" t="n">
-        <v>461417.4969299494</v>
+        <v>530761.5022140651</v>
       </c>
       <c r="L2" t="n">
-        <v>572360.4744032051</v>
+        <v>618175.2339292793</v>
       </c>
       <c r="M2" t="n">
-        <v>572360.4744032047</v>
+        <v>618175.2339292793</v>
       </c>
       <c r="N2" t="n">
-        <v>572360.4744032051</v>
+        <v>618175.2339292793</v>
       </c>
       <c r="O2" t="n">
-        <v>392806.3346421375</v>
+        <v>433188.8384149264</v>
       </c>
       <c r="P2" t="n">
-        <v>392806.3346421376</v>
+        <v>433188.8384149263</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>242734.8212699342</v>
+        <v>213221.4749899867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16251.40225910473</v>
+        <v>35722.49420768551</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71789.33077595932</v>
+        <v>80332.87570702159</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>62375.98195961269</v>
+        <v>78193.06687287532</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>266261.5346383934</v>
+        <v>282536.4385884517</v>
       </c>
       <c r="F4" t="n">
-        <v>266261.5346383934</v>
+        <v>282536.4385884517</v>
       </c>
       <c r="G4" t="n">
-        <v>287699.5145064952</v>
+        <v>325628.2594135487</v>
       </c>
       <c r="H4" t="n">
-        <v>287699.5145064952</v>
+        <v>325628.2594135487</v>
       </c>
       <c r="I4" t="n">
-        <v>287699.5145064951</v>
+        <v>325628.2594135487</v>
       </c>
       <c r="J4" t="n">
-        <v>224599.7308334889</v>
+        <v>279860.5188205262</v>
       </c>
       <c r="K4" t="n">
-        <v>224599.7308334889</v>
+        <v>279860.5188205262</v>
       </c>
       <c r="L4" t="n">
-        <v>289944.3391036342</v>
+        <v>330718.8386820602</v>
       </c>
       <c r="M4" t="n">
-        <v>289944.3391036342</v>
+        <v>330718.8386820602</v>
       </c>
       <c r="N4" t="n">
-        <v>289944.3391036342</v>
+        <v>330718.8386820602</v>
       </c>
       <c r="O4" t="n">
-        <v>183895.2612515687</v>
+        <v>222113.9962824358</v>
       </c>
       <c r="P4" t="n">
-        <v>183895.2612515687</v>
+        <v>222113.9962824358</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15633.21685464342</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="F5" t="n">
-        <v>15633.21685464342</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="G5" t="n">
-        <v>17341.01577529427</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="H5" t="n">
-        <v>17341.01577529427</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="I5" t="n">
-        <v>17341.01577529428</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="J5" t="n">
-        <v>12689.26371985004</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="K5" t="n">
-        <v>12689.26371985004</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="L5" t="n">
-        <v>17536.32283340255</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="M5" t="n">
-        <v>17536.32283340255</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="N5" t="n">
-        <v>17536.32283340255</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="O5" t="n">
-        <v>9992.251272147394</v>
+        <v>10802.00304991289</v>
       </c>
       <c r="P5" t="n">
-        <v>9992.251272147394</v>
+        <v>10802.00304991289</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.961849455</v>
+        <v>277024.826070774</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494554</v>
+        <v>277024.826070774</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.9618494551</v>
+        <v>277024.826070774</v>
       </c>
       <c r="E6" t="n">
-        <v>7295.980142577146</v>
+        <v>18129.14879779627</v>
       </c>
       <c r="F6" t="n">
-        <v>250030.8014125112</v>
+        <v>231350.6237877827</v>
       </c>
       <c r="G6" t="n">
-        <v>247212.8102156607</v>
+        <v>224752.6649510378</v>
       </c>
       <c r="H6" t="n">
-        <v>263464.2124747656</v>
+        <v>260475.1591587234</v>
       </c>
       <c r="I6" t="n">
-        <v>263464.2124747655</v>
+        <v>260475.1591587231</v>
       </c>
       <c r="J6" t="n">
-        <v>152339.1716006512</v>
+        <v>149228.6608999693</v>
       </c>
       <c r="K6" t="n">
-        <v>224128.5023766105</v>
+        <v>229561.5366069909</v>
       </c>
       <c r="L6" t="n">
-        <v>202503.8305065556</v>
+        <v>185761.1697319851</v>
       </c>
       <c r="M6" t="n">
-        <v>264879.812466168</v>
+        <v>263954.2366048605</v>
       </c>
       <c r="N6" t="n">
-        <v>264879.8124661683</v>
+        <v>263954.2366048605</v>
       </c>
       <c r="O6" t="n">
-        <v>198918.8221184214</v>
+        <v>191146.5011100476</v>
       </c>
       <c r="P6" t="n">
-        <v>198918.8221184215</v>
+        <v>191146.5011100475</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="F2" t="n">
+        <v>147.4450655646387</v>
+      </c>
+      <c r="G2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="H2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="I2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="J2" t="n">
         <v>145.0692123933839</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>145.0692123933839</v>
       </c>
-      <c r="G2" t="n">
-        <v>165.3834652172648</v>
-      </c>
-      <c r="H2" t="n">
-        <v>165.3834652172648</v>
-      </c>
-      <c r="I2" t="n">
-        <v>165.3834652172648</v>
-      </c>
-      <c r="J2" t="n">
-        <v>110.0509162938301</v>
-      </c>
-      <c r="K2" t="n">
-        <v>110.0509162938301</v>
-      </c>
       <c r="L2" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="M2" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="N2" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="O2" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="P2" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6785888965153</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="F3" t="n">
-        <v>157.6785888965153</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="G3" t="n">
-        <v>157.6785888965153</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="H3" t="n">
-        <v>157.6785888965153</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="I3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="J3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="K3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="L3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="M3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="N3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="O3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="P3" t="n">
-        <v>157.6785888965157</v>
+        <v>118.5773796441831</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.31425282388091</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.73666346994915</v>
+        <v>100.416094633777</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.96997744951587</v>
+        <v>97.74133359109416</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6785888965153</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.31425282388091</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.73666346994915</v>
+        <v>100.416094633777</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J11" t="n">
-        <v>127.2458115242516</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K11" t="n">
-        <v>139.4574578697238</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>135.7348012321507</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="P11" t="n">
-        <v>140.0797166334403</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.19082878676041</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="R11" t="n">
-        <v>110.0509162938302</v>
+        <v>119.9250523167319</v>
       </c>
       <c r="S11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H12" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I12" t="n">
-        <v>87.84523921851277</v>
+        <v>80.61519483059585</v>
       </c>
       <c r="J12" t="n">
-        <v>94.79465984195124</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K12" t="n">
-        <v>83.07490494225519</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>61.90199527586647</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.68858869692546</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>124.6219746769916</v>
+        <v>88.79732377166486</v>
       </c>
       <c r="S12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="13">
@@ -28247,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E13" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J13" t="n">
-        <v>106.8926938025404</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K13" t="n">
-        <v>95.97830134926546</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28286,37 +28286,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.26659254753098</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>103.3385623003076</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.695534706072</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="C14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="D14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="E14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="F14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="G14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="H14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="I14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K14" t="n">
-        <v>139.4574578697238</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18.52424440585081</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>123.2959266179169</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>140.0797166334403</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="R14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="S14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="T14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="W14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="X14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="C15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H15" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I15" t="n">
-        <v>87.84523921851277</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J15" t="n">
-        <v>94.79465984195124</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L15" t="n">
-        <v>64.91401616362899</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>56.1992029734175</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N15" t="n">
-        <v>43.13244186659311</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.68858869692546</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R15" t="n">
-        <v>124.6219746769916</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="T15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="U15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="V15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="W15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="X15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
     </row>
     <row r="16">
@@ -28484,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="C16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="E16" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="J16" t="n">
-        <v>106.8926938025404</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K16" t="n">
-        <v>95.97830134926546</v>
+        <v>35.65423622810261</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28523,37 +28523,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>98.26659254753098</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>103.3385623003076</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.695534706072</v>
+        <v>68.25685892542273</v>
       </c>
       <c r="R16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="S16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="U16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="W16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="X16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646387</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K17" t="n">
-        <v>139.4574578697238</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L17" t="n">
-        <v>81.19943798713969</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M17" t="n">
-        <v>119.0417889154125</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N17" t="n">
-        <v>116.3075970105509</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>95.20209274010446</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.85337342541</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>165.3834652172648</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="18">
@@ -28642,10 +28642,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3834652172648</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>165.3834652172648</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H18" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I18" t="n">
-        <v>87.84523921851277</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J18" t="n">
-        <v>94.79465984195124</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K18" t="n">
-        <v>83.07490494225519</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L18" t="n">
-        <v>64.91401616362899</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M18" t="n">
-        <v>56.1992029734175</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N18" t="n">
-        <v>43.13244186659311</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O18" t="n">
-        <v>61.90199527586647</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P18" t="n">
-        <v>69.21015832587285</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.68858869692546</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R18" t="n">
-        <v>124.6219746769916</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S18" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="19">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.3834652172648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>165.3834652172648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3834652172648</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H19" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I19" t="n">
-        <v>146.8996425982473</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J19" t="n">
-        <v>106.8926938025404</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K19" t="n">
-        <v>95.97830134926546</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M19" t="n">
-        <v>94.3544411878901</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N19" t="n">
-        <v>84.17400861449477</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O19" t="n">
-        <v>98.26659254753098</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P19" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.695534706072</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R19" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L20" t="n">
-        <v>135.7348012321507</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M20" t="n">
-        <v>119.0417889154125</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N20" t="n">
-        <v>116.3075970105509</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>123.2959266179169</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.85337342541</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R20" t="n">
-        <v>165.3834652172648</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="21">
@@ -28879,10 +28879,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3834652172648</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>165.3834652172648</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H21" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I21" t="n">
-        <v>87.84523921851277</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J21" t="n">
-        <v>94.79465984195124</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K21" t="n">
-        <v>83.07490494225519</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L21" t="n">
-        <v>64.91401616362899</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M21" t="n">
-        <v>56.1992029734175</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N21" t="n">
-        <v>43.13244186659311</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>61.90199527586647</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P21" t="n">
-        <v>52.79131857308257</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.68858869692546</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R21" t="n">
-        <v>124.6219746769916</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S21" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="22">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3834652172648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>165.3834652172648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3834652172648</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H22" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I22" t="n">
-        <v>146.8996425982473</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8926938025404</v>
+        <v>78.24153615777422</v>
       </c>
       <c r="K22" t="n">
-        <v>95.97830134926546</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>94.3544411878901</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>84.17400861449477</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>103.3385623003076</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.695534706072</v>
+        <v>119.4212974654377</v>
       </c>
       <c r="R22" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J23" t="n">
-        <v>127.2458115242515</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K23" t="n">
-        <v>102.7084051895659</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L23" t="n">
-        <v>135.7348012321505</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M23" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N23" t="n">
-        <v>116.3075970105506</v>
+        <v>16.72299035585621</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P23" t="n">
-        <v>140.0797166334401</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.8533734254099</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R23" t="n">
-        <v>165.3834652172648</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="24">
@@ -29116,10 +29116,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3834652172648</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>165.3834652172648</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H24" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I24" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J24" t="n">
-        <v>94.79465984195117</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N24" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R24" t="n">
-        <v>124.6219746769915</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S24" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.3834652172648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>165.3834652172648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29210,25 +29210,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3834652172648</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I25" t="n">
-        <v>146.8996425982472</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J25" t="n">
-        <v>106.8926938025403</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K25" t="n">
-        <v>95.97830134926538</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29237,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.695534706072</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R25" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.3834652172648</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="26">
@@ -29274,34 +29274,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0509162938301</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29310,40 +29310,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>76.93904187424188</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P26" t="n">
-        <v>103.1618702125661</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.0509162938301</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>110.0509162938301</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H27" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I27" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J27" t="n">
-        <v>94.79465984195117</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N27" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O27" t="n">
-        <v>61.90199527586626</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P27" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.68858869692536</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R27" t="n">
-        <v>110.0509162938301</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J28" t="n">
-        <v>106.8926938025403</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>94.35444118788999</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>98.26659254753088</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P28" t="n">
-        <v>103.3385623003076</v>
+        <v>111.8664719378982</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.35257632832052</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0509162938301</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K29" t="n">
-        <v>110.0509162938301</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.0509162938301</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.0509162938301</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>110.0509162938301</v>
+        <v>130.2071473611284</v>
       </c>
       <c r="S29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>110.0509162938301</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H30" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I30" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J30" t="n">
-        <v>94.79465984195119</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>55.00626599638482</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>43.1324418665929</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R30" t="n">
-        <v>110.0509162938301</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J31" t="n">
-        <v>73.256452479817</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K31" t="n">
-        <v>95.97830134926539</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29711,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>103.3385623003076</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.0509162938301</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0509162938301</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I32" t="n">
-        <v>167.706640919465</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J32" t="n">
-        <v>127.2458115242515</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>139.4574578697236</v>
+        <v>159.4527159458297</v>
       </c>
       <c r="L32" t="n">
-        <v>135.7348012321505</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M32" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O32" t="n">
-        <v>97.53874161518429</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P32" t="n">
-        <v>140.0797166334401</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.8533734254099</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R32" t="n">
-        <v>167.706640919465</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="33">
@@ -29830,7 +29830,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>167.706640919465</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H33" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I33" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J33" t="n">
-        <v>94.79465984195117</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>58.25861811648044</v>
       </c>
       <c r="L33" t="n">
-        <v>64.9140161636288</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P33" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.68858869692536</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R33" t="n">
-        <v>124.6219746769915</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S33" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="34">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.706640919465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29921,19 +29921,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.706640919465</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H34" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I34" t="n">
-        <v>146.8996425982472</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J34" t="n">
-        <v>73.256452479817</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K34" t="n">
-        <v>95.97830134926538</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29945,37 +29945,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.35257632832052</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R34" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I35" t="n">
-        <v>167.706640919465</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J35" t="n">
-        <v>127.2458115242515</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K35" t="n">
-        <v>38.92488211588081</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.7348012321505</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M35" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N35" t="n">
-        <v>116.3075970105506</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O35" t="n">
-        <v>123.2959266179166</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.8533734254099</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R35" t="n">
-        <v>110.0509162938301</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="36">
@@ -30067,7 +30067,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>167.706640919465</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H36" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I36" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J36" t="n">
-        <v>94.79465984195117</v>
+        <v>48.91618490830201</v>
       </c>
       <c r="K36" t="n">
-        <v>83.07490494225505</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L36" t="n">
-        <v>64.9140161636288</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M36" t="n">
-        <v>56.19920297341727</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N36" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O36" t="n">
-        <v>61.90199527586626</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P36" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.68858869692536</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R36" t="n">
-        <v>124.6219746769915</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S36" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="37">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.706640919465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.706640919465</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I37" t="n">
-        <v>146.8996425982472</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J37" t="n">
-        <v>73.256452479817</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>103.0942751877797</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>84.17400861449467</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O37" t="n">
-        <v>98.26659254753088</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.35257632832052</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R37" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I38" t="n">
-        <v>167.706640919465</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J38" t="n">
-        <v>127.2458115242515</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K38" t="n">
-        <v>139.4574578697236</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M38" t="n">
-        <v>119.0417889154122</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N38" t="n">
-        <v>76.59861343498241</v>
+        <v>144.3555428192614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>149.7808064989777</v>
       </c>
       <c r="P38" t="n">
-        <v>140.0797166334401</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.8533734254099</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R38" t="n">
-        <v>167.706640919465</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="39">
@@ -30304,7 +30304,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>167.706640919465</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0043594436974</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H39" t="n">
-        <v>108.95989468225</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I39" t="n">
-        <v>87.84523921851275</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J39" t="n">
-        <v>94.79465984195117</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K39" t="n">
-        <v>83.07490494225505</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L39" t="n">
-        <v>64.9140161636288</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N39" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P39" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.68858869692536</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R39" t="n">
-        <v>124.6219746769915</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S39" t="n">
-        <v>165.3834652172648</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.706640919465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.706640919465</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6991452952954</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I40" t="n">
-        <v>146.8996425982472</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J40" t="n">
-        <v>106.8926938025403</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K40" t="n">
-        <v>95.97830134926538</v>
+        <v>104.1703251893442</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>94.35444118788999</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>62.90403139449942</v>
       </c>
       <c r="P40" t="n">
-        <v>103.3385623003076</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.695534706072</v>
+        <v>68.25685892542273</v>
       </c>
       <c r="R40" t="n">
-        <v>164.508501202052</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.706640919465</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="41">
@@ -30459,46 +30459,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="J41" t="n">
-        <v>11.31066857483382</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="S41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I42" t="n">
-        <v>77.96997744951588</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="K42" t="n">
-        <v>77.96997744951588</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M42" t="n">
-        <v>56.19920297341727</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N42" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P42" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="R42" t="n">
-        <v>77.96997744951588</v>
+        <v>93.50299171961839</v>
       </c>
       <c r="S42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="J43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="K43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30653,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>77.96997744951588</v>
+        <v>94.96401935784735</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="R43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="S43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="44">
@@ -30696,37 +30696,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>83.15514969330802</v>
       </c>
       <c r="K44" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30738,34 +30738,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>77.96997744951588</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="R44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="S44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I45" t="n">
-        <v>77.96997744951588</v>
+        <v>80.61519483059585</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="K45" t="n">
-        <v>77.96997744951588</v>
+        <v>96.65593532945437</v>
       </c>
       <c r="L45" t="n">
-        <v>64.9140161636288</v>
+        <v>83.17538752246581</v>
       </c>
       <c r="M45" t="n">
-        <v>56.19920297341727</v>
+        <v>77.50936201593852</v>
       </c>
       <c r="N45" t="n">
-        <v>43.13244186659288</v>
+        <v>65.0066174086124</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>81.9125924297463</v>
       </c>
       <c r="P45" t="n">
-        <v>69.21015832587268</v>
+        <v>85.27042670726942</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.9824232956327</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="R45" t="n">
-        <v>77.96997744951588</v>
+        <v>84.32216069751995</v>
       </c>
       <c r="S45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="C46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="D46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="E46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="F46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="G46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="H46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="I46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="J46" t="n">
-        <v>73.256452479817</v>
+        <v>78.24153615777422</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.96997744951588</v>
+        <v>68.25685892542273</v>
       </c>
       <c r="R46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="S46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="T46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="U46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="V46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="W46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="X46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.96997744951588</v>
+        <v>97.74133359109419</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6338837744583524</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H11" t="n">
-        <v>6.491762205171604</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I11" t="n">
-        <v>24.43780421480566</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J11" t="n">
-        <v>53.80009300243464</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K11" t="n">
-        <v>80.63239317525671</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L11" t="n">
-        <v>100.0316137378365</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M11" t="n">
-        <v>111.3044443118603</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N11" t="n">
-        <v>113.1054665860401</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O11" t="n">
-        <v>106.8022848037698</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P11" t="n">
-        <v>91.15327912182923</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.45231644903946</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R11" t="n">
-        <v>39.81820164731952</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S11" t="n">
-        <v>14.44462651046972</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T11" t="n">
-        <v>2.77482622269144</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05071070195666819</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3391577195132593</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H12" t="n">
-        <v>3.275549554246479</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I12" t="n">
-        <v>11.67714078148722</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J12" t="n">
-        <v>32.04296682471544</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K12" t="n">
-        <v>54.76653403210381</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L12" t="n">
-        <v>73.6403636162452</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M12" t="n">
-        <v>85.93483094860082</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N12" t="n">
-        <v>88.20927021674019</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O12" t="n">
-        <v>80.69424916857797</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P12" t="n">
-        <v>64.76424908845739</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.29318538909605</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R12" t="n">
-        <v>21.05752928697237</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S12" t="n">
-        <v>6.299705886573037</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T12" t="n">
-        <v>1.367043615055637</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02231300786271444</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2843384389937161</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H13" t="n">
-        <v>2.528027212144132</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I13" t="n">
-        <v>8.550832329011028</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J13" t="n">
-        <v>20.10272763685573</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K13" t="n">
-        <v>33.03495682126992</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L13" t="n">
-        <v>42.27337119366576</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M13" t="n">
-        <v>44.57134275971496</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N13" t="n">
-        <v>43.51153585073842</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O13" t="n">
-        <v>40.18994590431181</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P13" t="n">
-        <v>34.38944174883997</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80946692337381</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R13" t="n">
-        <v>12.78489017511745</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S13" t="n">
-        <v>4.955243523190487</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T13" t="n">
-        <v>1.21490060297315</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01550936939965726</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6338837744583524</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H14" t="n">
-        <v>6.491762205171604</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I14" t="n">
-        <v>24.43780421480566</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J14" t="n">
-        <v>53.80009300243464</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K14" t="n">
-        <v>80.63239317525671</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L14" t="n">
-        <v>100.0316137378365</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M14" t="n">
-        <v>111.3044443118603</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N14" t="n">
-        <v>113.1054665860401</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O14" t="n">
-        <v>106.8022848037698</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P14" t="n">
-        <v>91.15327912182923</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.45231644903946</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R14" t="n">
-        <v>39.81820164731952</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S14" t="n">
-        <v>14.44462651046972</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T14" t="n">
-        <v>2.77482622269144</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05071070195666819</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3391577195132593</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H15" t="n">
-        <v>3.275549554246479</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I15" t="n">
-        <v>11.67714078148722</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J15" t="n">
-        <v>32.04296682471544</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K15" t="n">
-        <v>54.76653403210381</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L15" t="n">
-        <v>73.6403636162452</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M15" t="n">
-        <v>85.93483094860082</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N15" t="n">
-        <v>88.20927021674019</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O15" t="n">
-        <v>80.69424916857797</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P15" t="n">
-        <v>64.76424908845739</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.29318538909605</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R15" t="n">
-        <v>21.05752928697237</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S15" t="n">
-        <v>6.299705886573037</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T15" t="n">
-        <v>1.367043615055637</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02231300786271444</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2843384389937161</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H16" t="n">
-        <v>2.528027212144132</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I16" t="n">
-        <v>8.550832329011028</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J16" t="n">
-        <v>20.10272763685573</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K16" t="n">
-        <v>33.03495682126992</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L16" t="n">
-        <v>42.27337119366576</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M16" t="n">
-        <v>44.57134275971496</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N16" t="n">
-        <v>43.51153585073842</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O16" t="n">
-        <v>40.18994590431181</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P16" t="n">
-        <v>34.38944174883997</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80946692337381</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R16" t="n">
-        <v>12.78489017511745</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S16" t="n">
-        <v>4.955243523190487</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T16" t="n">
-        <v>1.21490060297315</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01550936939965726</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6338837744583524</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H17" t="n">
-        <v>6.491762205171604</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I17" t="n">
-        <v>24.43780421480566</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J17" t="n">
-        <v>53.80009300243464</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K17" t="n">
-        <v>80.63239317525671</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L17" t="n">
-        <v>100.0316137378365</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M17" t="n">
-        <v>111.3044443118603</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N17" t="n">
-        <v>113.1054665860401</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O17" t="n">
-        <v>106.8022848037698</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P17" t="n">
-        <v>91.15327912182923</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.45231644903946</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R17" t="n">
-        <v>39.81820164731952</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S17" t="n">
-        <v>14.44462651046972</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T17" t="n">
-        <v>2.77482622269144</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05071070195666819</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3391577195132593</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H18" t="n">
-        <v>3.275549554246479</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I18" t="n">
-        <v>11.67714078148722</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J18" t="n">
-        <v>32.04296682471544</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K18" t="n">
-        <v>54.76653403210381</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L18" t="n">
-        <v>73.6403636162452</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M18" t="n">
-        <v>85.93483094860082</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N18" t="n">
-        <v>88.20927021674019</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O18" t="n">
-        <v>80.69424916857797</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P18" t="n">
-        <v>64.76424908845739</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.29318538909605</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R18" t="n">
-        <v>21.05752928697237</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S18" t="n">
-        <v>6.299705886573037</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T18" t="n">
-        <v>1.367043615055637</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02231300786271444</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2843384389937161</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H19" t="n">
-        <v>2.528027212144132</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I19" t="n">
-        <v>8.550832329011028</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J19" t="n">
-        <v>20.10272763685573</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K19" t="n">
-        <v>33.03495682126992</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L19" t="n">
-        <v>42.27337119366576</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M19" t="n">
-        <v>44.57134275971496</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N19" t="n">
-        <v>43.51153585073842</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O19" t="n">
-        <v>40.18994590431181</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P19" t="n">
-        <v>34.38944174883997</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80946692337381</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R19" t="n">
-        <v>12.78489017511745</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S19" t="n">
-        <v>4.955243523190487</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T19" t="n">
-        <v>1.21490060297315</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01550936939965726</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6338837744583524</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H20" t="n">
-        <v>6.491762205171604</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I20" t="n">
-        <v>24.43780421480566</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J20" t="n">
-        <v>53.80009300243464</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K20" t="n">
-        <v>80.63239317525671</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L20" t="n">
-        <v>100.0316137378365</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M20" t="n">
-        <v>111.3044443118603</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N20" t="n">
-        <v>113.1054665860401</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O20" t="n">
-        <v>106.8022848037698</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P20" t="n">
-        <v>91.15327912182923</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.45231644903946</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R20" t="n">
-        <v>39.81820164731952</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S20" t="n">
-        <v>14.44462651046972</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T20" t="n">
-        <v>2.77482622269144</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05071070195666819</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3391577195132593</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H21" t="n">
-        <v>3.275549554246479</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I21" t="n">
-        <v>11.67714078148722</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J21" t="n">
-        <v>32.04296682471544</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K21" t="n">
-        <v>54.76653403210381</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L21" t="n">
-        <v>73.6403636162452</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M21" t="n">
-        <v>85.93483094860082</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N21" t="n">
-        <v>88.20927021674019</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O21" t="n">
-        <v>80.69424916857797</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P21" t="n">
-        <v>64.76424908845739</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.29318538909605</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R21" t="n">
-        <v>21.05752928697237</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S21" t="n">
-        <v>6.299705886573037</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T21" t="n">
-        <v>1.367043615055637</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02231300786271444</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2843384389937161</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H22" t="n">
-        <v>2.528027212144132</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I22" t="n">
-        <v>8.550832329011028</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J22" t="n">
-        <v>20.10272763685573</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K22" t="n">
-        <v>33.03495682126992</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L22" t="n">
-        <v>42.27337119366576</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M22" t="n">
-        <v>44.57134275971496</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N22" t="n">
-        <v>43.51153585073842</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O22" t="n">
-        <v>40.18994590431181</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P22" t="n">
-        <v>34.38944174883997</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80946692337381</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R22" t="n">
-        <v>12.78489017511745</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S22" t="n">
-        <v>4.955243523190487</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T22" t="n">
-        <v>1.21490060297315</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01550936939965726</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H23" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I23" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J23" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K23" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L23" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M23" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N23" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O23" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P23" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R23" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S23" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T23" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H24" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I24" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J24" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K24" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L24" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M24" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N24" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O24" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P24" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R24" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S24" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T24" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H25" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I25" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J25" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K25" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L25" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M25" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N25" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O25" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P25" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R25" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S25" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T25" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H26" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I26" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J26" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K26" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L26" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M26" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N26" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O26" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P26" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R26" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S26" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T26" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H27" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I27" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J27" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K27" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L27" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M27" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N27" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O27" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P27" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R27" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S27" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T27" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H28" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I28" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J28" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K28" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L28" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M28" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N28" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O28" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P28" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R28" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S28" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T28" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.633883774458354</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H29" t="n">
-        <v>6.491762205171619</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I29" t="n">
-        <v>24.43780421480571</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J29" t="n">
-        <v>53.80009300243476</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K29" t="n">
-        <v>80.63239317525691</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L29" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M29" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N29" t="n">
-        <v>113.1054665860403</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O29" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P29" t="n">
-        <v>91.15327912182944</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.45231644903961</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R29" t="n">
-        <v>39.81820164731961</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S29" t="n">
-        <v>14.44462651046975</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T29" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0507107019566683</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3391577195132601</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H30" t="n">
-        <v>3.275549554246486</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I30" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J30" t="n">
-        <v>32.04296682471551</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K30" t="n">
-        <v>54.76653403210394</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L30" t="n">
-        <v>73.64036361624537</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M30" t="n">
-        <v>85.93483094860103</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N30" t="n">
-        <v>88.20927021674041</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O30" t="n">
-        <v>80.69424916857817</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P30" t="n">
-        <v>64.76424908845755</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.29318538909615</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R30" t="n">
-        <v>21.05752928697242</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S30" t="n">
-        <v>6.299705886573051</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T30" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2843384389937167</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H31" t="n">
-        <v>2.528027212144138</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I31" t="n">
-        <v>8.550832329011048</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J31" t="n">
-        <v>20.10272763685577</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K31" t="n">
-        <v>33.03495682126999</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L31" t="n">
-        <v>42.27337119366586</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M31" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N31" t="n">
-        <v>43.51153585073852</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O31" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P31" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.80946692337386</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R31" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S31" t="n">
-        <v>4.955243523190498</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T31" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H32" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I32" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J32" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K32" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L32" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M32" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N32" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O32" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P32" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R32" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S32" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T32" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H33" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I33" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J33" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K33" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L33" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M33" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N33" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O33" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P33" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R33" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S33" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H34" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I34" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J34" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K34" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L34" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M34" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N34" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O34" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P34" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R34" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S34" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T34" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H35" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I35" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J35" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K35" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L35" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M35" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N35" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O35" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P35" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R35" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S35" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T35" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H36" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I36" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J36" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K36" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L36" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M36" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N36" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O36" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P36" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R36" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S36" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T36" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H37" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I37" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J37" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K37" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L37" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M37" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N37" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O37" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P37" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R37" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S37" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T37" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H38" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I38" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J38" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K38" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L38" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M38" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N38" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O38" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P38" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R38" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S38" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T38" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H39" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I39" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J39" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K39" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L39" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M39" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N39" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O39" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P39" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R39" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S39" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T39" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H40" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I40" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J40" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K40" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L40" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M40" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N40" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O40" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P40" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R40" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S40" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T40" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H41" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I41" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J41" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K41" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L41" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M41" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N41" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O41" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P41" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R41" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S41" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T41" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H42" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I42" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J42" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K42" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L42" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M42" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N42" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O42" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P42" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R42" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S42" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T42" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H43" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I43" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J43" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K43" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L43" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M43" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N43" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O43" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P43" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R43" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S43" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T43" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6338837744583541</v>
+        <v>0.4766929834942032</v>
       </c>
       <c r="H44" t="n">
-        <v>6.49176220517162</v>
+        <v>4.88193201721001</v>
       </c>
       <c r="I44" t="n">
-        <v>24.43780421480572</v>
+        <v>18.37770624616029</v>
       </c>
       <c r="J44" t="n">
-        <v>53.80009300243478</v>
+        <v>40.45872110784116</v>
       </c>
       <c r="K44" t="n">
-        <v>80.63239317525692</v>
+        <v>60.6371350991508</v>
       </c>
       <c r="L44" t="n">
-        <v>100.0316137378368</v>
+        <v>75.22572799276153</v>
       </c>
       <c r="M44" t="n">
-        <v>111.3044443118605</v>
+        <v>83.70311683797657</v>
       </c>
       <c r="N44" t="n">
-        <v>113.1054665860404</v>
+        <v>85.05752077732949</v>
       </c>
       <c r="O44" t="n">
-        <v>106.8022848037701</v>
+        <v>80.31740492270899</v>
       </c>
       <c r="P44" t="n">
-        <v>91.15327912182946</v>
+        <v>68.54904689269584</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.45231644903963</v>
+        <v>51.47747942130967</v>
       </c>
       <c r="R44" t="n">
-        <v>39.81820164731962</v>
+        <v>29.94406562441777</v>
       </c>
       <c r="S44" t="n">
-        <v>14.44462651046976</v>
+        <v>10.86264136137417</v>
       </c>
       <c r="T44" t="n">
-        <v>2.774826222691446</v>
+        <v>2.086723535245876</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05071070195666832</v>
+        <v>0.03813543867953625</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3391577195132602</v>
+        <v>0.2550532316874883</v>
       </c>
       <c r="H45" t="n">
-        <v>3.275549554246487</v>
+        <v>2.463277263929164</v>
       </c>
       <c r="I45" t="n">
-        <v>11.67714078148725</v>
+        <v>8.781438020819225</v>
       </c>
       <c r="J45" t="n">
-        <v>32.04296682471552</v>
+        <v>24.09693712184292</v>
       </c>
       <c r="K45" t="n">
-        <v>54.76653403210395</v>
+        <v>41.18550364490464</v>
       </c>
       <c r="L45" t="n">
-        <v>73.64036361624538</v>
+        <v>55.37899225740837</v>
       </c>
       <c r="M45" t="n">
-        <v>85.93483094860105</v>
+        <v>64.6246719060798</v>
       </c>
       <c r="N45" t="n">
-        <v>88.20927021674042</v>
+        <v>66.33509467472091</v>
       </c>
       <c r="O45" t="n">
-        <v>80.69424916857818</v>
+        <v>60.68365201469814</v>
       </c>
       <c r="P45" t="n">
-        <v>64.76424908845756</v>
+        <v>48.70398070706081</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.29318538909616</v>
+        <v>32.55732129400289</v>
       </c>
       <c r="R45" t="n">
-        <v>21.05752928697243</v>
+        <v>15.83567345512318</v>
       </c>
       <c r="S45" t="n">
-        <v>6.299705886573052</v>
+        <v>4.737501913142597</v>
       </c>
       <c r="T45" t="n">
-        <v>1.36704361505564</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02231300786271449</v>
+        <v>0.01677981787417687</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2843384389937168</v>
+        <v>0.213828061653445</v>
       </c>
       <c r="H46" t="n">
-        <v>2.528027212144139</v>
+        <v>1.901125857246085</v>
       </c>
       <c r="I46" t="n">
-        <v>8.550832329011049</v>
+        <v>6.430392981359966</v>
       </c>
       <c r="J46" t="n">
-        <v>20.10272763685578</v>
+        <v>15.11764395889856</v>
       </c>
       <c r="K46" t="n">
-        <v>33.03495682127</v>
+        <v>24.84293298119115</v>
       </c>
       <c r="L46" t="n">
-        <v>42.27337119366587</v>
+        <v>31.79040109345855</v>
       </c>
       <c r="M46" t="n">
-        <v>44.57134275971507</v>
+        <v>33.51852060991229</v>
       </c>
       <c r="N46" t="n">
-        <v>43.51153585073853</v>
+        <v>32.72152510738584</v>
       </c>
       <c r="O46" t="n">
-        <v>40.18994590431191</v>
+        <v>30.22362456897967</v>
       </c>
       <c r="P46" t="n">
-        <v>34.38944174884006</v>
+        <v>25.86153211124937</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.80946692337387</v>
+        <v>17.90518432627166</v>
       </c>
       <c r="R46" t="n">
-        <v>12.78489017511748</v>
+        <v>9.614487208526715</v>
       </c>
       <c r="S46" t="n">
-        <v>4.955243523190499</v>
+        <v>3.726439947178672</v>
       </c>
       <c r="T46" t="n">
-        <v>1.214900602973153</v>
+        <v>0.9136289907010828</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0155093693996573</v>
+        <v>0.01166334881746065</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1880244.607067541</v>
+        <v>1912088.194007082</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11743148.41102517</v>
+        <v>11738514.28553471</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7062844.90522292</v>
+        <v>8200919.994151603</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6277413.681940481</v>
+        <v>6021535.929160184</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>159.4527159458297</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L11" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3555428192614</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.335740934338986</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P11" t="n">
-        <v>15.23888329793495</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.38314488850106</v>
+        <v>114.9224777009733</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>31.33671863963805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>96.65593532945437</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N12" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.4244527920186</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.0465067371759</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>104.1703251893442</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>103.0942751877797</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>94.96401935784735</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>111.8664719378982</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.00765038119102</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L14" t="n">
-        <v>13.09562141258698</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>146.6431163892962</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>144.3555428192614</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O14" t="n">
-        <v>149.7808064989777</v>
+        <v>76.05355127614348</v>
       </c>
       <c r="P14" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.38314488850109</v>
+        <v>10.13499551090845</v>
       </c>
       <c r="R14" t="n">
-        <v>38.19640662507563</v>
+        <v>31.33671863963805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O15" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>68.51608896124162</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L16" t="n">
-        <v>103.0942751877797</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M16" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N16" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O16" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P16" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>144.3555428192614</v>
+        <v>100.3884993881462</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>67.48185612246924</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>170.8282104531398</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10.22458301270196</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N20" t="n">
-        <v>144.3555428192614</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>104.1703251893442</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>103.0942751877797</v>
+        <v>52.63720020944755</v>
       </c>
       <c r="M22" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N22" t="n">
-        <v>94.96401935784735</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.17851983773647</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>48.30548511530816</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>127.6325524634052</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P23" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>10.22458301270196</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L25" t="n">
-        <v>103.0942751877797</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N25" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O25" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K26" t="n">
-        <v>14.38350355244587</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L26" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M26" t="n">
-        <v>146.6431163892962</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N26" t="n">
-        <v>67.41650094501956</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O26" t="n">
-        <v>4.711594105593861</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P26" t="n">
-        <v>162.6839488625737</v>
+        <v>28.1504975318478</v>
       </c>
       <c r="Q26" t="n">
-        <v>170.8282104531398</v>
+        <v>51.4509877150506</v>
       </c>
       <c r="R26" t="n">
-        <v>40.57225979633048</v>
+        <v>62.56121795553342</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.94920701250089</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>103.0942751877797</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>94.96401935784735</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>14.09121822332114</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K29" t="n">
-        <v>159.4527159458297</v>
+        <v>27.26654422009123</v>
       </c>
       <c r="L29" t="n">
-        <v>15.47147458384183</v>
+        <v>24.02642016420697</v>
       </c>
       <c r="M29" t="n">
-        <v>146.6431163892962</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O29" t="n">
-        <v>4.711594105593861</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P29" t="n">
-        <v>17.61473646918982</v>
+        <v>49.77747308863493</v>
       </c>
       <c r="Q29" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R29" t="n">
-        <v>55.43432482858591</v>
+        <v>62.56121795553339</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>102.7406895448238</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>96.65593532945437</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N30" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P30" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.94920701250086</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>103.0942751877797</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M31" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N31" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O31" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>14.09121822332111</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>22.13692407675099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.049267674253556</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.39731721297391</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>103.0942751877797</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>94.96401935784735</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>111.8664719378982</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>159.4527159458297</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>55.90157132609752</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.049267674253556</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>53.82450463652177</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10752,16 +10752,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P37" t="n">
-        <v>111.8664719378982</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>159.4527159458297</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.631281412561364</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.049267674253585</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>103.0942751877797</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>94.96401935784735</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>45.3288824883637</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>111.8664719378982</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>140.5871834188451</v>
+        <v>48.95993906063372</v>
       </c>
       <c r="K41" t="n">
-        <v>159.4527159458297</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L41" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M41" t="n">
-        <v>146.6431163892962</v>
+        <v>42.18626892426477</v>
       </c>
       <c r="N41" t="n">
-        <v>144.3555428192614</v>
+        <v>39.49687531038786</v>
       </c>
       <c r="O41" t="n">
-        <v>52.03947290788355</v>
+        <v>46.3284207537489</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6839488625737</v>
+        <v>62.72296033066775</v>
       </c>
       <c r="Q41" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>4.999355953729584</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.683119200924438</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R42" t="n">
-        <v>36.34083878922237</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.13644388940336</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>6.428991598250043</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L43" t="n">
-        <v>103.0942751877797</v>
+        <v>14.03871910292151</v>
       </c>
       <c r="M43" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>69.14725854877545</v>
       </c>
       <c r="O43" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P43" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.85848371208</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>57.4320337255371</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4527159458297</v>
+        <v>61.8390070189112</v>
       </c>
       <c r="L44" t="n">
-        <v>160.5406869772257</v>
+        <v>58.59888296302694</v>
       </c>
       <c r="M44" t="n">
-        <v>146.6431163892962</v>
+        <v>42.18626892426477</v>
       </c>
       <c r="N44" t="n">
-        <v>144.3555428192614</v>
+        <v>39.49687531038786</v>
       </c>
       <c r="O44" t="n">
-        <v>149.7808064989777</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6839488625737</v>
+        <v>107.3453645853461</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.08687686204561</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>4.999355953729584</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.813071551938783</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.683119200924438</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L46" t="n">
-        <v>103.0942751877797</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M46" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N46" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O46" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P46" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.2887760988418</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8278262063688</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D11" t="n">
-        <v>207.2379760560442</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E11" t="n">
-        <v>234.485304507623</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F11" t="n">
-        <v>259.4309801770727</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G11" t="n">
-        <v>267.3809789670021</v>
+        <v>269.2635728241193</v>
       </c>
       <c r="H11" t="n">
-        <v>187.1478045339184</v>
+        <v>187.7234667658155</v>
       </c>
       <c r="I11" t="n">
-        <v>44.65311775960687</v>
+        <v>41.22489870114708</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.71236266023242</v>
+        <v>49.51368798933859</v>
       </c>
       <c r="T11" t="n">
-        <v>73.56406046424672</v>
+        <v>74.96899582666023</v>
       </c>
       <c r="U11" t="n">
-        <v>103.8624519045182</v>
+        <v>105.8751555514585</v>
       </c>
       <c r="V11" t="n">
-        <v>180.3071929054962</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W11" t="n">
-        <v>201.7959031527743</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X11" t="n">
-        <v>222.2860351138303</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.7928730914148</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.08811808522859</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C12" t="n">
-        <v>25.26343342367699</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E12" t="n">
-        <v>10.20001489076219</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.50060362605647</v>
+        <v>20.11911489955952</v>
       </c>
       <c r="T12" t="n">
-        <v>51.69161962175829</v>
+        <v>53.41064064387194</v>
       </c>
       <c r="U12" t="n">
-        <v>78.47953669846189</v>
+        <v>80.49857605976254</v>
       </c>
       <c r="V12" t="n">
-        <v>85.35552158478652</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W12" t="n">
-        <v>104.2499175962809</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X12" t="n">
-        <v>58.32791963883872</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.23763021266561</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.38691461729854</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C13" t="n">
-        <v>19.80175553398908</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D13" t="n">
-        <v>1.170407453573603</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.33208573216656</v>
+        <v>22.2926654776511</v>
       </c>
       <c r="H13" t="n">
-        <v>12.88098108555474</v>
+        <v>14.34097894811609</v>
       </c>
       <c r="I13" t="n">
-        <v>1.575016381259565</v>
+        <v>1.691286378370478</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.23383860400402</v>
+        <v>19.40546214463089</v>
       </c>
       <c r="S13" t="n">
-        <v>72.84509252515483</v>
+        <v>73.76356229086727</v>
       </c>
       <c r="T13" t="n">
-        <v>79.58689487294166</v>
+        <v>81.33986001260553</v>
       </c>
       <c r="U13" t="n">
-        <v>138.8623004430347</v>
+        <v>140.8828577413119</v>
       </c>
       <c r="V13" t="n">
-        <v>104.6925777591892</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W13" t="n">
-        <v>139.0779327719522</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X13" t="n">
-        <v>78.2645898243984</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.13958778745604</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>235.2887760988419</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C14" t="n">
-        <v>217.8278262063688</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D14" t="n">
-        <v>207.2379760560442</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E14" t="n">
-        <v>234.4853045076231</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F14" t="n">
-        <v>259.4309801770727</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3809789670021</v>
+        <v>269.2635728241193</v>
       </c>
       <c r="H14" t="n">
-        <v>187.1478045339184</v>
+        <v>187.7234667658155</v>
       </c>
       <c r="I14" t="n">
-        <v>44.65311775960689</v>
+        <v>41.22489870114708</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.71236266023246</v>
+        <v>49.51368798933859</v>
       </c>
       <c r="T14" t="n">
-        <v>73.56406046424675</v>
+        <v>74.96899582666023</v>
       </c>
       <c r="U14" t="n">
-        <v>103.8624519045182</v>
+        <v>105.8751555514585</v>
       </c>
       <c r="V14" t="n">
-        <v>180.3071929054962</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W14" t="n">
-        <v>201.7959031527743</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X14" t="n">
-        <v>222.2860351138303</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y14" t="n">
-        <v>238.7928730914149</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.08811808522861</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C15" t="n">
-        <v>25.26343342367701</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E15" t="n">
-        <v>10.20001489076222</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19.50060362605649</v>
+        <v>20.11911489955952</v>
       </c>
       <c r="T15" t="n">
-        <v>51.69161962175832</v>
+        <v>53.41064064387194</v>
       </c>
       <c r="U15" t="n">
-        <v>78.47953669846191</v>
+        <v>80.49857605976254</v>
       </c>
       <c r="V15" t="n">
-        <v>85.35552158478654</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W15" t="n">
-        <v>104.2499175962809</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X15" t="n">
-        <v>58.32791963883875</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y15" t="n">
-        <v>58.23763021266564</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.38691461729857</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C16" t="n">
-        <v>19.80175553398911</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D16" t="n">
-        <v>1.170407453573631</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.33208573216658</v>
+        <v>22.2926654776511</v>
       </c>
       <c r="H16" t="n">
-        <v>12.88098108555477</v>
+        <v>14.34097894811609</v>
       </c>
       <c r="I16" t="n">
-        <v>1.575016381259587</v>
+        <v>1.691286378370478</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.23383860400403</v>
+        <v>19.40546214463089</v>
       </c>
       <c r="S16" t="n">
-        <v>72.84509252515485</v>
+        <v>73.76356229086727</v>
       </c>
       <c r="T16" t="n">
-        <v>79.58689487294168</v>
+        <v>81.33986001260553</v>
       </c>
       <c r="U16" t="n">
-        <v>138.8623004430347</v>
+        <v>140.8828577413119</v>
       </c>
       <c r="V16" t="n">
-        <v>104.6925777591893</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W16" t="n">
-        <v>139.0779327719523</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X16" t="n">
-        <v>78.26458982439843</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.13958778745607</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190.635658339235</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C17" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D17" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E17" t="n">
-        <v>189.8321867480162</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F17" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G17" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1514371971832</v>
       </c>
       <c r="H17" t="n">
-        <v>142.4946867743115</v>
+        <v>166.6113311388795</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20.11276307421099</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.059244900625572</v>
+        <v>28.4015523624025</v>
       </c>
       <c r="T17" t="n">
-        <v>28.91094270463987</v>
+        <v>53.85686019972414</v>
       </c>
       <c r="U17" t="n">
-        <v>59.20933414491134</v>
+        <v>84.76301992452238</v>
       </c>
       <c r="V17" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W17" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X17" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.139755331808</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7.038501862151435</v>
+        <v>32.29850501693585</v>
       </c>
       <c r="U18" t="n">
-        <v>33.82641893885503</v>
+        <v>59.38644043282645</v>
       </c>
       <c r="V18" t="n">
-        <v>40.70240382517966</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W18" t="n">
-        <v>59.59679983667399</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X18" t="n">
-        <v>13.67480187923186</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.58451245305875</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.180529850715004</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.19197476554797</v>
+        <v>52.65142666393118</v>
       </c>
       <c r="T19" t="n">
-        <v>34.9337771133348</v>
+        <v>60.22772438566943</v>
       </c>
       <c r="U19" t="n">
-        <v>94.2091826834278</v>
+        <v>119.7707221143758</v>
       </c>
       <c r="V19" t="n">
-        <v>60.03945999958239</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W19" t="n">
-        <v>94.42481501234539</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X19" t="n">
-        <v>33.61147206479154</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.48647002784918</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>190.635658339235</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C20" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D20" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E20" t="n">
-        <v>189.8321867480162</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F20" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G20" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1514371971832</v>
       </c>
       <c r="H20" t="n">
-        <v>142.4946867743115</v>
+        <v>166.6113311388795</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>20.11276307421099</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.059244900625572</v>
+        <v>28.4015523624025</v>
       </c>
       <c r="T20" t="n">
-        <v>28.91094270463987</v>
+        <v>53.85686019972414</v>
       </c>
       <c r="U20" t="n">
-        <v>59.20933414491134</v>
+        <v>84.76301992452238</v>
       </c>
       <c r="V20" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W20" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X20" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.139755331808</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.038501862151435</v>
+        <v>32.29850501693585</v>
       </c>
       <c r="U21" t="n">
-        <v>33.82641893885503</v>
+        <v>59.38644043282645</v>
       </c>
       <c r="V21" t="n">
-        <v>40.70240382517966</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W21" t="n">
-        <v>59.59679983667399</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X21" t="n">
-        <v>13.67480187923186</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.58451245305875</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.180529850715004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.19197476554797</v>
+        <v>52.65142666393118</v>
       </c>
       <c r="T22" t="n">
-        <v>34.9337771133348</v>
+        <v>60.22772438566943</v>
       </c>
       <c r="U22" t="n">
-        <v>94.2091826834278</v>
+        <v>119.7707221143758</v>
       </c>
       <c r="V22" t="n">
-        <v>60.03945999958239</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W22" t="n">
-        <v>94.42481501234539</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X22" t="n">
-        <v>33.61147206479154</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.48647002784918</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>190.635658339235</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C23" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D23" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E23" t="n">
-        <v>189.8321867480162</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F23" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1514371971832</v>
       </c>
       <c r="H23" t="n">
-        <v>142.4946867743115</v>
+        <v>166.6113311388795</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>20.11276307421099</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.059244900625572</v>
+        <v>28.4015523624025</v>
       </c>
       <c r="T23" t="n">
-        <v>28.91094270463987</v>
+        <v>53.85686019972414</v>
       </c>
       <c r="U23" t="n">
-        <v>59.20933414491134</v>
+        <v>84.76301992452238</v>
       </c>
       <c r="V23" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W23" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X23" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.139755331808</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7.038501862151435</v>
+        <v>32.29850501693585</v>
       </c>
       <c r="U24" t="n">
-        <v>33.82641893885503</v>
+        <v>59.38644043282645</v>
       </c>
       <c r="V24" t="n">
-        <v>40.70240382517966</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W24" t="n">
-        <v>59.59679983667399</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X24" t="n">
-        <v>13.67480187923186</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.58451245305875</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.180529850715004</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>28.19197476554797</v>
+        <v>52.65142666393118</v>
       </c>
       <c r="T25" t="n">
-        <v>34.9337771133348</v>
+        <v>60.22772438566943</v>
       </c>
       <c r="U25" t="n">
-        <v>94.2091826834278</v>
+        <v>119.7707221143758</v>
       </c>
       <c r="V25" t="n">
-        <v>60.03945999958239</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W25" t="n">
-        <v>94.42481501234539</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X25" t="n">
-        <v>33.61147206479154</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.48647002784918</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.6646292700967</v>
+        <v>268.5372929564447</v>
       </c>
       <c r="C26" t="n">
-        <v>220.2036793776237</v>
+        <v>251.0763430639717</v>
       </c>
       <c r="D26" t="n">
-        <v>209.6138292272991</v>
+        <v>240.4864929136471</v>
       </c>
       <c r="E26" t="n">
-        <v>236.8611576788779</v>
+        <v>267.7338213652259</v>
       </c>
       <c r="F26" t="n">
-        <v>261.8068333483276</v>
+        <v>292.6794970346756</v>
       </c>
       <c r="G26" t="n">
-        <v>269.756832138257</v>
+        <v>300.4880721400147</v>
       </c>
       <c r="H26" t="n">
-        <v>189.5236577051732</v>
+        <v>218.9479660817109</v>
       </c>
       <c r="I26" t="n">
-        <v>47.02897093086173</v>
+        <v>72.44939801704245</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.0882158314873</v>
+        <v>80.73818730523396</v>
       </c>
       <c r="T26" t="n">
-        <v>75.9399136355016</v>
+        <v>106.1934951425556</v>
       </c>
       <c r="U26" t="n">
-        <v>106.2383050757731</v>
+        <v>137.0996548673538</v>
       </c>
       <c r="V26" t="n">
-        <v>182.683046076751</v>
+        <v>213.555709763099</v>
       </c>
       <c r="W26" t="n">
-        <v>204.1717563240291</v>
+        <v>235.0444200103771</v>
       </c>
       <c r="X26" t="n">
-        <v>224.6618882850852</v>
+        <v>255.5345519714332</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.1687262626697</v>
+        <v>272.0413899490177</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.46397125648346</v>
+        <v>52.33663494283147</v>
       </c>
       <c r="C27" t="n">
-        <v>27.63928659493186</v>
+        <v>58.51195028127987</v>
       </c>
       <c r="D27" t="n">
-        <v>2.375853171254874</v>
+        <v>33.24851685760288</v>
       </c>
       <c r="E27" t="n">
-        <v>12.57586806201707</v>
+        <v>43.44853174836507</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>30.87266368634801</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>22.81624688230295</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.87645679731133</v>
+        <v>51.34361421545489</v>
       </c>
       <c r="T27" t="n">
-        <v>54.06747279301317</v>
+        <v>84.63513995976732</v>
       </c>
       <c r="U27" t="n">
-        <v>80.85538986971676</v>
+        <v>111.7230753756579</v>
       </c>
       <c r="V27" t="n">
-        <v>87.73137475604139</v>
+        <v>118.6040384423894</v>
       </c>
       <c r="W27" t="n">
-        <v>106.6257707675357</v>
+        <v>137.4984344538837</v>
       </c>
       <c r="X27" t="n">
-        <v>60.7037728100936</v>
+        <v>91.5764364964416</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.61348338392048</v>
+        <v>91.48614707026849</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.76276778855342</v>
+        <v>65.63543147490142</v>
       </c>
       <c r="C28" t="n">
-        <v>22.17760870524396</v>
+        <v>53.05027239159196</v>
       </c>
       <c r="D28" t="n">
-        <v>3.546260624828477</v>
+        <v>34.41892431117648</v>
       </c>
       <c r="E28" t="n">
-        <v>1.364750253185292</v>
+        <v>32.2374139395333</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3518356295473666</v>
+        <v>31.22449931589537</v>
       </c>
       <c r="G28" t="n">
-        <v>22.70793890342142</v>
+        <v>53.51716479354647</v>
       </c>
       <c r="H28" t="n">
-        <v>15.25683425680961</v>
+        <v>45.56547826401146</v>
       </c>
       <c r="I28" t="n">
-        <v>3.950869552514433</v>
+        <v>32.91578569426585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.60969177525888</v>
+        <v>50.62996146052626</v>
       </c>
       <c r="S28" t="n">
-        <v>75.2209456964097</v>
+        <v>104.9880616067626</v>
       </c>
       <c r="T28" t="n">
-        <v>81.96274804419653</v>
+        <v>112.5643593285009</v>
       </c>
       <c r="U28" t="n">
-        <v>141.2381536142895</v>
+        <v>172.1073570572072</v>
       </c>
       <c r="V28" t="n">
-        <v>107.0684309304441</v>
+        <v>137.9410946167921</v>
       </c>
       <c r="W28" t="n">
-        <v>141.4537859432071</v>
+        <v>172.3264496295551</v>
       </c>
       <c r="X28" t="n">
-        <v>80.64044299565327</v>
+        <v>111.5131066820013</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.51544095871091</v>
+        <v>104.3881046450589</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>268.5372929564447</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>251.0763430639716</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>240.4864929136471</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>267.7338213652259</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>292.6794970346755</v>
       </c>
       <c r="G29" t="n">
-        <v>269.756832138257</v>
+        <v>300.4880721400147</v>
       </c>
       <c r="H29" t="n">
-        <v>189.5236577051732</v>
+        <v>218.9479660817109</v>
       </c>
       <c r="I29" t="n">
-        <v>47.02897093086173</v>
+        <v>72.44939801704243</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.0882158314873</v>
+        <v>80.73818730523394</v>
       </c>
       <c r="T29" t="n">
-        <v>75.9399136355016</v>
+        <v>106.1934951425556</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2383050757731</v>
+        <v>137.0996548673538</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>213.555709763099</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>235.0444200103771</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>255.5345519714331</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>272.0413899490177</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>52.33663494283144</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>58.51195028127984</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>33.24851685760285</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>43.44853174836504</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30.87266368634798</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>22.81624688230292</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.87645679731133</v>
+        <v>51.34361421545486</v>
       </c>
       <c r="T30" t="n">
-        <v>54.06747279301317</v>
+        <v>84.63513995976729</v>
       </c>
       <c r="U30" t="n">
-        <v>80.85538986971676</v>
+        <v>111.7230753756579</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>118.6040384423894</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>137.4984344538837</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>91.57643649644157</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>91.48614707026846</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>65.6354314749014</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>53.05027239159193</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>34.41892431117645</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>32.23741393953327</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>31.22449931589534</v>
       </c>
       <c r="G31" t="n">
-        <v>22.70793890342142</v>
+        <v>53.51716479354644</v>
       </c>
       <c r="H31" t="n">
-        <v>15.25683425680961</v>
+        <v>45.56547826401143</v>
       </c>
       <c r="I31" t="n">
-        <v>3.950869552514433</v>
+        <v>32.91578569426582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.60969177525888</v>
+        <v>50.62996146052623</v>
       </c>
       <c r="S31" t="n">
-        <v>75.2209456964097</v>
+        <v>104.9880616067626</v>
       </c>
       <c r="T31" t="n">
-        <v>81.96274804419653</v>
+        <v>112.5643593285009</v>
       </c>
       <c r="U31" t="n">
-        <v>141.2381536142895</v>
+        <v>172.1073570572072</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>137.9410946167921</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>172.3264496295551</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>111.5131066820013</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>104.3881046450589</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>184.5764134386094</v>
+        <v>210.0253426751648</v>
       </c>
       <c r="C32" t="n">
-        <v>167.1154635461364</v>
+        <v>192.5643927826918</v>
       </c>
       <c r="D32" t="n">
-        <v>156.5256133958118</v>
+        <v>181.9745426323672</v>
       </c>
       <c r="E32" t="n">
-        <v>183.7729418473906</v>
+        <v>209.221871083946</v>
       </c>
       <c r="F32" t="n">
-        <v>208.7186175168403</v>
+        <v>234.1675467533957</v>
       </c>
       <c r="G32" t="n">
-        <v>216.6686163067696</v>
+        <v>241.9761218587348</v>
       </c>
       <c r="H32" t="n">
-        <v>136.4354418736859</v>
+        <v>160.4360158004311</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>13.93744773576259</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>22.2262370239541</v>
       </c>
       <c r="T32" t="n">
-        <v>22.85169780401429</v>
+        <v>47.68154486127574</v>
       </c>
       <c r="U32" t="n">
-        <v>53.15008924428577</v>
+        <v>78.58770458607398</v>
       </c>
       <c r="V32" t="n">
-        <v>129.5948302452637</v>
+        <v>155.0437594818192</v>
       </c>
       <c r="W32" t="n">
-        <v>151.0835404925418</v>
+        <v>176.5324697290973</v>
       </c>
       <c r="X32" t="n">
-        <v>171.5736724535979</v>
+        <v>197.0226016901533</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.0805104311824</v>
+        <v>213.5294396677378</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9792569615258628</v>
+        <v>26.12318967848745</v>
       </c>
       <c r="U33" t="n">
-        <v>27.76717403822946</v>
+        <v>53.21112509437805</v>
       </c>
       <c r="V33" t="n">
-        <v>34.64315892455409</v>
+        <v>60.09208816110953</v>
       </c>
       <c r="W33" t="n">
-        <v>53.53755493604842</v>
+        <v>78.98648417260387</v>
       </c>
       <c r="X33" t="n">
-        <v>7.615556978606293</v>
+        <v>33.06448621516174</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.525267552433178</v>
+        <v>32.97419678898862</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7.123481193621558</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.1327298649224</v>
+        <v>46.47611132548278</v>
       </c>
       <c r="T34" t="n">
-        <v>28.87453221270923</v>
+        <v>54.05240904722103</v>
       </c>
       <c r="U34" t="n">
-        <v>88.14993778280223</v>
+        <v>113.5954067759274</v>
       </c>
       <c r="V34" t="n">
-        <v>53.98021509895682</v>
+        <v>79.42914433551226</v>
       </c>
       <c r="W34" t="n">
-        <v>88.36557011171982</v>
+        <v>113.8144993482753</v>
       </c>
       <c r="X34" t="n">
-        <v>27.55222716416597</v>
+        <v>53.00115640072141</v>
       </c>
       <c r="Y34" t="n">
-        <v>20.42722512722361</v>
+        <v>45.87615436377905</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>184.5764134386094</v>
+        <v>210.0253426751648</v>
       </c>
       <c r="C35" t="n">
-        <v>167.1154635461364</v>
+        <v>192.5643927826918</v>
       </c>
       <c r="D35" t="n">
-        <v>156.5256133958118</v>
+        <v>181.9745426323672</v>
       </c>
       <c r="E35" t="n">
-        <v>183.7729418473906</v>
+        <v>209.221871083946</v>
       </c>
       <c r="F35" t="n">
-        <v>208.7186175168403</v>
+        <v>234.1675467533957</v>
       </c>
       <c r="G35" t="n">
-        <v>216.6686163067696</v>
+        <v>241.9761218587348</v>
       </c>
       <c r="H35" t="n">
-        <v>136.4354418736859</v>
+        <v>160.4360158004311</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>13.93744773576259</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>22.2262370239541</v>
       </c>
       <c r="T35" t="n">
-        <v>22.85169780401429</v>
+        <v>47.68154486127574</v>
       </c>
       <c r="U35" t="n">
-        <v>53.15008924428577</v>
+        <v>78.58770458607398</v>
       </c>
       <c r="V35" t="n">
-        <v>129.5948302452637</v>
+        <v>155.0437594818192</v>
       </c>
       <c r="W35" t="n">
-        <v>151.0835404925418</v>
+        <v>176.5324697290973</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5736724535979</v>
+        <v>197.0226016901533</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.0805104311824</v>
+        <v>213.5294396677378</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9792569615258628</v>
+        <v>26.12318967848745</v>
       </c>
       <c r="U36" t="n">
-        <v>27.76717403822946</v>
+        <v>53.21112509437805</v>
       </c>
       <c r="V36" t="n">
-        <v>34.64315892455409</v>
+        <v>60.09208816110953</v>
       </c>
       <c r="W36" t="n">
-        <v>53.53755493604842</v>
+        <v>78.98648417260387</v>
       </c>
       <c r="X36" t="n">
-        <v>7.615556978606293</v>
+        <v>33.06448621516174</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.525267552433178</v>
+        <v>32.97419678898862</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>7.123481193621558</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.1327298649224</v>
+        <v>46.47611132548278</v>
       </c>
       <c r="T37" t="n">
-        <v>28.87453221270923</v>
+        <v>54.05240904722103</v>
       </c>
       <c r="U37" t="n">
-        <v>88.14993778280223</v>
+        <v>113.5954067759274</v>
       </c>
       <c r="V37" t="n">
-        <v>53.98021509895682</v>
+        <v>79.42914433551226</v>
       </c>
       <c r="W37" t="n">
-        <v>88.36557011171982</v>
+        <v>113.8144993482753</v>
       </c>
       <c r="X37" t="n">
-        <v>27.55222716416597</v>
+        <v>53.00115640072141</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.42722512722361</v>
+        <v>45.87615436377905</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>184.5764134386094</v>
+        <v>210.0253426751649</v>
       </c>
       <c r="C38" t="n">
-        <v>167.1154635461364</v>
+        <v>192.5643927826918</v>
       </c>
       <c r="D38" t="n">
-        <v>156.5256133958118</v>
+        <v>181.9745426323672</v>
       </c>
       <c r="E38" t="n">
-        <v>183.7729418473906</v>
+        <v>209.2218710839461</v>
       </c>
       <c r="F38" t="n">
-        <v>208.7186175168403</v>
+        <v>234.1675467533957</v>
       </c>
       <c r="G38" t="n">
-        <v>216.6686163067696</v>
+        <v>241.9761218587348</v>
       </c>
       <c r="H38" t="n">
-        <v>136.4354418736859</v>
+        <v>160.4360158004311</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>13.93744773576262</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>22.22623702395413</v>
       </c>
       <c r="T38" t="n">
-        <v>22.85169780401429</v>
+        <v>47.68154486127577</v>
       </c>
       <c r="U38" t="n">
-        <v>53.15008924428577</v>
+        <v>78.58770458607401</v>
       </c>
       <c r="V38" t="n">
-        <v>129.5948302452637</v>
+        <v>155.0437594818192</v>
       </c>
       <c r="W38" t="n">
-        <v>151.0835404925418</v>
+        <v>176.5324697290973</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5736724535979</v>
+        <v>197.0226016901533</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.0805104311824</v>
+        <v>213.5294396677379</v>
       </c>
     </row>
     <row r="39">
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9792569615258628</v>
+        <v>26.12318967848748</v>
       </c>
       <c r="U39" t="n">
-        <v>27.76717403822946</v>
+        <v>53.21112509437808</v>
       </c>
       <c r="V39" t="n">
-        <v>34.64315892455409</v>
+        <v>60.09208816110956</v>
       </c>
       <c r="W39" t="n">
-        <v>53.53755493604842</v>
+        <v>78.98648417260389</v>
       </c>
       <c r="X39" t="n">
-        <v>7.615556978606293</v>
+        <v>33.06448621516176</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.525267552433178</v>
+        <v>32.97419678898865</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>7.123481193621586</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.1327298649224</v>
+        <v>46.4761113254828</v>
       </c>
       <c r="T40" t="n">
-        <v>28.87453221270923</v>
+        <v>54.05240904722106</v>
       </c>
       <c r="U40" t="n">
-        <v>88.14993778280223</v>
+        <v>113.5954067759274</v>
       </c>
       <c r="V40" t="n">
-        <v>53.98021509895682</v>
+        <v>79.42914433551229</v>
       </c>
       <c r="W40" t="n">
-        <v>88.36557011171982</v>
+        <v>113.8144993482753</v>
       </c>
       <c r="X40" t="n">
-        <v>27.55222716416597</v>
+        <v>53.00115640072144</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.42722512722361</v>
+        <v>45.87615436377908</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.9925080723864</v>
+        <v>303.1097557552646</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5315581799134</v>
+        <v>285.6488058627916</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9417080295888</v>
+        <v>275.058955712467</v>
       </c>
       <c r="E41" t="n">
-        <v>284.1890364811676</v>
+        <v>302.3062841640458</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1347121506172</v>
+        <v>327.2519598334955</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0847109405466</v>
+        <v>335.0605349388346</v>
       </c>
       <c r="H41" t="n">
-        <v>236.8515365074629</v>
+        <v>253.5204288805309</v>
       </c>
       <c r="I41" t="n">
-        <v>94.35684973315142</v>
+        <v>107.0218608158624</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>22.18371872563773</v>
+        <v>31.41726088137092</v>
       </c>
       <c r="S41" t="n">
-        <v>100.416094633777</v>
+        <v>115.3106501040539</v>
       </c>
       <c r="T41" t="n">
-        <v>123.2677924377913</v>
+        <v>140.7659579413755</v>
       </c>
       <c r="U41" t="n">
-        <v>153.5661838780628</v>
+        <v>171.6721176661738</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0109248790407</v>
+        <v>248.128172561919</v>
       </c>
       <c r="W41" t="n">
-        <v>251.4996351263188</v>
+        <v>269.6168828091971</v>
       </c>
       <c r="X41" t="n">
-        <v>271.9897670873748</v>
+        <v>290.1070147702531</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.4966050649594</v>
+        <v>306.6138527478377</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.79185005877315</v>
+        <v>86.90909774165141</v>
       </c>
       <c r="C42" t="n">
-        <v>74.96716539722155</v>
+        <v>93.08441308009981</v>
       </c>
       <c r="D42" t="n">
-        <v>49.70373197354456</v>
+        <v>67.82097965642282</v>
       </c>
       <c r="E42" t="n">
-        <v>59.90374686430675</v>
+        <v>78.02099454718501</v>
       </c>
       <c r="F42" t="n">
-        <v>47.32787880228969</v>
+        <v>65.44512648516795</v>
       </c>
       <c r="G42" t="n">
-        <v>39.34713034042895</v>
+        <v>57.38870968112289</v>
       </c>
       <c r="H42" t="n">
-        <v>12.03083338147312</v>
+        <v>29.4172841806238</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>69.20433559960102</v>
+        <v>85.91607701427483</v>
       </c>
       <c r="T42" t="n">
-        <v>101.3953515953029</v>
+        <v>119.2076027585873</v>
       </c>
       <c r="U42" t="n">
-        <v>128.1832686720064</v>
+        <v>146.2955381744779</v>
       </c>
       <c r="V42" t="n">
-        <v>135.0592535583311</v>
+        <v>153.1765012412093</v>
       </c>
       <c r="W42" t="n">
-        <v>153.9536495698254</v>
+        <v>172.0708972527037</v>
       </c>
       <c r="X42" t="n">
-        <v>108.0316516123833</v>
+        <v>126.1488992952615</v>
       </c>
       <c r="Y42" t="n">
-        <v>107.9413621862102</v>
+        <v>126.0586098690884</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.09064659084311</v>
+        <v>100.2078942737214</v>
       </c>
       <c r="C43" t="n">
-        <v>69.50548750753364</v>
+        <v>87.6227351904119</v>
       </c>
       <c r="D43" t="n">
-        <v>50.87413942711817</v>
+        <v>68.99138710999642</v>
       </c>
       <c r="E43" t="n">
-        <v>48.69262905547498</v>
+        <v>66.80987673835324</v>
       </c>
       <c r="F43" t="n">
-        <v>47.67971443183706</v>
+        <v>65.79696211471531</v>
       </c>
       <c r="G43" t="n">
-        <v>70.03581770571111</v>
+        <v>88.08962759236641</v>
       </c>
       <c r="H43" t="n">
-        <v>62.5847130590993</v>
+        <v>80.1379410628314</v>
       </c>
       <c r="I43" t="n">
-        <v>51.27874835480412</v>
+        <v>67.48824849308579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>69.93757057754857</v>
+        <v>85.2024242593462</v>
       </c>
       <c r="S43" t="n">
-        <v>122.5488244986994</v>
+        <v>139.5605244055826</v>
       </c>
       <c r="T43" t="n">
-        <v>129.2906268464862</v>
+        <v>147.1368221273208</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5660324165792</v>
+        <v>206.6798198560272</v>
       </c>
       <c r="V43" t="n">
-        <v>154.3963097327338</v>
+        <v>172.5135574156121</v>
       </c>
       <c r="W43" t="n">
-        <v>188.7816647454968</v>
+        <v>206.8989124283751</v>
       </c>
       <c r="X43" t="n">
-        <v>127.968321797943</v>
+        <v>146.0855694808212</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8433197610006</v>
+        <v>138.9605674438789</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.9925080723864</v>
+        <v>303.1097557552646</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5315581799134</v>
+        <v>285.6488058627916</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9417080295888</v>
+        <v>275.058955712467</v>
       </c>
       <c r="E44" t="n">
-        <v>284.1890364811676</v>
+        <v>302.3062841640458</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1347121506172</v>
+        <v>327.2519598334955</v>
       </c>
       <c r="G44" t="n">
-        <v>317.0847109405466</v>
+        <v>335.0605349388346</v>
       </c>
       <c r="H44" t="n">
-        <v>236.8515365074629</v>
+        <v>253.5204288805309</v>
       </c>
       <c r="I44" t="n">
-        <v>94.35684973315142</v>
+        <v>107.0218608158624</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.18371872563773</v>
+        <v>31.41726088137092</v>
       </c>
       <c r="S44" t="n">
-        <v>100.416094633777</v>
+        <v>115.3106501040539</v>
       </c>
       <c r="T44" t="n">
-        <v>123.2677924377913</v>
+        <v>140.7659579413755</v>
       </c>
       <c r="U44" t="n">
-        <v>153.5661838780628</v>
+        <v>171.6721176661738</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0109248790407</v>
+        <v>248.128172561919</v>
       </c>
       <c r="W44" t="n">
-        <v>251.4996351263188</v>
+        <v>269.6168828091971</v>
       </c>
       <c r="X44" t="n">
-        <v>271.9897670873748</v>
+        <v>290.1070147702531</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.4966050649594</v>
+        <v>306.6138527478377</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68.79185005877315</v>
+        <v>86.90909774165141</v>
       </c>
       <c r="C45" t="n">
-        <v>74.96716539722155</v>
+        <v>93.08441308009981</v>
       </c>
       <c r="D45" t="n">
-        <v>49.70373197354456</v>
+        <v>67.82097965642282</v>
       </c>
       <c r="E45" t="n">
-        <v>59.90374686430675</v>
+        <v>78.02099454718501</v>
       </c>
       <c r="F45" t="n">
-        <v>47.32787880228969</v>
+        <v>65.44512648516795</v>
       </c>
       <c r="G45" t="n">
-        <v>39.34713034042895</v>
+        <v>57.38870968112289</v>
       </c>
       <c r="H45" t="n">
-        <v>12.03083338147312</v>
+        <v>29.4172841806238</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>69.20433559960102</v>
+        <v>85.91607701427483</v>
       </c>
       <c r="T45" t="n">
-        <v>101.3953515953029</v>
+        <v>119.2076027585873</v>
       </c>
       <c r="U45" t="n">
-        <v>128.1832686720064</v>
+        <v>146.2955381744779</v>
       </c>
       <c r="V45" t="n">
-        <v>135.0592535583311</v>
+        <v>153.1765012412093</v>
       </c>
       <c r="W45" t="n">
-        <v>153.9536495698254</v>
+        <v>172.0708972527037</v>
       </c>
       <c r="X45" t="n">
-        <v>108.0316516123833</v>
+        <v>126.1488992952615</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.9413621862102</v>
+        <v>126.0586098690884</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.09064659084311</v>
+        <v>100.2078942737214</v>
       </c>
       <c r="C46" t="n">
-        <v>69.50548750753364</v>
+        <v>87.6227351904119</v>
       </c>
       <c r="D46" t="n">
-        <v>50.87413942711817</v>
+        <v>68.99138710999642</v>
       </c>
       <c r="E46" t="n">
-        <v>48.69262905547498</v>
+        <v>66.80987673835324</v>
       </c>
       <c r="F46" t="n">
-        <v>47.67971443183706</v>
+        <v>65.79696211471531</v>
       </c>
       <c r="G46" t="n">
-        <v>70.03581770571111</v>
+        <v>88.08962759236641</v>
       </c>
       <c r="H46" t="n">
-        <v>62.5847130590993</v>
+        <v>80.1379410628314</v>
       </c>
       <c r="I46" t="n">
-        <v>51.27874835480412</v>
+        <v>67.48824849308579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.93757057754857</v>
+        <v>85.2024242593462</v>
       </c>
       <c r="S46" t="n">
-        <v>122.5488244986994</v>
+        <v>139.5605244055826</v>
       </c>
       <c r="T46" t="n">
-        <v>129.2906268464862</v>
+        <v>147.1368221273208</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5660324165792</v>
+        <v>206.6798198560272</v>
       </c>
       <c r="V46" t="n">
-        <v>154.3963097327338</v>
+        <v>172.5135574156121</v>
       </c>
       <c r="W46" t="n">
-        <v>188.7816647454968</v>
+        <v>206.8989124283751</v>
       </c>
       <c r="X46" t="n">
-        <v>127.968321797943</v>
+        <v>146.0855694808212</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8433197610006</v>
+        <v>138.9605674438789</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>497412.6635639104</v>
+        <v>483772.8147396002</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>497412.6635639102</v>
+        <v>483772.8147396002</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>531395.249499783</v>
+        <v>504046.4551982303</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>531395.249499783</v>
+        <v>504046.4551982303</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531395.249499783</v>
+        <v>504046.4551982304</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>494710.5666645171</v>
+        <v>443733.4379356525</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>494710.566664517</v>
+        <v>443733.4379356528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534240.6709051168</v>
+        <v>508272.261757607</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534240.6709051169</v>
+        <v>508272.261757607</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534240.6709051168</v>
+        <v>508272.261757607</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430520.9785598816</v>
+        <v>393577.8421169156</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430520.9785598816</v>
+        <v>393577.8421169156</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="E2" t="n">
-        <v>535306.6359797298</v>
+        <v>532492.1203012459</v>
       </c>
       <c r="F2" t="n">
-        <v>535306.6359797296</v>
+        <v>532492.1203012458</v>
       </c>
       <c r="G2" t="n">
-        <v>609328.9787441619</v>
+        <v>570344.5741810126</v>
       </c>
       <c r="H2" t="n">
-        <v>609328.978744162</v>
+        <v>570344.5741810118</v>
       </c>
       <c r="I2" t="n">
-        <v>609328.9787441618</v>
+        <v>570344.5741810125</v>
       </c>
       <c r="J2" t="n">
-        <v>530761.5022140651</v>
+        <v>469685.9329021955</v>
       </c>
       <c r="K2" t="n">
-        <v>530761.5022140651</v>
+        <v>469685.9329021954</v>
       </c>
       <c r="L2" t="n">
-        <v>618175.2339292793</v>
+        <v>580259.9908144046</v>
       </c>
       <c r="M2" t="n">
-        <v>618175.2339292793</v>
+        <v>580259.9908144043</v>
       </c>
       <c r="N2" t="n">
-        <v>618175.2339292793</v>
+        <v>580259.9908144046</v>
       </c>
       <c r="O2" t="n">
-        <v>433188.8384149264</v>
+        <v>396194.1280258663</v>
       </c>
       <c r="P2" t="n">
-        <v>433188.8384149263</v>
+        <v>396194.1280258662</v>
       </c>
     </row>
     <row r="3">
@@ -26374,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>213221.4749899867</v>
+        <v>239865.2888087561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35722.49420768551</v>
+        <v>16889.70850154888</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>80332.87570702159</v>
+        <v>74467.53046407983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78193.06687287532</v>
+        <v>63699.26872657274</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>282536.4385884517</v>
+        <v>268028.3322490971</v>
       </c>
       <c r="F4" t="n">
-        <v>282536.4385884517</v>
+        <v>268028.3322490971</v>
       </c>
       <c r="G4" t="n">
-        <v>325628.2594135487</v>
+        <v>290205.0957804478</v>
       </c>
       <c r="H4" t="n">
-        <v>325628.2594135487</v>
+        <v>290205.0957804478</v>
       </c>
       <c r="I4" t="n">
-        <v>325628.2594135487</v>
+        <v>290205.0957804478</v>
       </c>
       <c r="J4" t="n">
-        <v>279860.5188205262</v>
+        <v>230919.9810313374</v>
       </c>
       <c r="K4" t="n">
-        <v>279860.5188205262</v>
+        <v>230919.9810313375</v>
       </c>
       <c r="L4" t="n">
-        <v>330718.8386820602</v>
+        <v>295961.4234338314</v>
       </c>
       <c r="M4" t="n">
-        <v>330718.8386820602</v>
+        <v>295961.4234338314</v>
       </c>
       <c r="N4" t="n">
-        <v>330718.8386820602</v>
+        <v>295961.4234338314</v>
       </c>
       <c r="O4" t="n">
-        <v>222113.9962824358</v>
+        <v>187337.1700995306</v>
       </c>
       <c r="P4" t="n">
-        <v>222113.9962824358</v>
+        <v>187337.1700995306</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14980.54609319681</v>
+        <v>15577.29424809502</v>
       </c>
       <c r="F5" t="n">
-        <v>14980.54609319681</v>
+        <v>15577.29424809502</v>
       </c>
       <c r="G5" t="n">
-        <v>18734.4890501292</v>
+        <v>17352.17037811591</v>
       </c>
       <c r="H5" t="n">
-        <v>18734.4890501292</v>
+        <v>17352.17037811591</v>
       </c>
       <c r="I5" t="n">
-        <v>18734.4890501292</v>
+        <v>17352.17037811591</v>
       </c>
       <c r="J5" t="n">
-        <v>14780.81049294258</v>
+        <v>12952.28181510701</v>
       </c>
       <c r="K5" t="n">
-        <v>14780.81049294258</v>
+        <v>12952.28181510701</v>
       </c>
       <c r="L5" t="n">
-        <v>19243.88370967989</v>
+        <v>17871.32296330393</v>
       </c>
       <c r="M5" t="n">
-        <v>19243.88370967989</v>
+        <v>17871.32296330393</v>
       </c>
       <c r="N5" t="n">
-        <v>19243.88370967989</v>
+        <v>17871.32296330392</v>
       </c>
       <c r="O5" t="n">
-        <v>10802.00304991289</v>
+        <v>10045.80944007302</v>
       </c>
       <c r="P5" t="n">
-        <v>10802.00304991289</v>
+        <v>10045.80944007302</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277024.826070774</v>
+        <v>277064.5482715869</v>
       </c>
       <c r="C6" t="n">
-        <v>277024.826070774</v>
+        <v>277064.5482715872</v>
       </c>
       <c r="D6" t="n">
-        <v>277024.826070774</v>
+        <v>277064.5482715872</v>
       </c>
       <c r="E6" t="n">
-        <v>18129.14879779627</v>
+        <v>8369.895624061452</v>
       </c>
       <c r="F6" t="n">
-        <v>231350.6237877827</v>
+        <v>248235.1844328174</v>
       </c>
       <c r="G6" t="n">
-        <v>224752.6649510378</v>
+        <v>245345.9018703999</v>
       </c>
       <c r="H6" t="n">
-        <v>260475.1591587234</v>
+        <v>262235.6103719479</v>
       </c>
       <c r="I6" t="n">
-        <v>260475.1591587231</v>
+        <v>262235.6103719486</v>
       </c>
       <c r="J6" t="n">
-        <v>149228.6608999693</v>
+        <v>150529.5507799111</v>
       </c>
       <c r="K6" t="n">
-        <v>229561.5366069909</v>
+        <v>224997.0812439908</v>
       </c>
       <c r="L6" t="n">
-        <v>185761.1697319851</v>
+        <v>202202.3712418631</v>
       </c>
       <c r="M6" t="n">
-        <v>263954.2366048605</v>
+        <v>265901.6399684356</v>
       </c>
       <c r="N6" t="n">
-        <v>263954.2366048605</v>
+        <v>265901.6399684359</v>
       </c>
       <c r="O6" t="n">
-        <v>191146.5011100476</v>
+        <v>197801.1601879859</v>
       </c>
       <c r="P6" t="n">
-        <v>191146.5011100475</v>
+        <v>197801.1601879858</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F2" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="L2" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="M2" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="N2" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="O2" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="P2" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="F3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="G3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="H3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="I3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="J3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="K3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="L3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="M3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="N3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="O3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="P3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
     </row>
     <row r="4">
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.65311775960689</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>100.416094633777</v>
+        <v>93.08441308009978</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.74133359109416</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.5773796441831</v>
+        <v>153.7565211860188</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.65311775960689</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>100.416094633777</v>
+        <v>93.08441308009978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J11" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28122,43 +28122,43 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.6431163892962</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O11" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>147.4450655646388</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.4450655646388</v>
+        <v>40.63356583286638</v>
       </c>
       <c r="R11" t="n">
-        <v>119.9250523167319</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I12" t="n">
-        <v>80.61519483059585</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J12" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L12" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O12" t="n">
-        <v>81.9125924297463</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R12" t="n">
-        <v>88.79732377166486</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J13" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5998173031742</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J14" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K14" t="n">
-        <v>147.4450655646387</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>147.4450655646387</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>49.89895538582135</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="R14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y14" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H15" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I15" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J15" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K15" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M15" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P15" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.4244527920186</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>129.8438305088408</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="16">
@@ -28484,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J16" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K16" t="n">
-        <v>35.65423622810261</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28529,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.25685892542273</v>
+        <v>62.94480855260555</v>
       </c>
       <c r="R16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.4450655646387</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J17" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>159.4527159458297</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L17" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M17" t="n">
-        <v>146.6431163892962</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>18.73246183045759</v>
       </c>
       <c r="O17" t="n">
-        <v>149.7808064989777</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P17" t="n">
-        <v>95.20209274010446</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R17" t="n">
-        <v>185.6414721897144</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="18">
@@ -28645,7 +28645,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H18" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I18" t="n">
-        <v>90.74094197918077</v>
+        <v>78.00994708433727</v>
       </c>
       <c r="J18" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K18" t="n">
-        <v>96.65593532945437</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>83.17538752246581</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M18" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.4244527920186</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S18" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="19">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H19" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I19" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J19" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K19" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L19" t="n">
-        <v>103.0942751877797</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M19" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O19" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P19" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5998173031742</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R19" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J20" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K20" t="n">
-        <v>159.4527159458297</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L20" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M20" t="n">
-        <v>146.6431163892962</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O20" t="n">
-        <v>149.7808064989777</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R20" t="n">
-        <v>185.6414721897144</v>
+        <v>111.0413467895869</v>
       </c>
       <c r="S20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="21">
@@ -28882,7 +28882,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I21" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J21" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K21" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L21" t="n">
-        <v>83.17538752246581</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M21" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O21" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R21" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S21" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="22">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H22" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I22" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J22" t="n">
-        <v>78.24153615777422</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>41.02560480168989</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.4212974654377</v>
+        <v>62.94480855260555</v>
       </c>
       <c r="R22" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J23" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>159.4527159458297</v>
+        <v>93.15760781181898</v>
       </c>
       <c r="L23" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M23" t="n">
-        <v>146.6431163892962</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N23" t="n">
-        <v>16.72299035585621</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O23" t="n">
-        <v>149.7808064989777</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.3470462388837</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R23" t="n">
-        <v>185.6414721897144</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="24">
@@ -29119,7 +29119,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H24" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I24" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J24" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K24" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L24" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>65.0066174086124</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O24" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.27042670726942</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R24" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S24" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H25" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I25" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J25" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K25" t="n">
-        <v>104.1703251893442</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M25" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P25" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.5998173031742</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R25" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="26">
@@ -29274,34 +29274,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="I26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29310,40 +29310,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>76.93904187424188</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>104.1050558187891</v>
       </c>
       <c r="R26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0884639315231</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I27" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J27" t="n">
-        <v>102.7406895448238</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L27" t="n">
-        <v>83.17538752246581</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M27" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>65.0066174086124</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O27" t="n">
-        <v>81.9125924297463</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P27" t="n">
-        <v>85.27042670726942</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R27" t="n">
-        <v>129.8438305088408</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y27" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="I28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="J28" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K28" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O28" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P28" t="n">
-        <v>111.8664719378982</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.5998173031742</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="R28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="J29" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="L29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.3555428192614</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>145.0692123933839</v>
+        <v>92.56957315024874</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>130.2071473611284</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0884639315231</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H30" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I30" t="n">
-        <v>90.74094197918077</v>
+        <v>78.00994708433727</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O30" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R30" t="n">
-        <v>129.8438305088408</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="J31" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K31" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29708,37 +29708,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.5998173031742</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>114.1965487070359</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="E32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="F32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="G32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="H32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="I32" t="n">
-        <v>192.0981833242456</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>159.4527159458297</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L32" t="n">
-        <v>160.5406869772257</v>
+        <v>116.0860447944919</v>
       </c>
       <c r="M32" t="n">
-        <v>146.6431163892962</v>
+        <v>121.8103548324807</v>
       </c>
       <c r="N32" t="n">
-        <v>144.3555428192614</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O32" t="n">
-        <v>149.7808064989777</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P32" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R32" t="n">
-        <v>185.6414721897144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="S32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y32" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="33">
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H33" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I33" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J33" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K33" t="n">
-        <v>58.25861811648044</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L33" t="n">
-        <v>83.17538752246581</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M33" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N33" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>81.9125924297463</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P33" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.4244527920186</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S33" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y33" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="34">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7137135005823</v>
       </c>
       <c r="H34" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J34" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K34" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O34" t="n">
-        <v>108.2329138828631</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.5998173031742</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R34" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="E35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="F35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="G35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="H35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="I35" t="n">
-        <v>192.0981833242456</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="J35" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L35" t="n">
-        <v>160.5406869772257</v>
+        <v>138.2229688712429</v>
       </c>
       <c r="M35" t="n">
-        <v>146.6431163892962</v>
+        <v>65.90878350638317</v>
       </c>
       <c r="N35" t="n">
-        <v>144.3555428192614</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O35" t="n">
-        <v>149.7808064989777</v>
+        <v>125.9525066619648</v>
       </c>
       <c r="P35" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R35" t="n">
-        <v>185.6414721897144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="S35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y35" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="36">
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H36" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I36" t="n">
-        <v>90.74094197918077</v>
+        <v>78.00994708433727</v>
       </c>
       <c r="J36" t="n">
-        <v>48.91618490830201</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L36" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N36" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.27042670726942</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R36" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S36" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y36" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="37">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7137135005823</v>
       </c>
       <c r="H37" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I37" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J37" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K37" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L37" t="n">
-        <v>103.0942751877797</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>94.96401935784735</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.5998173031742</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R37" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="E38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="F38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="G38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="H38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="I38" t="n">
-        <v>192.0981833242456</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="J38" t="n">
-        <v>140.5871834188451</v>
+        <v>128.5840249688497</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>141.4630929271271</v>
       </c>
       <c r="L38" t="n">
-        <v>160.5406869772257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>146.6431163892962</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>144.3555428192614</v>
+        <v>119.1209612186038</v>
       </c>
       <c r="O38" t="n">
-        <v>149.7808064989777</v>
+        <v>121.3212252494035</v>
       </c>
       <c r="P38" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>170.8282104531398</v>
+        <v>155.5560435338397</v>
       </c>
       <c r="R38" t="n">
-        <v>185.6414721897144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="S38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="39">
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0127955893388</v>
       </c>
       <c r="H39" t="n">
-        <v>109.7721669725673</v>
+        <v>109.0413700888397</v>
       </c>
       <c r="I39" t="n">
-        <v>90.74094197918077</v>
+        <v>88.13569423292219</v>
       </c>
       <c r="J39" t="n">
-        <v>102.7406895448238</v>
+        <v>95.59169060187395</v>
       </c>
       <c r="K39" t="n">
-        <v>96.65593532945437</v>
+        <v>84.43715746015471</v>
       </c>
       <c r="L39" t="n">
-        <v>83.17538752246581</v>
+        <v>66.7457327863472</v>
       </c>
       <c r="M39" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N39" t="n">
-        <v>65.0066174086124</v>
+        <v>45.32654274550569</v>
       </c>
       <c r="O39" t="n">
-        <v>81.9125924297463</v>
+        <v>63.90916892767123</v>
       </c>
       <c r="P39" t="n">
-        <v>85.27042670726942</v>
+        <v>70.82109213700113</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.4244527920186</v>
+        <v>97.76545528792821</v>
       </c>
       <c r="R39" t="n">
-        <v>129.8438305088408</v>
+        <v>125.1457557195368</v>
       </c>
       <c r="S39" t="n">
-        <v>166.9456691906952</v>
+        <v>165.5401629224908</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y39" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7137135005823</v>
       </c>
       <c r="H40" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7620269710473</v>
       </c>
       <c r="I40" t="n">
-        <v>149.0200819458983</v>
+        <v>147.1123344013017</v>
       </c>
       <c r="J40" t="n">
-        <v>111.8777774804976</v>
+        <v>107.3927252875327</v>
       </c>
       <c r="K40" t="n">
-        <v>104.1703251893442</v>
+        <v>96.80000668271047</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>93.66280501113744</v>
       </c>
       <c r="M40" t="n">
-        <v>105.4072633376928</v>
+        <v>95.4631004261211</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>85.25630641401588</v>
       </c>
       <c r="O40" t="n">
-        <v>62.90403139449942</v>
+        <v>99.26626974036375</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>104.1939588383477</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.25685892542273</v>
+        <v>128.287766930357</v>
       </c>
       <c r="R40" t="n">
-        <v>167.6789041686428</v>
+        <v>164.8265101675621</v>
       </c>
       <c r="S40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="T40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="U40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="V40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="W40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="X40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.1574282248712</v>
+        <v>172.7084989883157</v>
       </c>
     </row>
     <row r="41">
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30492,43 +30492,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="O41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I42" t="n">
-        <v>90.74094197918077</v>
+        <v>78.00994708433727</v>
       </c>
       <c r="J42" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>96.65593532945437</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>77.50936201593852</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.50299171961839</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y42" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="43">
@@ -30617,43 +30617,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="J43" t="n">
-        <v>97.74133359109419</v>
+        <v>73.75648396480938</v>
       </c>
       <c r="K43" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>94.96401935784735</v>
+        <v>16.10904786524043</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30662,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.74133359109419</v>
+        <v>62.94480855260555</v>
       </c>
       <c r="R43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="44">
@@ -30696,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="J44" t="n">
-        <v>83.15514969330802</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>35.00168165353759</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I45" t="n">
-        <v>80.61519483059585</v>
+        <v>78.00994708433727</v>
       </c>
       <c r="J45" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>96.65593532945437</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="L45" t="n">
-        <v>83.17538752246581</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>77.50936201593852</v>
+        <v>58.3367298756381</v>
       </c>
       <c r="N45" t="n">
-        <v>65.0066174086124</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>81.9125924297463</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.27042670726942</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.74133359109419</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.32216069751995</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y45" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="C46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="D46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="E46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="F46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="G46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="H46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="I46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="J46" t="n">
-        <v>78.24153615777422</v>
+        <v>73.75648396480938</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.25685892542273</v>
+        <v>62.94480855260555</v>
       </c>
       <c r="R46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="S46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="T46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="U46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="V46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="W46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="X46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.74133359109419</v>
+        <v>79.62408590821593</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H11" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I11" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J11" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K11" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L11" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M11" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N11" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O11" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P11" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R11" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S11" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T11" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H12" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I12" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J12" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K12" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L12" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M12" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N12" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O12" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P12" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R12" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S12" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T12" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H13" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I13" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J13" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K13" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L13" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M13" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N13" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O13" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P13" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R13" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S13" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H14" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I14" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J14" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K14" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L14" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M14" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N14" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O14" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P14" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R14" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S14" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T14" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H15" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I15" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J15" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K15" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L15" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M15" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N15" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O15" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P15" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R15" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S15" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T15" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H16" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I16" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J16" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K16" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L16" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M16" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N16" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O16" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P16" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R16" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S16" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H17" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I17" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J17" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K17" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L17" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M17" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N17" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O17" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P17" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R17" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S17" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T17" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H18" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I18" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J18" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K18" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L18" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M18" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N18" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O18" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P18" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R18" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S18" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T18" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H19" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I19" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J19" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K19" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L19" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M19" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N19" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O19" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P19" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R19" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S19" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H20" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I20" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J20" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K20" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L20" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M20" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N20" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O20" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P20" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R20" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S20" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T20" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H21" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I21" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J21" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K21" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L21" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M21" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N21" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O21" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P21" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R21" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S21" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T21" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H22" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I22" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J22" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K22" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L22" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M22" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N22" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O22" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P22" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R22" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S22" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H23" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I23" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J23" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K23" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L23" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M23" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N23" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O23" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P23" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R23" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S23" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T23" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H24" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I24" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J24" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K24" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L24" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M24" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N24" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O24" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P24" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R24" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S24" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T24" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H25" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I25" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J25" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K25" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L25" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M25" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N25" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O25" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P25" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R25" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S25" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H26" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I26" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J26" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K26" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L26" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M26" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N26" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O26" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P26" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R26" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S26" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T26" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H27" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I27" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J27" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K27" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L27" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M27" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N27" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O27" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P27" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R27" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S27" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T27" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H28" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I28" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J28" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K28" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L28" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M28" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N28" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O28" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P28" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R28" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S28" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H29" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I29" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J29" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K29" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L29" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M29" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N29" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O29" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P29" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R29" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S29" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T29" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H30" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I30" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J30" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K30" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L30" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M30" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N30" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O30" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P30" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R30" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S30" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T30" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H31" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I31" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J31" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K31" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L31" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M31" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N31" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O31" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P31" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R31" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S31" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H32" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I32" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J32" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K32" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L32" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M32" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N32" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O32" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P32" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R32" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S32" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T32" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H33" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I33" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J33" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K33" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L33" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M33" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N33" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O33" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P33" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R33" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S33" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T33" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H34" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I34" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J34" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K34" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L34" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M34" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N34" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O34" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P34" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R34" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S34" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H35" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I35" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J35" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K35" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L35" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M35" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N35" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O35" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P35" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R35" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S35" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T35" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H36" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I36" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J36" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K36" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L36" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M36" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N36" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O36" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P36" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R36" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S36" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T36" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H37" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I37" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J37" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K37" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L37" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M37" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N37" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O37" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P37" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R37" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S37" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H38" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I38" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J38" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K38" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L38" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M38" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N38" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O38" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P38" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R38" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S38" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T38" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H39" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I39" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J39" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K39" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L39" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M39" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N39" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O39" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P39" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R39" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S39" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T39" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H40" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I40" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J40" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K40" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L40" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M40" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N40" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O40" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P40" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R40" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S40" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H41" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J41" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K41" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L41" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M41" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N41" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O41" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P41" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R41" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S41" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T41" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H42" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I42" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J42" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K42" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L42" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M42" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N42" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O42" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P42" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R42" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S42" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T42" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H43" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I43" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J43" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K43" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L43" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M43" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N43" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O43" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P43" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R43" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S43" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4766929834942032</v>
+        <v>0.6181166680844971</v>
       </c>
       <c r="H44" t="n">
-        <v>4.88193201721001</v>
+        <v>6.330287327020358</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37770624616029</v>
+        <v>23.8299428463276</v>
       </c>
       <c r="J44" t="n">
-        <v>40.45872110784116</v>
+        <v>52.46187955783663</v>
       </c>
       <c r="K44" t="n">
-        <v>60.6371350991508</v>
+        <v>78.62675811785341</v>
       </c>
       <c r="L44" t="n">
-        <v>75.22572799276153</v>
+        <v>97.54344609874437</v>
       </c>
       <c r="M44" t="n">
-        <v>83.70311683797657</v>
+        <v>108.535878394792</v>
       </c>
       <c r="N44" t="n">
-        <v>85.05752077732949</v>
+        <v>110.2921023779871</v>
       </c>
       <c r="O44" t="n">
-        <v>80.31740492270899</v>
+        <v>104.1457047597219</v>
       </c>
       <c r="P44" t="n">
-        <v>68.54904689269584</v>
+        <v>88.88594951638586</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.47747942130967</v>
+        <v>66.74964634060979</v>
       </c>
       <c r="R44" t="n">
-        <v>29.94406562441777</v>
+        <v>38.82777115156283</v>
       </c>
       <c r="S44" t="n">
-        <v>10.86264136137417</v>
+        <v>14.08533357397549</v>
       </c>
       <c r="T44" t="n">
-        <v>2.086723535245876</v>
+        <v>2.705805714539887</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03813543867953625</v>
+        <v>0.04944933344675976</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2550532316874883</v>
+        <v>0.330721573871814</v>
       </c>
       <c r="H45" t="n">
-        <v>2.463277263929164</v>
+        <v>3.19407414765673</v>
       </c>
       <c r="I45" t="n">
-        <v>8.781438020819225</v>
+        <v>11.38668576707781</v>
       </c>
       <c r="J45" t="n">
-        <v>24.09693712184292</v>
+        <v>31.24593606479274</v>
       </c>
       <c r="K45" t="n">
-        <v>41.18550364490464</v>
+        <v>53.40428151420428</v>
       </c>
       <c r="L45" t="n">
-        <v>55.37899225740837</v>
+        <v>71.80864699352698</v>
       </c>
       <c r="M45" t="n">
-        <v>64.6246719060798</v>
+        <v>83.79730404638022</v>
       </c>
       <c r="N45" t="n">
-        <v>66.33509467472091</v>
+        <v>86.01516933782761</v>
       </c>
       <c r="O45" t="n">
-        <v>60.68365201469814</v>
+        <v>78.68707551677321</v>
       </c>
       <c r="P45" t="n">
-        <v>48.70398070706081</v>
+        <v>63.15331527732911</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.55732129400289</v>
+        <v>42.21631879809331</v>
       </c>
       <c r="R45" t="n">
-        <v>15.83567345512318</v>
+        <v>20.53374824442719</v>
       </c>
       <c r="S45" t="n">
-        <v>4.737501913142597</v>
+        <v>6.143008181347067</v>
       </c>
       <c r="T45" t="n">
-        <v>1.028043508424568</v>
+        <v>1.333040028018408</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01677981787417687</v>
+        <v>0.0217579982810404</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.213828061653445</v>
+        <v>0.2772658578764273</v>
       </c>
       <c r="H46" t="n">
-        <v>1.901125857246085</v>
+        <v>2.465145536392237</v>
       </c>
       <c r="I46" t="n">
-        <v>6.430392981359966</v>
+        <v>8.338140525956561</v>
       </c>
       <c r="J46" t="n">
-        <v>15.11764395889856</v>
+        <v>19.60269615186341</v>
       </c>
       <c r="K46" t="n">
-        <v>24.84293298119115</v>
+        <v>32.21325148782491</v>
       </c>
       <c r="L46" t="n">
-        <v>31.79040109345855</v>
+        <v>41.22187127010084</v>
       </c>
       <c r="M46" t="n">
-        <v>33.51852060991229</v>
+        <v>43.46268352148395</v>
       </c>
       <c r="N46" t="n">
-        <v>32.72152510738584</v>
+        <v>42.4292380512173</v>
       </c>
       <c r="O46" t="n">
-        <v>30.22362456897967</v>
+        <v>39.19026871147903</v>
       </c>
       <c r="P46" t="n">
-        <v>25.86153211124937</v>
+        <v>33.53404521079988</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.90518432627166</v>
+        <v>23.21723469908883</v>
       </c>
       <c r="R46" t="n">
-        <v>9.614487208526715</v>
+        <v>12.46688120960735</v>
       </c>
       <c r="S46" t="n">
-        <v>3.726439947178672</v>
+        <v>4.831987723173735</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9136289907010828</v>
+        <v>1.184681392744734</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01166334881746065</v>
+        <v>0.01512359224780514</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
